--- a/me/4.create-a-restful-api/6.authentication-using-json-web-tokens.xlsx
+++ b/me/4.create-a-restful-api/6.authentication-using-json-web-tokens.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E9084A-EFEC-4617-B8FC-56AFDE9D4933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AED665-2FAF-48BD-A0DF-453CF8708C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction jwt" sheetId="1" r:id="rId1"/>
+    <sheet name="encode a payload" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
   <si>
     <t>An introduction to JSON web tokens (JWTs)</t>
   </si>
@@ -64,13 +65,326 @@
   </si>
   <si>
     <t>vì payload là 1 thành phần để tạo ra signature</t>
+  </si>
+  <si>
+    <t>Create a class to encode a payload in a JWT</t>
+  </si>
+  <si>
+    <t>Mình đã hiểu về jwt, giờ mình sẽ bắt đầu code để tạo ra chuỗi jwt</t>
+  </si>
+  <si>
+    <t>構成</t>
+  </si>
+  <si>
+    <t>rest-api-php</t>
+  </si>
+  <si>
+    <t>1.api-basics</t>
+  </si>
+  <si>
+    <t>2.http-basics</t>
+  </si>
+  <si>
+    <t>3.rest-and-restful-apis</t>
+  </si>
+  <si>
+    <t>1.access-a-restful-api</t>
+  </si>
+  <si>
+    <t>gists.php</t>
+  </si>
+  <si>
+    <t>index.php</t>
+  </si>
+  <si>
+    <t>2.guzzlehttp</t>
+  </si>
+  <si>
+    <t>3.use-an-sdk</t>
+  </si>
+  <si>
+    <t>4.create-a-restful-api</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>.htaccess</t>
+  </si>
+  <si>
+    <t>bootstrap.php</t>
+  </si>
+  <si>
+    <t>login.php</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>1.create_database.sql</t>
+  </si>
+  <si>
+    <t>2.create_task_table.sql</t>
+  </si>
+  <si>
+    <t>3.insert_task_table.sql</t>
+  </si>
+  <si>
+    <t>4.create_user_table.sql</t>
+  </si>
+  <si>
+    <t>5.link_tasks_to_users.sql</t>
+  </si>
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Auth.php</t>
+  </si>
+  <si>
+    <t>Database.php</t>
+  </si>
+  <si>
+    <t>ErrorHandler.php</t>
+  </si>
+  <si>
+    <t>TaskController.php</t>
+  </si>
+  <si>
+    <t>TaskGateway.php</t>
+  </si>
+  <si>
+    <t>UserGateway.php</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>.env</t>
+  </si>
+  <si>
+    <t>composer.json</t>
+  </si>
+  <si>
+    <t>register.php</t>
+  </si>
+  <si>
+    <t>JWTCodec.php</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\JWTCodec.php</t>
+  </si>
+  <si>
+    <t>&lt;?php</t>
+  </si>
+  <si>
+    <t>class JWTCodec</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>    public function encode(array $payload): string</t>
+  </si>
+  <si>
+    <t>    {</t>
+  </si>
+  <si>
+    <t>        $header = json_encode([</t>
+  </si>
+  <si>
+    <t>            "typ" =&gt; "JWT",</t>
+  </si>
+  <si>
+    <t>            "alg" =&gt; "HS256"</t>
+  </si>
+  <si>
+    <t>        ]);</t>
+  </si>
+  <si>
+    <t>        $header = $this-&gt;base64urlEncode($header);</t>
+  </si>
+  <si>
+    <t>        $payload = json_encode($payload);</t>
+  </si>
+  <si>
+    <t>        $payload = $this-&gt;base64urlEncode($payload);</t>
+  </si>
+  <si>
+    <t>        $signature = hash_hmac(</t>
+  </si>
+  <si>
+    <t>            "sha256",</t>
+  </si>
+  <si>
+    <t>            $header . "." . $payload,</t>
+  </si>
+  <si>
+    <t>            true</t>
+  </si>
+  <si>
+    <t>        );</t>
+  </si>
+  <si>
+    <t>        $signature = $this-&gt;base64urlEncode($signature);</t>
+  </si>
+  <si>
+    <t>        return $header . "." . $payload . "." . $signature;</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>    private function base64urlEncode(string $text): string</t>
+  </si>
+  <si>
+    <t>        return str_replace(</t>
+  </si>
+  <si>
+    <t>            ["+", "/", "="],</t>
+  </si>
+  <si>
+    <t>            ["-", "_", ""],</t>
+  </si>
+  <si>
+    <t>            base64_encode($text)</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>URL applications</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Base64#The_URL_applications</t>
+  </si>
+  <si>
+    <t>Giá trị encode base64 thì các ký tự đặc biệt "+" sẽ được replace thành "-", "/" được replace thành "_", "=" thì thì được remove</t>
+  </si>
+  <si>
+    <t>secret key</t>
+  </si>
+  <si>
+    <t>hash_hmac</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/en/function.hash-hmac.php</t>
+  </si>
+  <si>
+    <t>https://datatracker.ietf.org/doc/html/rfc7518#section-3.2</t>
+  </si>
+  <si>
+    <t>Theo standard thì secret key $key phải có length ít nhất là bằng length của out hash trong trường hợp này mình dùng thuật toán là sha256 nên hash out</t>
+  </si>
+  <si>
+    <t>có length là 256 bit</t>
+  </si>
+  <si>
+    <t>256-bit key generator</t>
+  </si>
+  <si>
+    <t>HMAC with SHA-2 Functions</t>
+  </si>
+  <si>
+    <t>            "3979244226452948404D635166546A576E5A7234743777217A25432A462D4A61",</t>
+  </si>
+  <si>
+    <t>output là chuỗi các ký tự binary</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\api\index.php</t>
+  </si>
+  <si>
+    <t>declare(strict_types=1);</t>
+  </si>
+  <si>
+    <t>require __DIR__ . "/bootstrap.php";</t>
+  </si>
+  <si>
+    <t>ini_set("display_errors", "On");</t>
+  </si>
+  <si>
+    <t>$path = parse_url($_SERVER["REQUEST_URI"], PHP_URL_PATH);</t>
+  </si>
+  <si>
+    <t>$parts = explode("/", $path);</t>
+  </si>
+  <si>
+    <t>$resource = $parts[2];</t>
+  </si>
+  <si>
+    <t>$id = $parts[3] ?? null;</t>
+  </si>
+  <si>
+    <t>if ($resource != "tasks") {</t>
+  </si>
+  <si>
+    <t>    http_response_code(404);</t>
+  </si>
+  <si>
+    <t>    exit;</t>
+  </si>
+  <si>
+    <t>$payload = ["id" =&gt; 123];</t>
+  </si>
+  <si>
+    <t>$codec = new JWTCodec;</t>
+  </si>
+  <si>
+    <t>echo json_encode($codec-&gt;encode($payload));</t>
+  </si>
+  <si>
+    <t>exit;</t>
+  </si>
+  <si>
+    <t>$database = new Database($_ENV["DB_HOST"], $_ENV["DB_NAME"], $_ENV["DB_USER"], $_ENV["DB_PASS"]);</t>
+  </si>
+  <si>
+    <t>$user_gateway = new UserGateway($database);</t>
+  </si>
+  <si>
+    <t>$auth = new Auth($user_gateway);</t>
+  </si>
+  <si>
+    <t>if (!$auth-&gt;authenticateAccessToken()) {</t>
+  </si>
+  <si>
+    <t>$user_id = $auth-&gt;getUserID();</t>
+  </si>
+  <si>
+    <t>$task_gateway = new TaskGateway($database);</t>
+  </si>
+  <si>
+    <t>$controller = new TaskController($task_gateway, $user_id);</t>
+  </si>
+  <si>
+    <t>$controller-&gt;processRequest($_SERVER['REQUEST_METHOD'], $id);</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Check by call api</t>
+  </si>
+  <si>
+    <t>Call api /tasks GET để xem giá trị jwt mình tạo ra</t>
+  </si>
+  <si>
+    <t>Option Hex này để ta lấy chuỗi Hex, ko có bất kỳ 1 ký tự đặc biệt nào</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +392,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -175,11 +502,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -192,6 +528,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,6 +1166,752 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>59503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191BF937-C9F8-45B1-E798-DFF9EEEAE654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771526" y="1390650"/>
+          <a:ext cx="11201400" cy="4002853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF91734-1019-91E3-F51B-A8C79A745488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="971550"/>
+          <a:ext cx="762000" cy="17602200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>65544</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>27890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E102A2CC-804E-1CED-B927-4BBE75ABB2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="7124700"/>
+          <a:ext cx="9047619" cy="5476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAC7955-A5E0-5F4E-A1ED-ECD1C5EED339}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191625" y="6810375"/>
+          <a:ext cx="371475" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39437035-EAB3-3D40-184F-2BEC5061D87C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1466850" y="6858000"/>
+          <a:ext cx="17154525" cy="9401175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>75221</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>132675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB54A7A3-5657-451B-DB77-103AC8E63EAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="13401675"/>
+          <a:ext cx="7828571" cy="5400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3495DF0C-F0D7-D8D3-661E-6B84AFD91A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13639800" y="6810375"/>
+          <a:ext cx="228600" cy="8696325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>503931</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>75676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622F4F32-46E5-387D-F165-013E14C3A8E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7372350" y="19507200"/>
+          <a:ext cx="7152381" cy="4190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>522833</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>142251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3A3F7D-2147-FDAC-A831-A5BF8BC25C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="24107775"/>
+          <a:ext cx="8333333" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BABA37-7CB8-08DB-C9F2-0574BF879075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4752975" y="16744950"/>
+          <a:ext cx="7277100" cy="11591925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53319989-3307-DF3E-6BE4-9385B17E2A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11201400" y="7038975"/>
+          <a:ext cx="571500" cy="12182475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>102551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E34009-C9C4-2430-8C55-26004445A466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723901" y="29565600"/>
+          <a:ext cx="9486900" cy="3112451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12E9533-0FF8-27FD-F6D6-D063E863FE48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="25136475"/>
+          <a:ext cx="257175" cy="7124700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D308F750-5F1C-C05E-084F-7ECF95C4CBB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="17697450"/>
+          <a:ext cx="428625" cy="7334250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5ACA09-C512-D649-8FBF-4901048924D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17040225" y="27508200"/>
+          <a:ext cx="2943225" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1088,7 +2177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
@@ -2925,4 +4014,4124 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EE28-A106-4B7F-A1EE-7E85C002A333}">
+  <dimension ref="A2:AH172"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U139" workbookViewId="0">
+      <selection activeCell="AL147" sqref="AL147"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="10"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="3"/>
+      <c r="S34" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="3"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="S35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="6"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="S36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="6"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="S37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="6"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="7"/>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="6"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="7"/>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="6"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="7"/>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="6"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="7"/>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="6"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="7"/>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="6"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="7"/>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="6"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="7"/>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="6"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="7"/>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="6"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="6"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="7"/>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="6"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="7"/>
+      <c r="F47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" t="s">
+        <v>48</v>
+      </c>
+      <c r="L47" t="s">
+        <v>113</v>
+      </c>
+      <c r="S47" s="7"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="6"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="7"/>
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="6"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="7"/>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="6"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="7"/>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="6"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="7"/>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="6"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="7"/>
+      <c r="F52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="6"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="7"/>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="6"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="7"/>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="6"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="7"/>
+      <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="6"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="7"/>
+      <c r="F56" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="6"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="7"/>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="6"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="7"/>
+      <c r="F58" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="6"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="7"/>
+      <c r="F59" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" t="s">
+        <v>48</v>
+      </c>
+      <c r="L59" t="s">
+        <v>49</v>
+      </c>
+      <c r="S59" s="7"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="6"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="7"/>
+      <c r="F60" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="6"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="7"/>
+      <c r="F61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="6"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="7"/>
+      <c r="F62" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="6"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="7"/>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="6"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="7"/>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="6"/>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="7"/>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="6"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="10"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="6"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S67" s="7"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="6"/>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S68" s="7"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="6"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="S69" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="6"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B70" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="3"/>
+      <c r="S70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="6"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="6"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="6"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="6"/>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="6"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="6"/>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="6"/>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="6"/>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="6"/>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="6"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="6"/>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="6"/>
+    </row>
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B81" s="7"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="6"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="6"/>
+    </row>
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="6"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="6"/>
+    </row>
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="6"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="6"/>
+    </row>
+    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="6"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5"/>
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="6"/>
+    </row>
+    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="6"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5"/>
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="6"/>
+    </row>
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="6"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5"/>
+      <c r="AG86" s="5"/>
+      <c r="AH86" s="6"/>
+    </row>
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="6"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+      <c r="AG87" s="5"/>
+      <c r="AH87" s="6"/>
+    </row>
+    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="6"/>
+      <c r="J88" t="s">
+        <v>48</v>
+      </c>
+      <c r="K88" t="s">
+        <v>80</v>
+      </c>
+      <c r="S88" s="7"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+      <c r="AG88" s="5"/>
+      <c r="AH88" s="6"/>
+    </row>
+    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="6"/>
+      <c r="J89" t="s">
+        <v>48</v>
+      </c>
+      <c r="K89" t="s">
+        <v>89</v>
+      </c>
+      <c r="S89" s="7"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5"/>
+      <c r="AG89" s="5"/>
+      <c r="AH89" s="6"/>
+    </row>
+    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="6"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+      <c r="AG90" s="5"/>
+      <c r="AH90" s="6"/>
+    </row>
+    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B91" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="6"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5"/>
+      <c r="AG91" s="5"/>
+      <c r="AH91" s="6"/>
+    </row>
+    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="6"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5"/>
+      <c r="AG92" s="5"/>
+      <c r="AH92" s="6"/>
+    </row>
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5"/>
+      <c r="AG93" s="5"/>
+      <c r="AH93" s="6"/>
+    </row>
+    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="6"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="6"/>
+    </row>
+    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B95" s="7"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="6"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="6"/>
+    </row>
+    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="6"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+      <c r="AG96" s="5"/>
+      <c r="AH96" s="6"/>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="6"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5"/>
+      <c r="AG97" s="5"/>
+      <c r="AH97" s="6"/>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="6"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="6"/>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B99" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="6"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="9"/>
+      <c r="AA99" s="9"/>
+      <c r="AB99" s="9"/>
+      <c r="AC99" s="9"/>
+      <c r="AD99" s="9"/>
+      <c r="AE99" s="9"/>
+      <c r="AF99" s="9"/>
+      <c r="AG99" s="9"/>
+      <c r="AH99" s="10"/>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="6"/>
+      <c r="S102" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
+      <c r="AF102" s="3"/>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="6"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="6"/>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="10"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="6"/>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S105" s="7"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="6"/>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S106" s="7"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="6"/>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>90</v>
+      </c>
+      <c r="S107" s="7"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="6"/>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B108" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="3"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
+      <c r="Y108" s="5"/>
+      <c r="Z108" s="5"/>
+      <c r="AA108" s="5"/>
+      <c r="AB108" s="5"/>
+      <c r="AC108" s="5"/>
+      <c r="AD108" s="5"/>
+      <c r="AE108" s="5"/>
+      <c r="AF108" s="6"/>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="6"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5"/>
+      <c r="AA109" s="5"/>
+      <c r="AB109" s="5"/>
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="5"/>
+      <c r="AE109" s="5"/>
+      <c r="AF109" s="6"/>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="6"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
+      <c r="W110" s="5"/>
+      <c r="X110" s="5"/>
+      <c r="Y110" s="5"/>
+      <c r="Z110" s="5"/>
+      <c r="AA110" s="5"/>
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="6"/>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="6"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+      <c r="W111" s="5"/>
+      <c r="X111" s="5"/>
+      <c r="Y111" s="5"/>
+      <c r="Z111" s="5"/>
+      <c r="AA111" s="5"/>
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="6"/>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="6"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="5"/>
+      <c r="W112" s="5"/>
+      <c r="X112" s="5"/>
+      <c r="Y112" s="5"/>
+      <c r="Z112" s="5"/>
+      <c r="AA112" s="5"/>
+      <c r="AB112" s="5"/>
+      <c r="AC112" s="5"/>
+      <c r="AD112" s="5"/>
+      <c r="AE112" s="5"/>
+      <c r="AF112" s="6"/>
+    </row>
+    <row r="113" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B113" s="7"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="6"/>
+      <c r="S113" s="7"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="6"/>
+    </row>
+    <row r="114" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="6"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="6"/>
+    </row>
+    <row r="115" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B115" s="7"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="6"/>
+      <c r="S115" s="7"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5"/>
+      <c r="X115" s="5"/>
+      <c r="Y115" s="5"/>
+      <c r="Z115" s="5"/>
+      <c r="AA115" s="5"/>
+      <c r="AB115" s="5"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="5"/>
+      <c r="AE115" s="5"/>
+      <c r="AF115" s="6"/>
+    </row>
+    <row r="116" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="6"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
+      <c r="AE116" s="5"/>
+      <c r="AF116" s="6"/>
+    </row>
+    <row r="117" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B117" s="7"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="6"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="5"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="5"/>
+      <c r="X117" s="5"/>
+      <c r="Y117" s="5"/>
+      <c r="Z117" s="5"/>
+      <c r="AA117" s="5"/>
+      <c r="AB117" s="5"/>
+      <c r="AC117" s="5"/>
+      <c r="AD117" s="5"/>
+      <c r="AE117" s="5"/>
+      <c r="AF117" s="6"/>
+    </row>
+    <row r="118" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="6"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="5"/>
+      <c r="W118" s="5"/>
+      <c r="X118" s="5"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="5"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="5"/>
+      <c r="AE118" s="5"/>
+      <c r="AF118" s="6"/>
+    </row>
+    <row r="119" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B119" s="7"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="6"/>
+      <c r="S119" s="7"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
+      <c r="Y119" s="5"/>
+      <c r="Z119" s="5"/>
+      <c r="AA119" s="5"/>
+      <c r="AB119" s="5"/>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="5"/>
+      <c r="AE119" s="5"/>
+      <c r="AF119" s="6"/>
+    </row>
+    <row r="120" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B120" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="6"/>
+      <c r="S120" s="7"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
+      <c r="W120" s="5"/>
+      <c r="X120" s="5"/>
+      <c r="Y120" s="5"/>
+      <c r="Z120" s="5"/>
+      <c r="AA120" s="5"/>
+      <c r="AB120" s="5"/>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="5"/>
+      <c r="AE120" s="5"/>
+      <c r="AF120" s="6"/>
+    </row>
+    <row r="121" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B121" s="7"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="6"/>
+      <c r="S121" s="7"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="6"/>
+    </row>
+    <row r="122" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B122" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="6"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
+      <c r="AB122" s="5"/>
+      <c r="AC122" s="5"/>
+      <c r="AD122" s="5"/>
+      <c r="AE122" s="5"/>
+      <c r="AF122" s="6"/>
+    </row>
+    <row r="123" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B123" s="7"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="6"/>
+      <c r="S123" s="7"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="5"/>
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="5"/>
+      <c r="AE123" s="5"/>
+      <c r="AF123" s="6"/>
+    </row>
+    <row r="124" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="6"/>
+      <c r="S124" s="7"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+      <c r="W124" s="5"/>
+      <c r="X124" s="5"/>
+      <c r="Y124" s="5"/>
+      <c r="Z124" s="5"/>
+      <c r="AA124" s="5"/>
+      <c r="AB124" s="5"/>
+      <c r="AC124" s="5"/>
+      <c r="AD124" s="5"/>
+      <c r="AE124" s="5"/>
+      <c r="AF124" s="6"/>
+    </row>
+    <row r="125" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="6"/>
+      <c r="S125" s="7"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
+      <c r="W125" s="5"/>
+      <c r="X125" s="5"/>
+      <c r="Y125" s="5"/>
+      <c r="Z125" s="5"/>
+      <c r="AA125" s="5"/>
+      <c r="AB125" s="5"/>
+      <c r="AC125" s="5"/>
+      <c r="AD125" s="5"/>
+      <c r="AE125" s="5"/>
+      <c r="AF125" s="6"/>
+    </row>
+    <row r="126" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="6"/>
+      <c r="S126" s="7"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+      <c r="W126" s="5"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="5"/>
+      <c r="AA126" s="5"/>
+      <c r="AB126" s="5"/>
+      <c r="AC126" s="5"/>
+      <c r="AD126" s="5"/>
+      <c r="AE126" s="5"/>
+      <c r="AF126" s="6"/>
+    </row>
+    <row r="127" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B127" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="6"/>
+      <c r="S127" s="7"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
+      <c r="W127" s="5"/>
+      <c r="X127" s="5"/>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="5"/>
+      <c r="AA127" s="5"/>
+      <c r="AB127" s="5"/>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="5"/>
+      <c r="AE127" s="5"/>
+      <c r="AF127" s="6"/>
+    </row>
+    <row r="128" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B128" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="6"/>
+      <c r="S128" s="7"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="5"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="5"/>
+      <c r="AE128" s="5"/>
+      <c r="AF128" s="6"/>
+    </row>
+    <row r="129" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B129" s="7"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="6"/>
+      <c r="S129" s="7"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
+      <c r="W129" s="5"/>
+      <c r="X129" s="5"/>
+      <c r="Y129" s="5"/>
+      <c r="Z129" s="5"/>
+      <c r="AA129" s="5"/>
+      <c r="AB129" s="5"/>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="5"/>
+      <c r="AE129" s="5"/>
+      <c r="AF129" s="6"/>
+    </row>
+    <row r="130" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B130" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="6"/>
+      <c r="S130" s="7"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="5"/>
+      <c r="V130" s="5"/>
+      <c r="W130" s="5"/>
+      <c r="X130" s="5"/>
+      <c r="Y130" s="5"/>
+      <c r="Z130" s="5"/>
+      <c r="AA130" s="5"/>
+      <c r="AB130" s="5"/>
+      <c r="AC130" s="5"/>
+      <c r="AD130" s="5"/>
+      <c r="AE130" s="5"/>
+      <c r="AF130" s="6"/>
+    </row>
+    <row r="131" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B131" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="6"/>
+      <c r="S131" s="7"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
+      <c r="V131" s="5"/>
+      <c r="W131" s="5"/>
+      <c r="X131" s="5"/>
+      <c r="Y131" s="5"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="5"/>
+      <c r="AB131" s="5"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="5"/>
+      <c r="AE131" s="5"/>
+      <c r="AF131" s="6"/>
+    </row>
+    <row r="132" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B132" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="6"/>
+      <c r="S132" s="7"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="5"/>
+      <c r="V132" s="5"/>
+      <c r="W132" s="5"/>
+      <c r="X132" s="5"/>
+      <c r="Y132" s="5"/>
+      <c r="Z132" s="5"/>
+      <c r="AA132" s="5"/>
+      <c r="AB132" s="5"/>
+      <c r="AC132" s="5"/>
+      <c r="AD132" s="5"/>
+      <c r="AE132" s="5"/>
+      <c r="AF132" s="6"/>
+    </row>
+    <row r="133" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B133" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="6"/>
+      <c r="S133" s="7"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
+      <c r="W133" s="5"/>
+      <c r="X133" s="5"/>
+      <c r="Y133" s="5"/>
+      <c r="Z133" s="5"/>
+      <c r="AA133" s="5"/>
+      <c r="AB133" s="5"/>
+      <c r="AC133" s="5"/>
+      <c r="AD133" s="5"/>
+      <c r="AE133" s="5"/>
+      <c r="AF133" s="6"/>
+    </row>
+    <row r="134" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B134" s="7"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="6"/>
+      <c r="S134" s="7"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="5"/>
+      <c r="W134" s="5"/>
+      <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
+      <c r="AB134" s="5"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="5"/>
+      <c r="AE134" s="5"/>
+      <c r="AF134" s="6"/>
+    </row>
+    <row r="135" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B135" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="6"/>
+      <c r="S135" s="7"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
+      <c r="W135" s="5"/>
+      <c r="X135" s="5"/>
+      <c r="Y135" s="5"/>
+      <c r="Z135" s="5"/>
+      <c r="AA135" s="5"/>
+      <c r="AB135" s="5"/>
+      <c r="AC135" s="5"/>
+      <c r="AD135" s="5"/>
+      <c r="AE135" s="5"/>
+      <c r="AF135" s="6"/>
+    </row>
+    <row r="136" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B136" s="7"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="6"/>
+      <c r="S136" s="7"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+      <c r="V136" s="5"/>
+      <c r="W136" s="5"/>
+      <c r="X136" s="5"/>
+      <c r="Y136" s="5"/>
+      <c r="Z136" s="5"/>
+      <c r="AA136" s="5"/>
+      <c r="AB136" s="5"/>
+      <c r="AC136" s="5"/>
+      <c r="AD136" s="5"/>
+      <c r="AE136" s="5"/>
+      <c r="AF136" s="6"/>
+    </row>
+    <row r="137" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B137" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="6"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+      <c r="W137" s="5"/>
+      <c r="X137" s="5"/>
+      <c r="Y137" s="5"/>
+      <c r="Z137" s="5"/>
+      <c r="AA137" s="5"/>
+      <c r="AB137" s="5"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="5"/>
+      <c r="AE137" s="5"/>
+      <c r="AF137" s="6"/>
+    </row>
+    <row r="138" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B138" s="7"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="6"/>
+      <c r="S138" s="7"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+      <c r="V138" s="5"/>
+      <c r="W138" s="5"/>
+      <c r="X138" s="5"/>
+      <c r="Y138" s="5"/>
+      <c r="Z138" s="5"/>
+      <c r="AA138" s="5"/>
+      <c r="AB138" s="5"/>
+      <c r="AC138" s="5"/>
+      <c r="AD138" s="5"/>
+      <c r="AE138" s="5"/>
+      <c r="AF138" s="6"/>
+    </row>
+    <row r="139" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B139" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="6"/>
+      <c r="S139" s="7"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+      <c r="V139" s="5"/>
+      <c r="W139" s="5"/>
+      <c r="X139" s="5"/>
+      <c r="Y139" s="5"/>
+      <c r="Z139" s="5"/>
+      <c r="AA139" s="5"/>
+      <c r="AB139" s="5"/>
+      <c r="AC139" s="5"/>
+      <c r="AD139" s="5"/>
+      <c r="AE139" s="5"/>
+      <c r="AF139" s="6"/>
+    </row>
+    <row r="140" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B140" s="7"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="6"/>
+      <c r="S140" s="7"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="5"/>
+      <c r="V140" s="5"/>
+      <c r="W140" s="5"/>
+      <c r="X140" s="5"/>
+      <c r="Y140" s="5"/>
+      <c r="Z140" s="5"/>
+      <c r="AA140" s="5"/>
+      <c r="AB140" s="5"/>
+      <c r="AC140" s="5"/>
+      <c r="AD140" s="5"/>
+      <c r="AE140" s="5"/>
+      <c r="AF140" s="6"/>
+    </row>
+    <row r="141" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B141" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="6"/>
+      <c r="S141" s="7"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+      <c r="V141" s="5"/>
+      <c r="W141" s="5"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+      <c r="Z141" s="5"/>
+      <c r="AA141" s="5"/>
+      <c r="AB141" s="5"/>
+      <c r="AC141" s="5"/>
+      <c r="AD141" s="5"/>
+      <c r="AE141" s="5"/>
+      <c r="AF141" s="6"/>
+    </row>
+    <row r="142" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B142" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="6"/>
+      <c r="S142" s="7"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="5"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="5"/>
+      <c r="AE142" s="5"/>
+      <c r="AF142" s="6"/>
+    </row>
+    <row r="143" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B143" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="6"/>
+      <c r="S143" s="7"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5"/>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="5"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="5"/>
+      <c r="AE143" s="5"/>
+      <c r="AF143" s="6"/>
+    </row>
+    <row r="144" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B144" s="7"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="6"/>
+      <c r="S144" s="7"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+      <c r="AE144" s="5"/>
+      <c r="AF144" s="6"/>
+    </row>
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B145" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="6"/>
+      <c r="S145" s="7"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5"/>
+      <c r="AE145" s="5"/>
+      <c r="AF145" s="6"/>
+      <c r="AH145" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B146" s="7"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="6"/>
+      <c r="S146" s="7"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
+      <c r="AE146" s="5"/>
+      <c r="AF146" s="6"/>
+    </row>
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B147" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="6"/>
+      <c r="S147" s="7"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+      <c r="AB147" s="5"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
+      <c r="AE147" s="5"/>
+      <c r="AF147" s="6"/>
+    </row>
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B148" s="7"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="6"/>
+      <c r="S148" s="7"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
+      <c r="AE148" s="5"/>
+      <c r="AF148" s="6"/>
+    </row>
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B149" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="6"/>
+      <c r="S149" s="7"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
+      <c r="AE149" s="5"/>
+      <c r="AF149" s="6"/>
+    </row>
+    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B150" s="7"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="6"/>
+      <c r="S150" s="7"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+      <c r="AE150" s="5"/>
+      <c r="AF150" s="6"/>
+    </row>
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B151" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="10"/>
+      <c r="S151" s="7"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
+      <c r="AE151" s="5"/>
+      <c r="AF151" s="6"/>
+    </row>
+    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S152" s="7"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
+      <c r="AE152" s="5"/>
+      <c r="AF152" s="6"/>
+    </row>
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="S153" s="7"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="5"/>
+      <c r="AE153" s="5"/>
+      <c r="AF153" s="6"/>
+    </row>
+    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A154" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="3"/>
+      <c r="S154" s="8"/>
+      <c r="T154" s="9"/>
+      <c r="U154" s="9"/>
+      <c r="V154" s="9"/>
+      <c r="W154" s="9"/>
+      <c r="X154" s="9"/>
+      <c r="Y154" s="9"/>
+      <c r="Z154" s="9"/>
+      <c r="AA154" s="9"/>
+      <c r="AB154" s="9"/>
+      <c r="AC154" s="9"/>
+      <c r="AD154" s="9"/>
+      <c r="AE154" s="9"/>
+      <c r="AF154" s="10"/>
+    </row>
+    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
+      <c r="B155" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="6"/>
+    </row>
+    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A156" s="7"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="6"/>
+    </row>
+    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A157" s="7"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="6"/>
+    </row>
+    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="6"/>
+    </row>
+    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A159" s="7"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="6"/>
+    </row>
+    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="6"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A161" s="7"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="6"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="6"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A163" s="7"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="6"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="6"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="6"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="6"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="6"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="6"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="6"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="6"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="6"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A172" s="8"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="9"/>
+      <c r="M172" s="9"/>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9"/>
+      <c r="P172" s="9"/>
+      <c r="Q172" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/6.authentication-using-json-web-tokens.xlsx
+++ b/me/4.create-a-restful-api/6.authentication-using-json-web-tokens.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AED665-2FAF-48BD-A0DF-453CF8708C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4273B13-F66E-4939-8A83-540681B48353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction jwt" sheetId="1" r:id="rId1"/>
     <sheet name="encode a payload" sheetId="2" r:id="rId2"/>
+    <sheet name="jwt containing claims in login " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
   <si>
     <t>An introduction to JSON web tokens (JWTs)</t>
   </si>
@@ -378,13 +379,1199 @@
   </si>
   <si>
     <t>Option Hex này để ta lấy chuỗi Hex, ko có bất kỳ 1 ký tự đặc biệt nào</t>
+  </si>
+  <si>
+    <t>Generate a JWT access token in the login endpoint containing JWT claims</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Mình đã t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o class JWTCodec đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o ra chu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i jwt, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trang login sau khi authentication b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng username và password thành công thì thay vì t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o chu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i access token b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng base64 nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>mình s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dùng class JWTCodec t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ừ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> class và g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c encode thì s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẽ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> access token là jwt</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JSON Web Token Claims</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://www.iana.org/assignments/jwt/jwt.xhtml</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\api\index.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\api\login.php</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>if ($_SERVER["REQUEST_METHOD"] !== "POST") {</t>
+  </si>
+  <si>
+    <t>    http_response_code(405);</t>
+  </si>
+  <si>
+    <t>    header("Allow: POST");</t>
+  </si>
+  <si>
+    <t>$data = (array) json_decode(file_get_contents("php://input"), true);</t>
+  </si>
+  <si>
+    <t>if (</t>
+  </si>
+  <si>
+    <t>    !array_key_exists("username", $data) ||</t>
+  </si>
+  <si>
+    <t>    !array_key_exists("password", $data)</t>
+  </si>
+  <si>
+    <t>) {</t>
+  </si>
+  <si>
+    <t>    http_response_code(400);</t>
+  </si>
+  <si>
+    <t>    echo json_encode(["message" =&gt; "missing login credentials"]);</t>
+  </si>
+  <si>
+    <t>$database = new Database(</t>
+  </si>
+  <si>
+    <t>    $_ENV["DB_HOST"],</t>
+  </si>
+  <si>
+    <t>    $_ENV["DB_NAME"],</t>
+  </si>
+  <si>
+    <t>    $_ENV["DB_USER"],</t>
+  </si>
+  <si>
+    <t>    $_ENV["DB_PASS"]</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>$user = $user_gateway-&gt;getByUsername($data["username"]);</t>
+  </si>
+  <si>
+    <t>if ($user === []) {</t>
+  </si>
+  <si>
+    <t>    http_response_code(401);</t>
+  </si>
+  <si>
+    <t>    echo json_encode(["message" =&gt; "invalid authentication"]);</t>
+  </si>
+  <si>
+    <t>if (!password_verify($data["password"], $user["password_hash"])) {</t>
+  </si>
+  <si>
+    <t>    "name" =&gt; $user["name"]</t>
+  </si>
+  <si>
+    <t>];</t>
+  </si>
+  <si>
+    <t>echo json_encode([</t>
+  </si>
+  <si>
+    <t>    "access_token" =&gt; $access_token</t>
+  </si>
+  <si>
+    <t>]);</t>
+  </si>
+  <si>
+    <r>
+      <t>    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" =&gt; $user["id"],</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$payload = [</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i JWT thì các giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> index c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a $payload là các giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> xác đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nh, nó đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i là JWT claims và nó có tên xác đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>nh theo tiêu chu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẩ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>m t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>t c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> các thông tin user nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> name, email, birthday… </t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Ngoài ra thì mình cũng có th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nh nghĩa thêm các claim khác n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n thi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t. Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i id c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a user table thì mình dùng claim đó là "sub". Mình có th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dùng nhi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u claim trong jwt n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">$access_token = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$codec-&gt;encode($payload);</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +1585,49 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -515,7 +1745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -535,6 +1765,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,6 +3146,302 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>97117</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>395941</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>179984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD38EF57-36D1-95B3-DC23-37B07128C266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754529" y="1942354"/>
+          <a:ext cx="12132236" cy="6111630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6904F7-8252-0DE8-BD2A-D05F7D412B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="971176" y="5715000"/>
+          <a:ext cx="134471" cy="33274000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>164352</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F986742-D893-F82C-120D-DE6D0F49122D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1479176" y="1800412"/>
+          <a:ext cx="7343589" cy="3802529"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5B00A1-F9F6-9C74-84C9-AEA088948975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1284941" y="2061882"/>
+          <a:ext cx="7776883" cy="4086412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>540812</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>121770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349D9C71-AA7C-0739-0E70-19513DD76F26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8090647" y="16315765"/>
+          <a:ext cx="12419047" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>470649</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>144130</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>155460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B9D26A-E45D-634B-AE82-BB40482C94CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6521825" y="31970383"/>
+          <a:ext cx="12380952" cy="2419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2181,24 +3711,24 @@
       <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2221,7 +3751,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2244,7 +3774,7 @@
       <c r="S6" s="5"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2265,7 +3795,7 @@
       <c r="S7" s="5"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20">
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2286,7 +3816,7 @@
       <c r="S8" s="5"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20">
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2307,7 +3837,7 @@
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20">
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2328,7 +3858,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20">
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2349,7 +3879,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20">
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2370,7 +3900,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20">
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2391,7 +3921,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20">
       <c r="B14" s="7"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2412,7 +3942,7 @@
       <c r="S14" s="5"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20">
       <c r="B15" s="7"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2433,7 +3963,7 @@
       <c r="S15" s="5"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20">
       <c r="B16" s="7"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2454,7 +3984,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20">
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2475,7 +4005,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20">
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2496,7 +4026,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20">
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2517,7 +4047,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20">
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2538,7 +4068,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20">
       <c r="B21" s="7"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2559,7 +4089,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20">
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2580,7 +4110,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2601,7 +4131,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2622,7 +4152,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2643,7 +4173,7 @@
       <c r="S25" s="5"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2664,7 +4194,7 @@
       <c r="S26" s="5"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2685,7 +4215,7 @@
       <c r="S27" s="5"/>
       <c r="T27" s="6"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2706,7 +4236,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20">
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2727,7 +4257,7 @@
       <c r="S29" s="5"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20">
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2748,7 +4278,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="6"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20">
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2769,7 +4299,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20">
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2790,7 +4320,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20">
       <c r="B33" s="7"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2811,7 +4341,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20">
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2832,7 +4362,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20">
       <c r="B35" s="7"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2853,7 +4383,7 @@
       <c r="S35" s="5"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20">
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2874,7 +4404,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20">
       <c r="B37" s="7"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2895,7 +4425,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20">
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2916,7 +4446,7 @@
       <c r="S38" s="5"/>
       <c r="T38" s="6"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20">
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2937,7 +4467,7 @@
       <c r="S39" s="5"/>
       <c r="T39" s="6"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20">
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2958,7 +4488,7 @@
       <c r="S40" s="9"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20">
       <c r="B43" s="11" t="s">
         <v>5</v>
       </c>
@@ -2981,7 +4511,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="3"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20">
       <c r="B44" s="7" t="s">
         <v>6</v>
       </c>
@@ -3004,7 +4534,7 @@
       <c r="S44" s="5"/>
       <c r="T44" s="6"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20">
       <c r="B45" s="7" t="s">
         <v>7</v>
       </c>
@@ -3027,7 +4557,7 @@
       <c r="S45" s="5"/>
       <c r="T45" s="6"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20">
       <c r="B46" s="7" t="s">
         <v>8</v>
       </c>
@@ -3050,7 +4580,7 @@
       <c r="S46" s="5"/>
       <c r="T46" s="6"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20">
       <c r="B47" s="7" t="s">
         <v>9</v>
       </c>
@@ -3073,7 +4603,7 @@
       <c r="S47" s="5"/>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20">
       <c r="B48" s="7"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -3094,7 +4624,7 @@
       <c r="S48" s="5"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20">
       <c r="B49" s="7"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -3115,7 +4645,7 @@
       <c r="S49" s="5"/>
       <c r="T49" s="6"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20">
       <c r="B50" s="7"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3136,7 +4666,7 @@
       <c r="S50" s="5"/>
       <c r="T50" s="6"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20">
       <c r="B51" s="7"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -3157,7 +4687,7 @@
       <c r="S51" s="5"/>
       <c r="T51" s="6"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:20">
       <c r="B52" s="7"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -3178,7 +4708,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="6"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20">
       <c r="B53" s="7"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -3199,7 +4729,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="6"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20">
       <c r="B54" s="7"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -3220,7 +4750,7 @@
       <c r="S54" s="5"/>
       <c r="T54" s="6"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20">
       <c r="B55" s="7"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -3241,7 +4771,7 @@
       <c r="S55" s="5"/>
       <c r="T55" s="6"/>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20">
       <c r="B56" s="7"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -3262,7 +4792,7 @@
       <c r="S56" s="5"/>
       <c r="T56" s="6"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20">
       <c r="B57" s="7"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -3283,7 +4813,7 @@
       <c r="S57" s="5"/>
       <c r="T57" s="6"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20">
       <c r="B58" s="7"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -3304,7 +4834,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="6"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:20">
       <c r="B59" s="7"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -3325,7 +4855,7 @@
       <c r="S59" s="5"/>
       <c r="T59" s="6"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20">
       <c r="B60" s="7"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -3346,7 +4876,7 @@
       <c r="S60" s="5"/>
       <c r="T60" s="6"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:20">
       <c r="B61" s="7"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -3367,7 +4897,7 @@
       <c r="S61" s="5"/>
       <c r="T61" s="6"/>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20">
       <c r="B62" s="7"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -3388,7 +4918,7 @@
       <c r="S62" s="5"/>
       <c r="T62" s="6"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20">
       <c r="B63" s="7"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -3409,7 +4939,7 @@
       <c r="S63" s="5"/>
       <c r="T63" s="6"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20">
       <c r="B64" s="7"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -3430,7 +4960,7 @@
       <c r="S64" s="5"/>
       <c r="T64" s="6"/>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20">
       <c r="B65" s="7"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -3451,7 +4981,7 @@
       <c r="S65" s="5"/>
       <c r="T65" s="6"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20">
       <c r="B66" s="7"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -3472,7 +5002,7 @@
       <c r="S66" s="5"/>
       <c r="T66" s="6"/>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20">
       <c r="B67" s="7"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -3493,7 +5023,7 @@
       <c r="S67" s="5"/>
       <c r="T67" s="6"/>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20">
       <c r="B68" s="7"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3514,7 +5044,7 @@
       <c r="S68" s="5"/>
       <c r="T68" s="6"/>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20">
       <c r="B69" s="7"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3535,7 +5065,7 @@
       <c r="S69" s="5"/>
       <c r="T69" s="6"/>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20">
       <c r="B70" s="7"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3556,7 +5086,7 @@
       <c r="S70" s="5"/>
       <c r="T70" s="6"/>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20">
       <c r="B71" s="7"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3577,7 +5107,7 @@
       <c r="S71" s="5"/>
       <c r="T71" s="6"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20">
       <c r="B72" s="7"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3598,7 +5128,7 @@
       <c r="S72" s="5"/>
       <c r="T72" s="6"/>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20">
       <c r="B73" s="7"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -3619,7 +5149,7 @@
       <c r="S73" s="5"/>
       <c r="T73" s="6"/>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:20">
       <c r="B74" s="7"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3640,7 +5170,7 @@
       <c r="S74" s="5"/>
       <c r="T74" s="6"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20">
       <c r="B75" s="7"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -3661,7 +5191,7 @@
       <c r="S75" s="5"/>
       <c r="T75" s="6"/>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20">
       <c r="B76" s="7"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3682,7 +5212,7 @@
       <c r="S76" s="5"/>
       <c r="T76" s="6"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20">
       <c r="B77" s="7"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -3703,7 +5233,7 @@
       <c r="S77" s="5"/>
       <c r="T77" s="6"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20">
       <c r="B78" s="7"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3724,7 +5254,7 @@
       <c r="S78" s="5"/>
       <c r="T78" s="6"/>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:20">
       <c r="B79" s="7"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -3745,7 +5275,7 @@
       <c r="S79" s="5"/>
       <c r="T79" s="6"/>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20">
       <c r="B80" s="7"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3766,7 +5296,7 @@
       <c r="S80" s="5"/>
       <c r="T80" s="6"/>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:20">
       <c r="B81" s="7"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -3787,7 +5317,7 @@
       <c r="S81" s="5"/>
       <c r="T81" s="6"/>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:20">
       <c r="B82" s="7"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -3808,7 +5338,7 @@
       <c r="S82" s="5"/>
       <c r="T82" s="6"/>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:20">
       <c r="B83" s="7"/>
       <c r="C83" s="11" t="s">
         <v>10</v>
@@ -3831,7 +5361,7 @@
       <c r="S83" s="5"/>
       <c r="T83" s="6"/>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:20">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="5"/>
@@ -3852,7 +5382,7 @@
       <c r="S84" s="5"/>
       <c r="T84" s="6"/>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:20">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="5"/>
@@ -3873,7 +5403,7 @@
       <c r="S85" s="5"/>
       <c r="T85" s="6"/>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:20">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="5"/>
@@ -3894,7 +5424,7 @@
       <c r="S86" s="5"/>
       <c r="T86" s="6"/>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:20">
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="5"/>
@@ -3915,7 +5445,7 @@
       <c r="S87" s="5"/>
       <c r="T87" s="6"/>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:20">
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="5"/>
@@ -3936,7 +5466,7 @@
       <c r="S88" s="5"/>
       <c r="T88" s="6"/>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:20">
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="5"/>
@@ -3957,7 +5487,7 @@
       <c r="S89" s="5"/>
       <c r="T89" s="6"/>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:20">
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
       <c r="D90" s="9"/>
@@ -3978,7 +5508,7 @@
       <c r="S90" s="5"/>
       <c r="T90" s="6"/>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:20">
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -3999,17 +5529,18 @@
       <c r="S91" s="9"/>
       <c r="T91" s="10"/>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:20">
       <c r="B93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:20">
       <c r="B94" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4020,23 +5551,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EE28-A106-4B7F-A1EE-7E85C002A333}">
   <dimension ref="A2:AH172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U139" workbookViewId="0">
-      <selection activeCell="AL147" sqref="AL147"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20">
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20">
       <c r="B5" s="16" t="s">
         <v>77</v>
       </c>
@@ -4059,7 +5590,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20">
       <c r="B6" s="4" t="s">
         <v>78</v>
       </c>
@@ -4082,7 +5613,7 @@
       <c r="S6" s="5"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20">
       <c r="B7" s="4" t="s">
         <v>79</v>
       </c>
@@ -4105,7 +5636,7 @@
       <c r="S7" s="5"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4126,7 +5657,7 @@
       <c r="S8" s="5"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20">
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4147,7 +5678,7 @@
       <c r="S9" s="5"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20">
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4168,7 +5699,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20">
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4189,7 +5720,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20">
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4210,7 +5741,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20">
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4231,7 +5762,7 @@
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20">
       <c r="B14" s="7"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4252,7 +5783,7 @@
       <c r="S14" s="5"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20">
       <c r="B15" s="7"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4273,7 +5804,7 @@
       <c r="S15" s="5"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20">
       <c r="B16" s="7"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4294,7 +5825,7 @@
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20">
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -4315,7 +5846,7 @@
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20">
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -4336,7 +5867,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20">
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -4357,7 +5888,7 @@
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20">
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -4378,7 +5909,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20">
       <c r="B21" s="7"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -4399,7 +5930,7 @@
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20">
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -4420,7 +5951,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -4441,7 +5972,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -4462,7 +5993,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -4483,7 +6014,7 @@
       <c r="S25" s="5"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -4504,7 +6035,7 @@
       <c r="S26" s="5"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -4525,7 +6056,7 @@
       <c r="S27" s="5"/>
       <c r="T27" s="6"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -4546,7 +6077,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20">
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -4567,7 +6098,7 @@
       <c r="S29" s="5"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4588,12 +6119,12 @@
       <c r="S30" s="9"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34">
       <c r="A33" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34">
       <c r="A34" s="13"/>
       <c r="B34" s="11" t="s">
         <v>16</v>
@@ -4625,7 +6156,7 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="3"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34">
       <c r="A35" s="13"/>
       <c r="B35" s="7"/>
       <c r="C35" t="s">
@@ -4651,7 +6182,7 @@
       <c r="AG35" s="5"/>
       <c r="AH35" s="6"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34">
       <c r="A36" s="13"/>
       <c r="B36" s="7"/>
       <c r="C36" t="s">
@@ -4677,7 +6208,7 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="6"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34">
       <c r="A37" s="13"/>
       <c r="B37" s="7"/>
       <c r="C37" t="s">
@@ -4703,7 +6234,7 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="6"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34">
       <c r="A38" s="13"/>
       <c r="B38" s="7"/>
       <c r="D38" t="s">
@@ -4727,7 +6258,7 @@
       <c r="AG38" s="5"/>
       <c r="AH38" s="6"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34">
       <c r="A39" s="13"/>
       <c r="B39" s="7"/>
       <c r="E39" t="s">
@@ -4751,7 +6282,7 @@
       <c r="AG39" s="5"/>
       <c r="AH39" s="6"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34">
       <c r="A40" s="13"/>
       <c r="B40" s="7"/>
       <c r="E40" t="s">
@@ -4775,7 +6306,7 @@
       <c r="AG40" s="5"/>
       <c r="AH40" s="6"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34">
       <c r="A41" s="13"/>
       <c r="B41" s="7"/>
       <c r="D41" t="s">
@@ -4799,7 +6330,7 @@
       <c r="AG41" s="5"/>
       <c r="AH41" s="6"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34">
       <c r="A42" s="13"/>
       <c r="B42" s="7"/>
       <c r="D42" t="s">
@@ -4823,7 +6354,7 @@
       <c r="AG42" s="5"/>
       <c r="AH42" s="6"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34">
       <c r="A43" s="13"/>
       <c r="B43" s="7"/>
       <c r="D43" t="s">
@@ -4847,7 +6378,7 @@
       <c r="AG43" s="5"/>
       <c r="AH43" s="6"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34">
       <c r="A44" s="13"/>
       <c r="B44" s="7"/>
       <c r="E44" t="s">
@@ -4871,7 +6402,7 @@
       <c r="AG44" s="5"/>
       <c r="AH44" s="6"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34">
       <c r="A45" s="13"/>
       <c r="B45" s="7"/>
       <c r="F45" t="s">
@@ -4895,7 +6426,7 @@
       <c r="AG45" s="5"/>
       <c r="AH45" s="6"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34">
       <c r="A46" s="13"/>
       <c r="B46" s="7"/>
       <c r="F46" t="s">
@@ -4919,7 +6450,7 @@
       <c r="AG46" s="5"/>
       <c r="AH46" s="6"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34">
       <c r="A47" s="13"/>
       <c r="B47" s="7"/>
       <c r="F47" s="14" t="s">
@@ -4949,7 +6480,7 @@
       <c r="AG47" s="5"/>
       <c r="AH47" s="6"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34">
       <c r="A48" s="13"/>
       <c r="B48" s="7"/>
       <c r="F48" t="s">
@@ -4973,7 +6504,7 @@
       <c r="AG48" s="5"/>
       <c r="AH48" s="6"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34">
       <c r="A49" s="13"/>
       <c r="B49" s="7"/>
       <c r="E49" t="s">
@@ -4997,7 +6528,7 @@
       <c r="AG49" s="5"/>
       <c r="AH49" s="6"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34">
       <c r="A50" s="13"/>
       <c r="B50" s="7"/>
       <c r="F50" t="s">
@@ -5021,7 +6552,7 @@
       <c r="AG50" s="5"/>
       <c r="AH50" s="6"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34">
       <c r="A51" s="13"/>
       <c r="B51" s="7"/>
       <c r="F51" t="s">
@@ -5045,7 +6576,7 @@
       <c r="AG51" s="5"/>
       <c r="AH51" s="6"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34">
       <c r="A52" s="13"/>
       <c r="B52" s="7"/>
       <c r="F52" t="s">
@@ -5069,7 +6600,7 @@
       <c r="AG52" s="5"/>
       <c r="AH52" s="6"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34">
       <c r="A53" s="13"/>
       <c r="B53" s="7"/>
       <c r="F53" t="s">
@@ -5093,7 +6624,7 @@
       <c r="AG53" s="5"/>
       <c r="AH53" s="6"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34">
       <c r="A54" s="13"/>
       <c r="B54" s="7"/>
       <c r="F54" t="s">
@@ -5117,7 +6648,7 @@
       <c r="AG54" s="5"/>
       <c r="AH54" s="6"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34">
       <c r="A55" s="13"/>
       <c r="B55" s="7"/>
       <c r="E55" t="s">
@@ -5141,7 +6672,7 @@
       <c r="AG55" s="5"/>
       <c r="AH55" s="6"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34">
       <c r="A56" s="13"/>
       <c r="B56" s="7"/>
       <c r="F56" s="15" t="s">
@@ -5165,7 +6696,7 @@
       <c r="AG56" s="5"/>
       <c r="AH56" s="6"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34">
       <c r="A57" s="13"/>
       <c r="B57" s="7"/>
       <c r="F57" t="s">
@@ -5189,7 +6720,7 @@
       <c r="AG57" s="5"/>
       <c r="AH57" s="6"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34">
       <c r="A58" s="13"/>
       <c r="B58" s="7"/>
       <c r="F58" t="s">
@@ -5213,7 +6744,7 @@
       <c r="AG58" s="5"/>
       <c r="AH58" s="6"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34">
       <c r="A59" s="13"/>
       <c r="B59" s="7"/>
       <c r="F59" s="14" t="s">
@@ -5243,7 +6774,7 @@
       <c r="AG59" s="5"/>
       <c r="AH59" s="6"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34">
       <c r="A60" s="13"/>
       <c r="B60" s="7"/>
       <c r="F60" t="s">
@@ -5267,7 +6798,7 @@
       <c r="AG60" s="5"/>
       <c r="AH60" s="6"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34">
       <c r="A61" s="13"/>
       <c r="B61" s="7"/>
       <c r="F61" t="s">
@@ -5291,7 +6822,7 @@
       <c r="AG61" s="5"/>
       <c r="AH61" s="6"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34">
       <c r="A62" s="13"/>
       <c r="B62" s="7"/>
       <c r="F62" t="s">
@@ -5315,7 +6846,7 @@
       <c r="AG62" s="5"/>
       <c r="AH62" s="6"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34">
       <c r="A63" s="13"/>
       <c r="B63" s="7"/>
       <c r="E63" t="s">
@@ -5339,7 +6870,7 @@
       <c r="AG63" s="5"/>
       <c r="AH63" s="6"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34">
       <c r="A64" s="13"/>
       <c r="B64" s="7"/>
       <c r="E64" t="s">
@@ -5363,7 +6894,7 @@
       <c r="AG64" s="5"/>
       <c r="AH64" s="6"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34">
       <c r="A65" s="13"/>
       <c r="B65" s="7"/>
       <c r="E65" t="s">
@@ -5387,7 +6918,7 @@
       <c r="AG65" s="5"/>
       <c r="AH65" s="6"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34">
       <c r="A66" s="13"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -5417,7 +6948,7 @@
       <c r="AG66" s="5"/>
       <c r="AH66" s="6"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34">
       <c r="S67" s="7"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
@@ -5435,7 +6966,7 @@
       <c r="AG67" s="5"/>
       <c r="AH67" s="6"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34">
       <c r="S68" s="7"/>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
@@ -5453,7 +6984,7 @@
       <c r="AG68" s="5"/>
       <c r="AH68" s="6"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34">
       <c r="A69" t="s">
         <v>50</v>
       </c>
@@ -5476,7 +7007,7 @@
       <c r="AG69" s="5"/>
       <c r="AH69" s="6"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34">
       <c r="B70" s="11" t="s">
         <v>51</v>
       </c>
@@ -5506,7 +7037,7 @@
       <c r="AG70" s="5"/>
       <c r="AH70" s="6"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34">
       <c r="B71" s="7"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -5532,7 +7063,7 @@
       <c r="AG71" s="5"/>
       <c r="AH71" s="6"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34">
       <c r="B72" s="7" t="s">
         <v>52</v>
       </c>
@@ -5560,7 +7091,7 @@
       <c r="AG72" s="5"/>
       <c r="AH72" s="6"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34">
       <c r="B73" s="7" t="s">
         <v>53</v>
       </c>
@@ -5588,7 +7119,7 @@
       <c r="AG73" s="5"/>
       <c r="AH73" s="6"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34">
       <c r="B74" s="7" t="s">
         <v>54</v>
       </c>
@@ -5616,7 +7147,7 @@
       <c r="AG74" s="5"/>
       <c r="AH74" s="6"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34">
       <c r="B75" s="7" t="s">
         <v>55</v>
       </c>
@@ -5644,7 +7175,7 @@
       <c r="AG75" s="5"/>
       <c r="AH75" s="6"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34">
       <c r="B76" s="7" t="s">
         <v>56</v>
       </c>
@@ -5672,7 +7203,7 @@
       <c r="AG76" s="5"/>
       <c r="AH76" s="6"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34">
       <c r="B77" s="7" t="s">
         <v>57</v>
       </c>
@@ -5700,7 +7231,7 @@
       <c r="AG77" s="5"/>
       <c r="AH77" s="6"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34">
       <c r="B78" s="7" t="s">
         <v>58</v>
       </c>
@@ -5728,7 +7259,7 @@
       <c r="AG78" s="5"/>
       <c r="AH78" s="6"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34">
       <c r="B79" s="7" t="s">
         <v>59</v>
       </c>
@@ -5756,7 +7287,7 @@
       <c r="AG79" s="5"/>
       <c r="AH79" s="6"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34">
       <c r="B80" s="7" t="s">
         <v>60</v>
       </c>
@@ -5784,7 +7315,7 @@
       <c r="AG80" s="5"/>
       <c r="AH80" s="6"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:34">
       <c r="B81" s="7"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -5810,7 +7341,7 @@
       <c r="AG81" s="5"/>
       <c r="AH81" s="6"/>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:34">
       <c r="B82" s="7" t="s">
         <v>61</v>
       </c>
@@ -5838,7 +7369,7 @@
       <c r="AG82" s="5"/>
       <c r="AH82" s="6"/>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:34">
       <c r="B83" s="7" t="s">
         <v>62</v>
       </c>
@@ -5866,7 +7397,7 @@
       <c r="AG83" s="5"/>
       <c r="AH83" s="6"/>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:34">
       <c r="B84" s="7"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -5892,7 +7423,7 @@
       <c r="AG84" s="5"/>
       <c r="AH84" s="6"/>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:34">
       <c r="B85" s="7" t="s">
         <v>63</v>
       </c>
@@ -5920,7 +7451,7 @@
       <c r="AG85" s="5"/>
       <c r="AH85" s="6"/>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:34">
       <c r="B86" s="7" t="s">
         <v>64</v>
       </c>
@@ -5948,7 +7479,7 @@
       <c r="AG86" s="5"/>
       <c r="AH86" s="6"/>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:34">
       <c r="B87" s="7" t="s">
         <v>65</v>
       </c>
@@ -5976,7 +7507,7 @@
       <c r="AG87" s="5"/>
       <c r="AH87" s="6"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:34">
       <c r="B88" s="7" t="s">
         <v>88</v>
       </c>
@@ -6010,7 +7541,7 @@
       <c r="AG88" s="5"/>
       <c r="AH88" s="6"/>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:34">
       <c r="B89" s="7" t="s">
         <v>66</v>
       </c>
@@ -6044,7 +7575,7 @@
       <c r="AG89" s="5"/>
       <c r="AH89" s="6"/>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:34">
       <c r="B90" s="7" t="s">
         <v>67</v>
       </c>
@@ -6072,7 +7603,7 @@
       <c r="AG90" s="5"/>
       <c r="AH90" s="6"/>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:34">
       <c r="B91" s="7" t="s">
         <v>68</v>
       </c>
@@ -6100,7 +7631,7 @@
       <c r="AG91" s="5"/>
       <c r="AH91" s="6"/>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:34">
       <c r="B92" s="7"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -6126,7 +7657,7 @@
       <c r="AG92" s="5"/>
       <c r="AH92" s="6"/>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:34">
       <c r="B93" s="7" t="s">
         <v>69</v>
       </c>
@@ -6154,7 +7685,7 @@
       <c r="AG93" s="5"/>
       <c r="AH93" s="6"/>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:34">
       <c r="B94" s="7" t="s">
         <v>70</v>
       </c>
@@ -6182,7 +7713,7 @@
       <c r="AG94" s="5"/>
       <c r="AH94" s="6"/>
     </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:34">
       <c r="B95" s="7"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -6208,7 +7739,7 @@
       <c r="AG95" s="5"/>
       <c r="AH95" s="6"/>
     </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:34">
       <c r="B96" s="7" t="s">
         <v>71</v>
       </c>
@@ -6236,7 +7767,7 @@
       <c r="AG96" s="5"/>
       <c r="AH96" s="6"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34">
       <c r="B97" s="7" t="s">
         <v>55</v>
       </c>
@@ -6264,7 +7795,7 @@
       <c r="AG97" s="5"/>
       <c r="AH97" s="6"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34">
       <c r="B98" s="7" t="s">
         <v>72</v>
       </c>
@@ -6292,7 +7823,7 @@
       <c r="AG98" s="5"/>
       <c r="AH98" s="6"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34">
       <c r="B99" s="7" t="s">
         <v>73</v>
       </c>
@@ -6320,7 +7851,7 @@
       <c r="AG99" s="9"/>
       <c r="AH99" s="10"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34">
       <c r="B100" s="7" t="s">
         <v>74</v>
       </c>
@@ -6332,7 +7863,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34">
       <c r="B101" s="7" t="s">
         <v>75</v>
       </c>
@@ -6344,7 +7875,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34">
       <c r="B102" s="7" t="s">
         <v>67</v>
       </c>
@@ -6372,7 +7903,7 @@
       <c r="AE102" s="2"/>
       <c r="AF102" s="3"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34">
       <c r="B103" s="7" t="s">
         <v>70</v>
       </c>
@@ -6398,7 +7929,7 @@
       <c r="AE103" s="5"/>
       <c r="AF103" s="6"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34">
       <c r="B104" s="8" t="s">
         <v>76</v>
       </c>
@@ -6424,7 +7955,7 @@
       <c r="AE104" s="5"/>
       <c r="AF104" s="6"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34">
       <c r="S105" s="7"/>
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
@@ -6440,7 +7971,7 @@
       <c r="AE105" s="5"/>
       <c r="AF105" s="6"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34">
       <c r="S106" s="7"/>
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
@@ -6456,7 +7987,7 @@
       <c r="AE106" s="5"/>
       <c r="AF106" s="6"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34">
       <c r="A107" t="s">
         <v>90</v>
       </c>
@@ -6475,7 +8006,7 @@
       <c r="AE107" s="5"/>
       <c r="AF107" s="6"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34">
       <c r="B108" s="11" t="s">
         <v>51</v>
       </c>
@@ -6504,7 +8035,7 @@
       <c r="AE108" s="5"/>
       <c r="AF108" s="6"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34">
       <c r="B109" s="7"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -6531,7 +8062,7 @@
       <c r="AE109" s="5"/>
       <c r="AF109" s="6"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34">
       <c r="B110" s="7" t="s">
         <v>91</v>
       </c>
@@ -6560,7 +8091,7 @@
       <c r="AE110" s="5"/>
       <c r="AF110" s="6"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34">
       <c r="B111" s="7"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -6587,7 +8118,7 @@
       <c r="AE111" s="5"/>
       <c r="AF111" s="6"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34">
       <c r="B112" s="7" t="s">
         <v>92</v>
       </c>
@@ -6616,7 +8147,7 @@
       <c r="AE112" s="5"/>
       <c r="AF112" s="6"/>
     </row>
-    <row r="113" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:32">
       <c r="B113" s="7"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -6643,7 +8174,7 @@
       <c r="AE113" s="5"/>
       <c r="AF113" s="6"/>
     </row>
-    <row r="114" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:32">
       <c r="B114" s="7" t="s">
         <v>93</v>
       </c>
@@ -6672,7 +8203,7 @@
       <c r="AE114" s="5"/>
       <c r="AF114" s="6"/>
     </row>
-    <row r="115" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:32">
       <c r="B115" s="7"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -6699,7 +8230,7 @@
       <c r="AE115" s="5"/>
       <c r="AF115" s="6"/>
     </row>
-    <row r="116" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:32">
       <c r="B116" s="7" t="s">
         <v>94</v>
       </c>
@@ -6728,7 +8259,7 @@
       <c r="AE116" s="5"/>
       <c r="AF116" s="6"/>
     </row>
-    <row r="117" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:32">
       <c r="B117" s="7"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -6755,7 +8286,7 @@
       <c r="AE117" s="5"/>
       <c r="AF117" s="6"/>
     </row>
-    <row r="118" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:32">
       <c r="B118" s="7" t="s">
         <v>95</v>
       </c>
@@ -6784,7 +8315,7 @@
       <c r="AE118" s="5"/>
       <c r="AF118" s="6"/>
     </row>
-    <row r="119" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:32">
       <c r="B119" s="7"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -6811,7 +8342,7 @@
       <c r="AE119" s="5"/>
       <c r="AF119" s="6"/>
     </row>
-    <row r="120" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:32">
       <c r="B120" s="7" t="s">
         <v>96</v>
       </c>
@@ -6840,7 +8371,7 @@
       <c r="AE120" s="5"/>
       <c r="AF120" s="6"/>
     </row>
-    <row r="121" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:32">
       <c r="B121" s="7"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -6867,7 +8398,7 @@
       <c r="AE121" s="5"/>
       <c r="AF121" s="6"/>
     </row>
-    <row r="122" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:32">
       <c r="B122" s="7" t="s">
         <v>97</v>
       </c>
@@ -6896,7 +8427,7 @@
       <c r="AE122" s="5"/>
       <c r="AF122" s="6"/>
     </row>
-    <row r="123" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:32">
       <c r="B123" s="7"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -6923,7 +8454,7 @@
       <c r="AE123" s="5"/>
       <c r="AF123" s="6"/>
     </row>
-    <row r="124" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:32">
       <c r="B124" s="7" t="s">
         <v>98</v>
       </c>
@@ -6952,7 +8483,7 @@
       <c r="AE124" s="5"/>
       <c r="AF124" s="6"/>
     </row>
-    <row r="125" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:32">
       <c r="B125" s="7"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -6979,7 +8510,7 @@
       <c r="AE125" s="5"/>
       <c r="AF125" s="6"/>
     </row>
-    <row r="126" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:32">
       <c r="B126" s="7" t="s">
         <v>99</v>
       </c>
@@ -7008,7 +8539,7 @@
       <c r="AE126" s="5"/>
       <c r="AF126" s="6"/>
     </row>
-    <row r="127" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:32">
       <c r="B127" s="7" t="s">
         <v>100</v>
       </c>
@@ -7037,7 +8568,7 @@
       <c r="AE127" s="5"/>
       <c r="AF127" s="6"/>
     </row>
-    <row r="128" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:32">
       <c r="B128" s="7" t="s">
         <v>76</v>
       </c>
@@ -7066,7 +8597,7 @@
       <c r="AE128" s="5"/>
       <c r="AF128" s="6"/>
     </row>
-    <row r="129" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:32">
       <c r="B129" s="7"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -7093,7 +8624,7 @@
       <c r="AE129" s="5"/>
       <c r="AF129" s="6"/>
     </row>
-    <row r="130" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:32">
       <c r="B130" s="18" t="s">
         <v>101</v>
       </c>
@@ -7122,7 +8653,7 @@
       <c r="AE130" s="5"/>
       <c r="AF130" s="6"/>
     </row>
-    <row r="131" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:32">
       <c r="B131" s="18" t="s">
         <v>102</v>
       </c>
@@ -7151,7 +8682,7 @@
       <c r="AE131" s="5"/>
       <c r="AF131" s="6"/>
     </row>
-    <row r="132" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:32">
       <c r="B132" s="18" t="s">
         <v>103</v>
       </c>
@@ -7180,7 +8711,7 @@
       <c r="AE132" s="5"/>
       <c r="AF132" s="6"/>
     </row>
-    <row r="133" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:32">
       <c r="B133" s="18" t="s">
         <v>104</v>
       </c>
@@ -7209,7 +8740,7 @@
       <c r="AE133" s="5"/>
       <c r="AF133" s="6"/>
     </row>
-    <row r="134" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:32">
       <c r="B134" s="7"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -7236,7 +8767,7 @@
       <c r="AE134" s="5"/>
       <c r="AF134" s="6"/>
     </row>
-    <row r="135" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:32">
       <c r="B135" s="7" t="s">
         <v>105</v>
       </c>
@@ -7265,7 +8796,7 @@
       <c r="AE135" s="5"/>
       <c r="AF135" s="6"/>
     </row>
-    <row r="136" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:32">
       <c r="B136" s="7"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -7292,7 +8823,7 @@
       <c r="AE136" s="5"/>
       <c r="AF136" s="6"/>
     </row>
-    <row r="137" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:32">
       <c r="B137" s="7" t="s">
         <v>106</v>
       </c>
@@ -7321,7 +8852,7 @@
       <c r="AE137" s="5"/>
       <c r="AF137" s="6"/>
     </row>
-    <row r="138" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:32">
       <c r="B138" s="7"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -7348,7 +8879,7 @@
       <c r="AE138" s="5"/>
       <c r="AF138" s="6"/>
     </row>
-    <row r="139" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:32">
       <c r="B139" s="7" t="s">
         <v>107</v>
       </c>
@@ -7377,7 +8908,7 @@
       <c r="AE139" s="5"/>
       <c r="AF139" s="6"/>
     </row>
-    <row r="140" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:32">
       <c r="B140" s="7"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -7404,7 +8935,7 @@
       <c r="AE140" s="5"/>
       <c r="AF140" s="6"/>
     </row>
-    <row r="141" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:32">
       <c r="B141" s="7" t="s">
         <v>108</v>
       </c>
@@ -7433,7 +8964,7 @@
       <c r="AE141" s="5"/>
       <c r="AF141" s="6"/>
     </row>
-    <row r="142" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:32">
       <c r="B142" s="7" t="s">
         <v>100</v>
       </c>
@@ -7462,7 +8993,7 @@
       <c r="AE142" s="5"/>
       <c r="AF142" s="6"/>
     </row>
-    <row r="143" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:32">
       <c r="B143" s="7" t="s">
         <v>76</v>
       </c>
@@ -7491,7 +9022,7 @@
       <c r="AE143" s="5"/>
       <c r="AF143" s="6"/>
     </row>
-    <row r="144" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:32">
       <c r="B144" s="7"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -7518,7 +9049,7 @@
       <c r="AE144" s="5"/>
       <c r="AF144" s="6"/>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34">
       <c r="B145" s="7" t="s">
         <v>109</v>
       </c>
@@ -7550,7 +9081,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34">
       <c r="B146" s="7"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -7577,7 +9108,7 @@
       <c r="AE146" s="5"/>
       <c r="AF146" s="6"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34">
       <c r="B147" s="7" t="s">
         <v>110</v>
       </c>
@@ -7606,7 +9137,7 @@
       <c r="AE147" s="5"/>
       <c r="AF147" s="6"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34">
       <c r="B148" s="7"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -7633,7 +9164,7 @@
       <c r="AE148" s="5"/>
       <c r="AF148" s="6"/>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34">
       <c r="B149" s="7" t="s">
         <v>111</v>
       </c>
@@ -7662,7 +9193,7 @@
       <c r="AE149" s="5"/>
       <c r="AF149" s="6"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34">
       <c r="B150" s="7"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -7689,7 +9220,7 @@
       <c r="AE150" s="5"/>
       <c r="AF150" s="6"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34">
       <c r="B151" s="8" t="s">
         <v>112</v>
       </c>
@@ -7718,7 +9249,7 @@
       <c r="AE151" s="5"/>
       <c r="AF151" s="6"/>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34">
       <c r="S152" s="7"/>
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
@@ -7734,7 +9265,7 @@
       <c r="AE152" s="5"/>
       <c r="AF152" s="6"/>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34">
       <c r="S153" s="7"/>
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
@@ -7750,7 +9281,7 @@
       <c r="AE153" s="5"/>
       <c r="AF153" s="6"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34">
       <c r="A154" s="16" t="s">
         <v>114</v>
       </c>
@@ -7785,7 +9316,7 @@
       <c r="AE154" s="9"/>
       <c r="AF154" s="10"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34">
       <c r="A155" s="7"/>
       <c r="B155" s="5" t="s">
         <v>115</v>
@@ -7806,7 +9337,7 @@
       <c r="P155" s="5"/>
       <c r="Q155" s="6"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34">
       <c r="A156" s="7"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -7825,7 +9356,7 @@
       <c r="P156" s="5"/>
       <c r="Q156" s="6"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34">
       <c r="A157" s="7"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -7844,7 +9375,7 @@
       <c r="P157" s="5"/>
       <c r="Q157" s="6"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34">
       <c r="A158" s="7"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -7863,7 +9394,7 @@
       <c r="P158" s="5"/>
       <c r="Q158" s="6"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34">
       <c r="A159" s="7"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -7882,7 +9413,7 @@
       <c r="P159" s="5"/>
       <c r="Q159" s="6"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34">
       <c r="A160" s="7"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -7901,7 +9432,7 @@
       <c r="P160" s="5"/>
       <c r="Q160" s="6"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17">
       <c r="A161" s="7"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -7920,7 +9451,7 @@
       <c r="P161" s="5"/>
       <c r="Q161" s="6"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17">
       <c r="A162" s="7"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -7939,7 +9470,7 @@
       <c r="P162" s="5"/>
       <c r="Q162" s="6"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17">
       <c r="A163" s="7"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -7958,7 +9489,7 @@
       <c r="P163" s="5"/>
       <c r="Q163" s="6"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17">
       <c r="A164" s="7"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7977,7 +9508,7 @@
       <c r="P164" s="5"/>
       <c r="Q164" s="6"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17">
       <c r="A165" s="7"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7996,7 +9527,7 @@
       <c r="P165" s="5"/>
       <c r="Q165" s="6"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17">
       <c r="A166" s="7"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -8015,7 +9546,7 @@
       <c r="P166" s="5"/>
       <c r="Q166" s="6"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17">
       <c r="A167" s="7"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -8034,7 +9565,7 @@
       <c r="P167" s="5"/>
       <c r="Q167" s="6"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17">
       <c r="A168" s="7"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -8053,7 +9584,7 @@
       <c r="P168" s="5"/>
       <c r="Q168" s="6"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17">
       <c r="A169" s="7"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -8072,7 +9603,7 @@
       <c r="P169" s="5"/>
       <c r="Q169" s="6"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17">
       <c r="A170" s="7"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -8091,7 +9622,7 @@
       <c r="P170" s="5"/>
       <c r="Q170" s="6"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17">
       <c r="A171" s="7"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -8110,7 +9641,7 @@
       <c r="P171" s="5"/>
       <c r="Q171" s="6"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17">
       <c r="A172" s="8"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -8130,6 +9661,2384 @@
       <c r="Q172" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE5E6ED-A501-474E-A462-3F1C9294A65F}">
+  <dimension ref="A2:T180"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:20">
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="18.75">
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="18.75">
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="2:20" ht="18.75">
+      <c r="B8" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="21"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="21"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="21"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="21"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="21"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="21"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="21"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="21"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="21"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="21"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="21"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="21"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="21"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="21"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="21"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="21"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="21"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="21"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="21"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="21"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="21"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="21"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="21"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="B33" s="21"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="B34" s="21"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="B35" s="21"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="B36" s="22"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="B37" s="19"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="13"/>
+      <c r="B40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="13"/>
+      <c r="B41" s="7"/>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="13"/>
+      <c r="B42" s="7"/>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="13"/>
+      <c r="B43" s="7"/>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="13"/>
+      <c r="B44" s="7"/>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="13"/>
+      <c r="B45" s="7"/>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="13"/>
+      <c r="B46" s="7"/>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="13"/>
+      <c r="B47" s="7"/>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="13"/>
+      <c r="B48" s="7"/>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="13"/>
+      <c r="B49" s="7"/>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="13"/>
+      <c r="B50" s="7"/>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="13"/>
+      <c r="B51" s="7"/>
+      <c r="F51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="13"/>
+      <c r="B52" s="7"/>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="13"/>
+      <c r="B53" s="7"/>
+      <c r="F53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="13"/>
+      <c r="B54" s="7"/>
+      <c r="F54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="13"/>
+      <c r="B55" s="7"/>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="13"/>
+      <c r="B56" s="7"/>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="13"/>
+      <c r="B57" s="7"/>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="13"/>
+      <c r="B58" s="7"/>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="13"/>
+      <c r="B59" s="7"/>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="13"/>
+      <c r="B60" s="7"/>
+      <c r="F60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="13"/>
+      <c r="B61" s="7"/>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="13"/>
+      <c r="B62" s="7"/>
+      <c r="F62" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="13"/>
+      <c r="B63" s="7"/>
+      <c r="F63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="13"/>
+      <c r="B64" s="7"/>
+      <c r="F64" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="13"/>
+      <c r="B65" s="7"/>
+      <c r="F65" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="13"/>
+      <c r="B66" s="7"/>
+      <c r="F66" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="13"/>
+      <c r="B67" s="7"/>
+      <c r="F67" t="s">
+        <v>41</v>
+      </c>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="13"/>
+      <c r="B68" s="7"/>
+      <c r="F68" t="s">
+        <v>42</v>
+      </c>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="13"/>
+      <c r="B69" s="7"/>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="13"/>
+      <c r="B70" s="7"/>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="13"/>
+      <c r="B71" s="7"/>
+      <c r="E71" t="s">
+        <v>45</v>
+      </c>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="13"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="B76" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="B77" s="7"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="B78" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="B79" s="7"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="B80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="7"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="2:13">
+      <c r="B83" s="7"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="B84" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="B85" s="7"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="2:13">
+      <c r="B86" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="B87" s="7"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="2:13">
+      <c r="B88" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="2:13">
+      <c r="B89" s="7"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="B90" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="6"/>
+    </row>
+    <row r="91" spans="2:13">
+      <c r="B91" s="7"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="6"/>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="B92" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="2:13">
+      <c r="B93" s="7"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="2:13">
+      <c r="B94" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="2:13">
+      <c r="B95" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="2:13">
+      <c r="B96" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" s="7"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="B99" s="7"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="6"/>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="B101" s="7"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="6"/>
+    </row>
+    <row r="102" spans="2:13">
+      <c r="B102" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="2:13">
+      <c r="B103" s="7"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="2:13">
+      <c r="B104" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="2:13">
+      <c r="B105" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="2:13">
+      <c r="B106" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="6"/>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="B107" s="7"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="6"/>
+    </row>
+    <row r="108" spans="2:13">
+      <c r="B108" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="2:13">
+      <c r="B109" s="7"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="2:13">
+      <c r="B110" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="2:13">
+      <c r="B111" s="7"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="2:13">
+      <c r="B112" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="B113" s="7"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="6"/>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="B114" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="10"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="B118" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="B119" s="7"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="B120" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="B121" s="7"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="B122" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="B123" s="7"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="B124" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="B125" s="7"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="B126" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="B127" s="7"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="B128" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="7"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="7"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="7"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="7"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="6"/>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="6"/>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="6"/>
+    </row>
+    <row r="150" spans="2:10">
+      <c r="B150" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="6"/>
+    </row>
+    <row r="151" spans="2:10">
+      <c r="B151" s="7"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="6"/>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="6"/>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="7"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="6"/>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="6"/>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="7"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="6"/>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="6"/>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="7"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="6"/>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="6"/>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="6"/>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="6"/>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="6"/>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="B162" s="7"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="6"/>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="B163" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="6"/>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="7"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165" spans="2:10">
+      <c r="B165" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="6"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="B166" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="6"/>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="B167" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="6"/>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="B168" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="6"/>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="B169" s="7"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="6"/>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="B170" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="6"/>
+    </row>
+    <row r="171" spans="2:10">
+      <c r="B171" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="6"/>
+    </row>
+    <row r="172" spans="2:10">
+      <c r="B172" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="6"/>
+    </row>
+    <row r="173" spans="2:10">
+      <c r="B173" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="6"/>
+    </row>
+    <row r="174" spans="2:10">
+      <c r="B174" s="7"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="6"/>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="B175" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="6"/>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="6"/>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="B177" s="7"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="6"/>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="6"/>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="B179" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="6"/>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="B180" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/me/4.create-a-restful-api/6.authentication-using-json-web-tokens.xlsx
+++ b/me/4.create-a-restful-api/6.authentication-using-json-web-tokens.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A79FB9D-79FC-447D-8D97-BC313E2448A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A81A7A-FAD3-49CC-B266-CAA597522D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction jwt" sheetId="1" r:id="rId1"/>
     <sheet name="encode a payload" sheetId="2" r:id="rId2"/>
     <sheet name="jwt containing claims in login " sheetId="3" r:id="rId3"/>
     <sheet name="decode payload from the JWT" sheetId="4" r:id="rId4"/>
+    <sheet name="use secret key as dependency" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="229">
   <si>
     <t>An introduction to JSON web tokens (JWTs)</t>
   </si>
@@ -1788,6 +1789,73 @@
       <t>');</t>
     </r>
   </si>
+  <si>
+    <t>Pass in the secret key used for hashing as a dependency</t>
+  </si>
+  <si>
+    <t>bỏ đi phần test code</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\.env</t>
+  </si>
+  <si>
+    <t>DB_HOST="localhost"</t>
+  </si>
+  <si>
+    <t>DB_NAME="api_db"</t>
+  </si>
+  <si>
+    <t>DB_USER="root"</t>
+  </si>
+  <si>
+    <t>DB_PASS=""</t>
+  </si>
+  <si>
+    <t>SECRET_KEY="3979244226452948404D635166546A576E5A7234743777217A25432A462D4A61"</t>
+  </si>
+  <si>
+    <t>    private $key;</t>
+  </si>
+  <si>
+    <t>    public function __construct(string $key)</t>
+  </si>
+  <si>
+    <t>        $this-&gt;key = $key;</t>
+  </si>
+  <si>
+    <t>            $this-&gt;key,</t>
+  </si>
+  <si>
+    <r>
+      <t>$codec = new JWTCodec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>($_ENV["SECRET_KEY"])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Giá trị secret trong class JWTCodec được dùng cả ở encode và decode, mình nên config nó trong file .env và truyền nó thông qua hàm khởi tạo __construct()</t>
+  </si>
+  <si>
+    <t>call api /login.php và thấy nó vẫn hoạt động bình thường và trả về chuỗi access token jwt</t>
+  </si>
 </sst>
 </file>
 
@@ -2038,7 +2106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2069,6 +2137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5491,6 +5560,187 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>493743</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987CDC92-F660-DE95-1A91-48B64FE21E79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="14201775"/>
+          <a:ext cx="12457143" cy="4476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8175</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>123671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467F620E-C2B8-F20C-A367-A41F50BEC495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="36614100"/>
+          <a:ext cx="10800000" cy="1228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>83319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F72C9D-8553-1A7B-BAE3-F3B2BFE768BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="38614350"/>
+          <a:ext cx="11306175" cy="2045469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>379820</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>56718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CF5B0F-A7B4-1217-C574-40A4A3E64F81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="41557575"/>
+          <a:ext cx="9438095" cy="3457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17419,8 +17669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA4BA49-D34B-4B6B-A6E4-9D7B28D9134C}">
   <dimension ref="A2:T340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="H347" sqref="H347"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22820,4 +23070,2854 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F919ACA-908A-4643-A7D8-BA9996B0FA16}">
+  <dimension ref="A2:T237"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="T221" sqref="T221"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7"/>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13"/>
+      <c r="B8" s="7"/>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13"/>
+      <c r="B9" s="7"/>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13"/>
+      <c r="B11" s="7"/>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13"/>
+      <c r="B12" s="7"/>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13"/>
+      <c r="B13" s="7"/>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="13"/>
+      <c r="B14" s="7"/>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="13"/>
+      <c r="B15" s="7"/>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="13"/>
+      <c r="B16" s="7"/>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="13"/>
+      <c r="B17" s="7"/>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="13"/>
+      <c r="B18" s="7"/>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="13"/>
+      <c r="B19" s="7"/>
+      <c r="F19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="13"/>
+      <c r="B20" s="7"/>
+      <c r="F20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="13"/>
+      <c r="B21" s="7"/>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="13"/>
+      <c r="B23" s="7"/>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="13"/>
+      <c r="B24" s="7"/>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="13"/>
+      <c r="B25" s="7"/>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="13"/>
+      <c r="B26" s="7"/>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="13"/>
+      <c r="B27" s="7"/>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="13"/>
+      <c r="B28" s="7"/>
+      <c r="F28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="13"/>
+      <c r="B29" s="7"/>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="13"/>
+      <c r="B30" s="7"/>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="13"/>
+      <c r="B31" s="7"/>
+      <c r="F31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="13"/>
+      <c r="B32" s="7"/>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="13"/>
+      <c r="B33" s="7"/>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="13"/>
+      <c r="B34" s="7"/>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="13"/>
+      <c r="B35" s="7"/>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="13"/>
+      <c r="B36" s="7"/>
+      <c r="E36" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="13"/>
+      <c r="B37" s="7"/>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="13"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="B44" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="7"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" s="7"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="B56" s="18"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="7"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="7"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="7"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="7"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="7"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="6"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="7"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="6"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="7"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="6"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="6"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="6"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="7"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="6"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="6"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="7"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="6"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="7"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="6"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="6"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="7"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="6"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="6"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="7"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="6"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="6"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="6"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="7"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="6"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="6"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="6"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="6"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="6"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="7"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="B129" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="B130" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="B131" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="B132" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="B133" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="10"/>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="B137" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="B138" s="7"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="B139" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="B140" s="7"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="B141" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="B142" s="7"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="B143" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="B144" s="7"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="7"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" s="7"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="7"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="B154" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="6"/>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="6"/>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="B156" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="6"/>
+    </row>
+    <row r="157" spans="2:9">
+      <c r="B157" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="6"/>
+    </row>
+    <row r="158" spans="2:9">
+      <c r="B158" s="7"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="6"/>
+    </row>
+    <row r="159" spans="2:9">
+      <c r="B159" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="6"/>
+    </row>
+    <row r="160" spans="2:9">
+      <c r="B160" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="6"/>
+    </row>
+    <row r="161" spans="2:9">
+      <c r="B161" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="6"/>
+    </row>
+    <row r="162" spans="2:9">
+      <c r="B162" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="6"/>
+    </row>
+    <row r="163" spans="2:9">
+      <c r="B163" s="7"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="6"/>
+    </row>
+    <row r="164" spans="2:9">
+      <c r="B164" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="6"/>
+    </row>
+    <row r="165" spans="2:9">
+      <c r="B165" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="6"/>
+    </row>
+    <row r="166" spans="2:9">
+      <c r="B166" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="6"/>
+    </row>
+    <row r="167" spans="2:9">
+      <c r="B167" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="6"/>
+    </row>
+    <row r="168" spans="2:9">
+      <c r="B168" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="6"/>
+    </row>
+    <row r="169" spans="2:9">
+      <c r="B169" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="6"/>
+    </row>
+    <row r="170" spans="2:9">
+      <c r="B170" s="7"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="6"/>
+    </row>
+    <row r="171" spans="2:9">
+      <c r="B171" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="6"/>
+    </row>
+    <row r="172" spans="2:9">
+      <c r="B172" s="7"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="6"/>
+    </row>
+    <row r="173" spans="2:9">
+      <c r="B173" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="6"/>
+    </row>
+    <row r="174" spans="2:9">
+      <c r="B174" s="7"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="6"/>
+    </row>
+    <row r="175" spans="2:9">
+      <c r="B175" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="6"/>
+    </row>
+    <row r="176" spans="2:9">
+      <c r="B176" s="7"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="6"/>
+    </row>
+    <row r="177" spans="2:9">
+      <c r="B177" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="6"/>
+    </row>
+    <row r="178" spans="2:9">
+      <c r="B178" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="6"/>
+    </row>
+    <row r="179" spans="2:9">
+      <c r="B179" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="6"/>
+    </row>
+    <row r="180" spans="2:9">
+      <c r="B180" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="6"/>
+    </row>
+    <row r="181" spans="2:9">
+      <c r="B181" s="7"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="2:9">
+      <c r="B182" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="6"/>
+    </row>
+    <row r="183" spans="2:9">
+      <c r="B183" s="7"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="6"/>
+    </row>
+    <row r="184" spans="2:9">
+      <c r="B184" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="6"/>
+    </row>
+    <row r="185" spans="2:9">
+      <c r="B185" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" spans="2:9">
+      <c r="B186" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="6"/>
+    </row>
+    <row r="187" spans="2:9">
+      <c r="B187" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="2:9">
+      <c r="B188" s="7"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="6"/>
+    </row>
+    <row r="189" spans="2:9">
+      <c r="B189" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="6"/>
+    </row>
+    <row r="190" spans="2:9">
+      <c r="B190" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="6"/>
+    </row>
+    <row r="191" spans="2:9">
+      <c r="B191" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="6"/>
+    </row>
+    <row r="192" spans="2:9">
+      <c r="B192" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="6"/>
+    </row>
+    <row r="193" spans="1:20">
+      <c r="B193" s="7"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="1:20">
+      <c r="B194" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="1:20">
+      <c r="B195" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="1:20">
+      <c r="B196" s="7"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="1:20">
+      <c r="B197" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="1:20">
+      <c r="B198" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="1:20">
+      <c r="B199" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
+      <c r="I199" s="10"/>
+    </row>
+    <row r="202" spans="1:20">
+      <c r="A202" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
+      <c r="B203" s="11"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="3"/>
+    </row>
+    <row r="204" spans="1:20">
+      <c r="B204" s="7"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="5"/>
+      <c r="M204" s="5"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="5"/>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+      <c r="R204" s="5"/>
+      <c r="S204" s="5"/>
+      <c r="T204" s="6"/>
+    </row>
+    <row r="205" spans="1:20">
+      <c r="B205" s="7"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="5"/>
+      <c r="M205" s="5"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="6"/>
+    </row>
+    <row r="206" spans="1:20">
+      <c r="B206" s="7"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="5"/>
+      <c r="M206" s="5"/>
+      <c r="N206" s="5"/>
+      <c r="O206" s="5"/>
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
+      <c r="R206" s="5"/>
+      <c r="S206" s="5"/>
+      <c r="T206" s="6"/>
+    </row>
+    <row r="207" spans="1:20">
+      <c r="B207" s="7"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="5"/>
+      <c r="N207" s="5"/>
+      <c r="O207" s="5"/>
+      <c r="P207" s="5"/>
+      <c r="Q207" s="5"/>
+      <c r="R207" s="5"/>
+      <c r="S207" s="5"/>
+      <c r="T207" s="6"/>
+    </row>
+    <row r="208" spans="1:20">
+      <c r="B208" s="7"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="5"/>
+      <c r="M208" s="5"/>
+      <c r="N208" s="5"/>
+      <c r="O208" s="5"/>
+      <c r="P208" s="5"/>
+      <c r="Q208" s="5"/>
+      <c r="R208" s="5"/>
+      <c r="S208" s="5"/>
+      <c r="T208" s="6"/>
+    </row>
+    <row r="209" spans="1:20">
+      <c r="B209" s="7"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="5"/>
+      <c r="M209" s="5"/>
+      <c r="N209" s="5"/>
+      <c r="O209" s="5"/>
+      <c r="P209" s="5"/>
+      <c r="Q209" s="5"/>
+      <c r="R209" s="5"/>
+      <c r="S209" s="5"/>
+      <c r="T209" s="6"/>
+    </row>
+    <row r="210" spans="1:20">
+      <c r="B210" s="7"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="5"/>
+      <c r="M210" s="5"/>
+      <c r="N210" s="5"/>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="5"/>
+      <c r="S210" s="5"/>
+      <c r="T210" s="6"/>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="B211" s="7"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
+      <c r="M211" s="5"/>
+      <c r="N211" s="5"/>
+      <c r="O211" s="5"/>
+      <c r="P211" s="5"/>
+      <c r="Q211" s="5"/>
+      <c r="R211" s="5"/>
+      <c r="S211" s="5"/>
+      <c r="T211" s="6"/>
+    </row>
+    <row r="212" spans="1:20">
+      <c r="B212" s="7"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="5"/>
+      <c r="O212" s="5"/>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
+      <c r="R212" s="5"/>
+      <c r="S212" s="5"/>
+      <c r="T212" s="6"/>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="B213" s="7"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+      <c r="S213" s="5"/>
+      <c r="T213" s="6"/>
+    </row>
+    <row r="214" spans="1:20">
+      <c r="B214" s="8"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
+      <c r="L214" s="9"/>
+      <c r="M214" s="9"/>
+      <c r="N214" s="9"/>
+      <c r="O214" s="9"/>
+      <c r="P214" s="9"/>
+      <c r="Q214" s="9"/>
+      <c r="R214" s="9"/>
+      <c r="S214" s="9"/>
+      <c r="T214" s="10"/>
+    </row>
+    <row r="217" spans="1:20">
+      <c r="A217" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="3"/>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="A218" s="7"/>
+      <c r="B218" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="5"/>
+      <c r="M218" s="5"/>
+      <c r="N218" s="5"/>
+      <c r="O218" s="5"/>
+      <c r="P218" s="5"/>
+      <c r="Q218" s="6"/>
+    </row>
+    <row r="219" spans="1:20">
+      <c r="A219" s="7"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5"/>
+      <c r="M219" s="5"/>
+      <c r="N219" s="5"/>
+      <c r="O219" s="5"/>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="6"/>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="A220" s="7"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="5"/>
+      <c r="M220" s="5"/>
+      <c r="N220" s="5"/>
+      <c r="O220" s="5"/>
+      <c r="P220" s="5"/>
+      <c r="Q220" s="6"/>
+    </row>
+    <row r="221" spans="1:20">
+      <c r="A221" s="7"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="5"/>
+      <c r="N221" s="5"/>
+      <c r="O221" s="5"/>
+      <c r="P221" s="5"/>
+      <c r="Q221" s="6"/>
+    </row>
+    <row r="222" spans="1:20">
+      <c r="A222" s="7"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="5"/>
+      <c r="M222" s="5"/>
+      <c r="N222" s="5"/>
+      <c r="O222" s="5"/>
+      <c r="P222" s="5"/>
+      <c r="Q222" s="6"/>
+    </row>
+    <row r="223" spans="1:20">
+      <c r="A223" s="7"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="5"/>
+      <c r="M223" s="5"/>
+      <c r="N223" s="5"/>
+      <c r="O223" s="5"/>
+      <c r="P223" s="5"/>
+      <c r="Q223" s="6"/>
+    </row>
+    <row r="224" spans="1:20">
+      <c r="A224" s="7"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="5"/>
+      <c r="M224" s="5"/>
+      <c r="N224" s="5"/>
+      <c r="O224" s="5"/>
+      <c r="P224" s="5"/>
+      <c r="Q224" s="6"/>
+    </row>
+    <row r="225" spans="1:17">
+      <c r="A225" s="7"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="5"/>
+      <c r="M225" s="5"/>
+      <c r="N225" s="5"/>
+      <c r="O225" s="5"/>
+      <c r="P225" s="5"/>
+      <c r="Q225" s="6"/>
+    </row>
+    <row r="226" spans="1:17">
+      <c r="A226" s="7"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="5"/>
+      <c r="M226" s="5"/>
+      <c r="N226" s="5"/>
+      <c r="O226" s="5"/>
+      <c r="P226" s="5"/>
+      <c r="Q226" s="6"/>
+    </row>
+    <row r="227" spans="1:17">
+      <c r="A227" s="7"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="5"/>
+      <c r="M227" s="5"/>
+      <c r="N227" s="5"/>
+      <c r="O227" s="5"/>
+      <c r="P227" s="5"/>
+      <c r="Q227" s="6"/>
+    </row>
+    <row r="228" spans="1:17">
+      <c r="A228" s="7"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="5"/>
+      <c r="M228" s="5"/>
+      <c r="N228" s="5"/>
+      <c r="O228" s="5"/>
+      <c r="P228" s="5"/>
+      <c r="Q228" s="6"/>
+    </row>
+    <row r="229" spans="1:17">
+      <c r="A229" s="7"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="5"/>
+      <c r="M229" s="5"/>
+      <c r="N229" s="5"/>
+      <c r="O229" s="5"/>
+      <c r="P229" s="5"/>
+      <c r="Q229" s="6"/>
+    </row>
+    <row r="230" spans="1:17">
+      <c r="A230" s="7"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="5"/>
+      <c r="M230" s="5"/>
+      <c r="N230" s="5"/>
+      <c r="O230" s="5"/>
+      <c r="P230" s="5"/>
+      <c r="Q230" s="6"/>
+    </row>
+    <row r="231" spans="1:17">
+      <c r="A231" s="7"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="5"/>
+      <c r="M231" s="5"/>
+      <c r="N231" s="5"/>
+      <c r="O231" s="5"/>
+      <c r="P231" s="5"/>
+      <c r="Q231" s="6"/>
+    </row>
+    <row r="232" spans="1:17">
+      <c r="A232" s="7"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="5"/>
+      <c r="M232" s="5"/>
+      <c r="N232" s="5"/>
+      <c r="O232" s="5"/>
+      <c r="P232" s="5"/>
+      <c r="Q232" s="6"/>
+    </row>
+    <row r="233" spans="1:17">
+      <c r="A233" s="7"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="5"/>
+      <c r="L233" s="5"/>
+      <c r="M233" s="5"/>
+      <c r="N233" s="5"/>
+      <c r="O233" s="5"/>
+      <c r="P233" s="5"/>
+      <c r="Q233" s="6"/>
+    </row>
+    <row r="234" spans="1:17">
+      <c r="A234" s="7"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="5"/>
+      <c r="M234" s="5"/>
+      <c r="N234" s="5"/>
+      <c r="O234" s="5"/>
+      <c r="P234" s="5"/>
+      <c r="Q234" s="6"/>
+    </row>
+    <row r="235" spans="1:17">
+      <c r="A235" s="7"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="5"/>
+      <c r="M235" s="5"/>
+      <c r="N235" s="5"/>
+      <c r="O235" s="5"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="6"/>
+    </row>
+    <row r="236" spans="1:17">
+      <c r="A236" s="7"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="5"/>
+      <c r="M236" s="5"/>
+      <c r="N236" s="5"/>
+      <c r="O236" s="5"/>
+      <c r="P236" s="5"/>
+      <c r="Q236" s="6"/>
+    </row>
+    <row r="237" spans="1:17">
+      <c r="A237" s="8"/>
+      <c r="B237" s="9"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="9"/>
+      <c r="L237" s="9"/>
+      <c r="M237" s="9"/>
+      <c r="N237" s="9"/>
+      <c r="O237" s="9"/>
+      <c r="P237" s="9"/>
+      <c r="Q237" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/6.authentication-using-json-web-tokens.xlsx
+++ b/me/4.create-a-restful-api/6.authentication-using-json-web-tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A81A7A-FAD3-49CC-B266-CAA597522D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51B1B8B-A82D-4041-BB97-C547587A2756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction jwt" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="jwt containing claims in login " sheetId="3" r:id="rId3"/>
     <sheet name="decode payload from the JWT" sheetId="4" r:id="rId4"/>
     <sheet name="use secret key as dependency" sheetId="5" r:id="rId5"/>
+    <sheet name="Authenticate the task endpoints" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="268">
   <si>
     <t>An introduction to JSON web tokens (JWTs)</t>
   </si>
@@ -1856,6 +1857,211 @@
   <si>
     <t>call api /login.php và thấy nó vẫn hoạt động bình thường và trả về chuỗi access token jwt</t>
   </si>
+  <si>
+    <t>Authenticate the task endpoints using the JWT</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\Auth.php</t>
+  </si>
+  <si>
+    <t>class Auth</t>
+  </si>
+  <si>
+    <t>    private $user_gateway;</t>
+  </si>
+  <si>
+    <t>    private $user_id;</t>
+  </si>
+  <si>
+    <t>    private $codec;</t>
+  </si>
+  <si>
+    <t>        $this-&gt;user_gateway = $user_gateway;</t>
+  </si>
+  <si>
+    <t>        $this-&gt;codec = $codec;</t>
+  </si>
+  <si>
+    <t>    public function authenticateAPIKey(): bool</t>
+  </si>
+  <si>
+    <t>        if (empty($_SERVER["HTTP_X_API_KEY"])) {</t>
+  </si>
+  <si>
+    <t>            http_response_code(400);</t>
+  </si>
+  <si>
+    <t>            echo json_encode(["message" =&gt; "missing API key"]);</t>
+  </si>
+  <si>
+    <t>            return false;</t>
+  </si>
+  <si>
+    <t>        $api_key = $_SERVER["HTTP_X_API_KEY"];</t>
+  </si>
+  <si>
+    <t>        $user = $this-&gt;user_gateway-&gt;getByAPIKey($api_key);</t>
+  </si>
+  <si>
+    <t>        if ($user === []) {</t>
+  </si>
+  <si>
+    <t>            http_response_code(401);</t>
+  </si>
+  <si>
+    <t>            echo json_encode(["message" =&gt; "invalid API key"]);</t>
+  </si>
+  <si>
+    <t>        $this-&gt;user_id = $user["id"];</t>
+  </si>
+  <si>
+    <t>        return true;</t>
+  </si>
+  <si>
+    <t>    public function getUserID(): int</t>
+  </si>
+  <si>
+    <t>        return $this-&gt;user_id;</t>
+  </si>
+  <si>
+    <t>    public function authenticateAccessToken(): bool</t>
+  </si>
+  <si>
+    <t>        if (!preg_match("/^Bearer\s+(.*)$/", $_SERVER["HTTP_AUTHORIZATION"], $matches)) {</t>
+  </si>
+  <si>
+    <t>            echo json_encode(["message" =&gt; "incomplete authorization header"]);</t>
+  </si>
+  <si>
+    <t>        try {</t>
+  </si>
+  <si>
+    <t>            $data = $this-&gt;codec-&gt;decode($matches[1]);</t>
+  </si>
+  <si>
+    <t>        } catch (Exception $e) {</t>
+  </si>
+  <si>
+    <r>
+      <t>    public function __construct(UserGateway $user_gateway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, JWTCodec $codec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        $this-&gt;user_id = $data["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            echo json_encode(["message" =&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $e-&gt;getMessage()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]);</t>
+    </r>
+  </si>
+  <si>
+    <t>$codec = new JWTCodec($_ENV["SECRET_KEY"]);</t>
+  </si>
+  <si>
+    <r>
+      <t>$auth = new Auth($user_gateway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, $codec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>Sau khi login thì đã có chuỗi jwt trả về, giờ mình có thể authentication access cho index.php dùng access token jwt đó</t>
+  </si>
+  <si>
+    <t>call api /login.php để lấy giá trị access token jwt</t>
+  </si>
+  <si>
+    <t>Dùng giá trị jwt nhận được để gọi api /tasks ta lấy được danh sách task của user</t>
+  </si>
+  <si>
+    <t>test①</t>
+  </si>
+  <si>
+    <t>test②</t>
+  </si>
+  <si>
+    <t>Cố tình truyền vào giá trị jwt sai bằng cách thêm vài ký tự "XXX" đằng sau, có nghĩa là signature đã bị thay đổi rồi gọi lại api /posts</t>
+  </si>
 </sst>
 </file>
 
@@ -1934,7 +2140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2102,11 +2308,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2138,6 +2366,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5741,6 +5980,831 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>341365</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8CF855-09BA-0638-103A-6DE404CFF45B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="7781925"/>
+          <a:ext cx="12276190" cy="2590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>84177</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>170949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53F09AA-105E-1049-E2C4-C09D9BE2ACCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="16354425"/>
+          <a:ext cx="12380952" cy="4009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472C611C-6327-5ABE-6179-4BC981E01269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="18202275"/>
+          <a:ext cx="17649825" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4527566B-CECA-8C47-B34C-B94CBBEE4AA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="18211800"/>
+          <a:ext cx="17592675" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408395</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>113861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E7C262-2397-7277-E026-A1AECCA8DEEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="29556075"/>
+          <a:ext cx="9438095" cy="3514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>379674</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>66513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59B8D71-63A2-70A1-724D-42C22A0213C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="33823275"/>
+          <a:ext cx="10609524" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>332202</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C9FBEC-FF13-374D-7ADF-A60408C30E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="35290125"/>
+          <a:ext cx="9380952" cy="5076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D63E36-5F6F-1975-B5D1-8A01FD3D228C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1952625" y="31032450"/>
+          <a:ext cx="3124200" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D21EF6-ED06-CCAF-F7D9-35A1AC8EBACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="32699325"/>
+          <a:ext cx="2143125" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>322527</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>85537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B591576A-2C75-CC3E-F25F-0CEC3E149346}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="41824275"/>
+          <a:ext cx="10580952" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771ABDD5-EBE7-6933-C556-42EA5123B58B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="41681400"/>
+          <a:ext cx="6743700" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408401</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>94832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801D55EA-1ADD-7B60-60DC-D744C3ECFDCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="43614975"/>
+          <a:ext cx="9390476" cy="3342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7672B2B-B32C-176F-AC37-A964AEAC4D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2263588" y="21347206"/>
+          <a:ext cx="18960353" cy="25000323"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>569979</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>61477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8841FE93-A814-056B-3605-9C82BEE2427A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750794" y="47781882"/>
+          <a:ext cx="7685714" cy="1238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003EDEAC-6DF3-8C2A-D526-BDFEAFC16F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3597088" y="47591382"/>
+          <a:ext cx="212912" cy="885265"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>551263</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>116700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FCE56A-024E-9D4C-67ED-2173F13CE0C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728383" y="49104176"/>
+          <a:ext cx="9504762" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E870F57D-CC76-CDBE-1B94-C90030763DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3025588" y="18657794"/>
+          <a:ext cx="19262912" cy="33203030"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17669,8 +18733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA4BA49-D34B-4B6B-A6E4-9D7B28D9134C}">
   <dimension ref="A2:T340"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:L39"/>
+    <sheetView topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A315" sqref="A315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23076,8 +24140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F919ACA-908A-4643-A7D8-BA9996B0FA16}">
   <dimension ref="A2:T237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="T221" sqref="T221"/>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25920,4 +26984,5676 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79718D85-0588-4625-9EAB-F83695B84134}">
+  <dimension ref="A2:AO277"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N149" sqref="N149"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13"/>
+      <c r="B6" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="13"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="13"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="13"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="13"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="13"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="13"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="35"/>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="13"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="13"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="13"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="13"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="13"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="13"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="13"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="13"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="13"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="35"/>
+      <c r="K28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="13"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="13"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="13"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="13"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="13"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="13"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="13"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="13"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="13"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="13"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="7"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="B47" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="2:41">
+      <c r="B49" s="7"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="2:41">
+      <c r="B50" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="2:41">
+      <c r="B51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="2:41">
+      <c r="B52" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="2:41">
+      <c r="B53" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="2:41">
+      <c r="B54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="2:41">
+      <c r="B55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="2:41">
+      <c r="B56" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
+      <c r="AG56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:41">
+      <c r="B57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="6"/>
+      <c r="AG57" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="2"/>
+      <c r="AO57" s="3"/>
+    </row>
+    <row r="58" spans="2:41">
+      <c r="B58" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="6"/>
+    </row>
+    <row r="59" spans="2:41">
+      <c r="B59" s="7"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="6"/>
+      <c r="AG59" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="6"/>
+    </row>
+    <row r="60" spans="2:41">
+      <c r="B60" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6"/>
+      <c r="AG60" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="6"/>
+    </row>
+    <row r="61" spans="2:41">
+      <c r="B61" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="6"/>
+      <c r="AG61" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5"/>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+      <c r="AM61" s="5"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="6"/>
+    </row>
+    <row r="62" spans="2:41">
+      <c r="B62" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="6"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="6"/>
+    </row>
+    <row r="63" spans="2:41">
+      <c r="B63" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="6"/>
+      <c r="AG63" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="6"/>
+    </row>
+    <row r="64" spans="2:41">
+      <c r="B64" s="7"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="6"/>
+      <c r="AG64" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="5"/>
+      <c r="AO64" s="6"/>
+    </row>
+    <row r="65" spans="2:41">
+      <c r="B65" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="6"/>
+      <c r="AG65" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="6"/>
+    </row>
+    <row r="66" spans="2:41">
+      <c r="B66" s="7"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="6"/>
+      <c r="AG66" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="6"/>
+    </row>
+    <row r="67" spans="2:41">
+      <c r="B67" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
+      <c r="AG67" s="7"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="6"/>
+    </row>
+    <row r="68" spans="2:41">
+      <c r="B68" s="7"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+      <c r="AG68" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="5"/>
+      <c r="AO68" s="6"/>
+    </row>
+    <row r="69" spans="2:41">
+      <c r="B69" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
+      <c r="AG69" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+      <c r="AM69" s="5"/>
+      <c r="AN69" s="5"/>
+      <c r="AO69" s="6"/>
+    </row>
+    <row r="70" spans="2:41">
+      <c r="B70" s="7"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="6"/>
+      <c r="AG70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="6"/>
+    </row>
+    <row r="71" spans="2:41">
+      <c r="B71" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="6"/>
+      <c r="AG71" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="6"/>
+    </row>
+    <row r="72" spans="2:41">
+      <c r="B72" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6"/>
+      <c r="AG72" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="5"/>
+      <c r="AO72" s="6"/>
+    </row>
+    <row r="73" spans="2:41">
+      <c r="B73" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+      <c r="AG73" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+      <c r="AM73" s="5"/>
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="6"/>
+    </row>
+    <row r="74" spans="2:41">
+      <c r="B74" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="6"/>
+      <c r="AG74" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="6"/>
+    </row>
+    <row r="75" spans="2:41">
+      <c r="B75" s="7"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="6"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="6"/>
+    </row>
+    <row r="76" spans="2:41">
+      <c r="B76" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
+      <c r="AG76" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="5"/>
+      <c r="AO76" s="6"/>
+    </row>
+    <row r="77" spans="2:41">
+      <c r="B77" s="7"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="6"/>
+      <c r="AG77" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="5"/>
+      <c r="AK77" s="5"/>
+      <c r="AL77" s="5"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="5"/>
+      <c r="AO77" s="6"/>
+    </row>
+    <row r="78" spans="2:41">
+      <c r="B78" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6"/>
+      <c r="AG78" s="7"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+      <c r="AM78" s="5"/>
+      <c r="AN78" s="5"/>
+      <c r="AO78" s="6"/>
+    </row>
+    <row r="79" spans="2:41">
+      <c r="B79" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
+      <c r="AG79" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+      <c r="AM79" s="5"/>
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="6"/>
+    </row>
+    <row r="80" spans="2:41">
+      <c r="B80" s="7"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
+      <c r="AG80" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="5"/>
+      <c r="AO80" s="6"/>
+    </row>
+    <row r="81" spans="2:41">
+      <c r="B81" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+      <c r="AG81" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
+      <c r="AJ81" s="5"/>
+      <c r="AK81" s="5"/>
+      <c r="AL81" s="5"/>
+      <c r="AM81" s="5"/>
+      <c r="AN81" s="5"/>
+      <c r="AO81" s="6"/>
+    </row>
+    <row r="82" spans="2:41">
+      <c r="B82" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
+      <c r="AG82" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="6"/>
+    </row>
+    <row r="83" spans="2:41">
+      <c r="B83" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="6"/>
+      <c r="AG83" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="6"/>
+    </row>
+    <row r="84" spans="2:41">
+      <c r="B84" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="6"/>
+      <c r="AG84" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH84" s="5"/>
+      <c r="AI84" s="5"/>
+      <c r="AJ84" s="5"/>
+      <c r="AK84" s="5"/>
+      <c r="AL84" s="5"/>
+      <c r="AM84" s="5"/>
+      <c r="AN84" s="5"/>
+      <c r="AO84" s="6"/>
+    </row>
+    <row r="85" spans="2:41">
+      <c r="B85" s="7"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="6"/>
+      <c r="AG85" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="5"/>
+      <c r="AJ85" s="5"/>
+      <c r="AK85" s="5"/>
+      <c r="AL85" s="5"/>
+      <c r="AM85" s="5"/>
+      <c r="AN85" s="5"/>
+      <c r="AO85" s="6"/>
+    </row>
+    <row r="86" spans="2:41">
+      <c r="B86" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="6"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+      <c r="AJ86" s="5"/>
+      <c r="AK86" s="5"/>
+      <c r="AL86" s="5"/>
+      <c r="AM86" s="5"/>
+      <c r="AN86" s="5"/>
+      <c r="AO86" s="6"/>
+    </row>
+    <row r="87" spans="2:41">
+      <c r="B87" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6"/>
+      <c r="AG87" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="5"/>
+      <c r="AJ87" s="5"/>
+      <c r="AK87" s="5"/>
+      <c r="AL87" s="5"/>
+      <c r="AM87" s="5"/>
+      <c r="AN87" s="5"/>
+      <c r="AO87" s="6"/>
+    </row>
+    <row r="88" spans="2:41">
+      <c r="B88" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="6"/>
+      <c r="AG88" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="5"/>
+      <c r="AJ88" s="5"/>
+      <c r="AK88" s="5"/>
+      <c r="AL88" s="5"/>
+      <c r="AM88" s="5"/>
+      <c r="AN88" s="5"/>
+      <c r="AO88" s="6"/>
+    </row>
+    <row r="89" spans="2:41">
+      <c r="B89" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="6"/>
+      <c r="AG89" s="7"/>
+      <c r="AH89" s="5"/>
+      <c r="AI89" s="5"/>
+      <c r="AJ89" s="5"/>
+      <c r="AK89" s="5"/>
+      <c r="AL89" s="5"/>
+      <c r="AM89" s="5"/>
+      <c r="AN89" s="5"/>
+      <c r="AO89" s="6"/>
+    </row>
+    <row r="90" spans="2:41">
+      <c r="B90" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="6"/>
+      <c r="AG90" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="5"/>
+      <c r="AJ90" s="5"/>
+      <c r="AK90" s="5"/>
+      <c r="AL90" s="5"/>
+      <c r="AM90" s="5"/>
+      <c r="AN90" s="5"/>
+      <c r="AO90" s="6"/>
+    </row>
+    <row r="91" spans="2:41">
+      <c r="B91" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="6"/>
+      <c r="AG91" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH91" s="5"/>
+      <c r="AI91" s="5"/>
+      <c r="AJ91" s="5"/>
+      <c r="AK91" s="5"/>
+      <c r="AL91" s="5"/>
+      <c r="AM91" s="5"/>
+      <c r="AN91" s="5"/>
+      <c r="AO91" s="6"/>
+    </row>
+    <row r="92" spans="2:41">
+      <c r="B92" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="6"/>
+      <c r="AG92" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="5"/>
+      <c r="AK92" s="5"/>
+      <c r="AL92" s="5"/>
+      <c r="AM92" s="5"/>
+      <c r="AN92" s="5"/>
+      <c r="AO92" s="6"/>
+    </row>
+    <row r="93" spans="2:41">
+      <c r="B93" s="7"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="6"/>
+      <c r="AG93" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH93" s="5"/>
+      <c r="AI93" s="5"/>
+      <c r="AJ93" s="5"/>
+      <c r="AK93" s="5"/>
+      <c r="AL93" s="5"/>
+      <c r="AM93" s="5"/>
+      <c r="AN93" s="5"/>
+      <c r="AO93" s="6"/>
+    </row>
+    <row r="94" spans="2:41">
+      <c r="B94" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="6"/>
+      <c r="AG94" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+      <c r="AJ94" s="5"/>
+      <c r="AK94" s="5"/>
+      <c r="AL94" s="5"/>
+      <c r="AM94" s="5"/>
+      <c r="AN94" s="5"/>
+      <c r="AO94" s="6"/>
+    </row>
+    <row r="95" spans="2:41">
+      <c r="B95" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="6"/>
+      <c r="AG95" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="5"/>
+      <c r="AK95" s="5"/>
+      <c r="AL95" s="5"/>
+      <c r="AM95" s="5"/>
+      <c r="AN95" s="5"/>
+      <c r="AO95" s="6"/>
+    </row>
+    <row r="96" spans="2:41">
+      <c r="B96" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="6"/>
+      <c r="AG96" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="5"/>
+      <c r="AJ96" s="5"/>
+      <c r="AK96" s="5"/>
+      <c r="AL96" s="5"/>
+      <c r="AM96" s="5"/>
+      <c r="AN96" s="5"/>
+      <c r="AO96" s="6"/>
+    </row>
+    <row r="97" spans="1:41">
+      <c r="B97" s="7"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="6"/>
+      <c r="AG97" s="7"/>
+      <c r="AH97" s="5"/>
+      <c r="AI97" s="5"/>
+      <c r="AJ97" s="5"/>
+      <c r="AK97" s="5"/>
+      <c r="AL97" s="5"/>
+      <c r="AM97" s="5"/>
+      <c r="AN97" s="5"/>
+      <c r="AO97" s="6"/>
+    </row>
+    <row r="98" spans="1:41">
+      <c r="B98" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="6"/>
+      <c r="AG98" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+      <c r="AJ98" s="5"/>
+      <c r="AK98" s="5"/>
+      <c r="AL98" s="5"/>
+      <c r="AM98" s="5"/>
+      <c r="AN98" s="5"/>
+      <c r="AO98" s="6"/>
+    </row>
+    <row r="99" spans="1:41">
+      <c r="B99" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="6"/>
+      <c r="AG99" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+      <c r="AM99" s="5"/>
+      <c r="AN99" s="5"/>
+      <c r="AO99" s="6"/>
+    </row>
+    <row r="100" spans="1:41">
+      <c r="B100" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="6"/>
+      <c r="AG100" s="7"/>
+      <c r="AH100" s="5"/>
+      <c r="AI100" s="5"/>
+      <c r="AJ100" s="5"/>
+      <c r="AK100" s="5"/>
+      <c r="AL100" s="5"/>
+      <c r="AM100" s="5"/>
+      <c r="AN100" s="5"/>
+      <c r="AO100" s="6"/>
+    </row>
+    <row r="101" spans="1:41">
+      <c r="B101" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="6"/>
+      <c r="AG101" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="5"/>
+      <c r="AJ101" s="5"/>
+      <c r="AK101" s="5"/>
+      <c r="AL101" s="5"/>
+      <c r="AM101" s="5"/>
+      <c r="AN101" s="5"/>
+      <c r="AO101" s="6"/>
+    </row>
+    <row r="102" spans="1:41">
+      <c r="B102" s="7"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="6"/>
+      <c r="AG102" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+      <c r="AJ102" s="5"/>
+      <c r="AK102" s="5"/>
+      <c r="AL102" s="5"/>
+      <c r="AM102" s="5"/>
+      <c r="AN102" s="5"/>
+      <c r="AO102" s="6"/>
+    </row>
+    <row r="103" spans="1:41">
+      <c r="B103" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="6"/>
+      <c r="AG103" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="5"/>
+      <c r="AJ103" s="5"/>
+      <c r="AK103" s="5"/>
+      <c r="AL103" s="5"/>
+      <c r="AM103" s="5"/>
+      <c r="AN103" s="5"/>
+      <c r="AO103" s="6"/>
+    </row>
+    <row r="104" spans="1:41">
+      <c r="B104" s="7"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="6"/>
+      <c r="AG104" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
+      <c r="AK104" s="5"/>
+      <c r="AL104" s="5"/>
+      <c r="AM104" s="5"/>
+      <c r="AN104" s="5"/>
+      <c r="AO104" s="6"/>
+    </row>
+    <row r="105" spans="1:41">
+      <c r="B105" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="6"/>
+      <c r="AG105" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH105" s="5"/>
+      <c r="AI105" s="5"/>
+      <c r="AJ105" s="5"/>
+      <c r="AK105" s="5"/>
+      <c r="AL105" s="5"/>
+      <c r="AM105" s="5"/>
+      <c r="AN105" s="5"/>
+      <c r="AO105" s="6"/>
+    </row>
+    <row r="106" spans="1:41">
+      <c r="B106" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="6"/>
+      <c r="AG106" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="5"/>
+      <c r="AJ106" s="5"/>
+      <c r="AK106" s="5"/>
+      <c r="AL106" s="5"/>
+      <c r="AM106" s="5"/>
+      <c r="AN106" s="5"/>
+      <c r="AO106" s="6"/>
+    </row>
+    <row r="107" spans="1:41">
+      <c r="B107" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="10"/>
+      <c r="AG107" s="7"/>
+      <c r="AH107" s="5"/>
+      <c r="AI107" s="5"/>
+      <c r="AJ107" s="5"/>
+      <c r="AK107" s="5"/>
+      <c r="AL107" s="5"/>
+      <c r="AM107" s="5"/>
+      <c r="AN107" s="5"/>
+      <c r="AO107" s="6"/>
+    </row>
+    <row r="108" spans="1:41">
+      <c r="AG108" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH108" s="5"/>
+      <c r="AI108" s="5"/>
+      <c r="AJ108" s="5"/>
+      <c r="AK108" s="5"/>
+      <c r="AL108" s="5"/>
+      <c r="AM108" s="5"/>
+      <c r="AN108" s="5"/>
+      <c r="AO108" s="6"/>
+    </row>
+    <row r="109" spans="1:41">
+      <c r="AG109" s="7"/>
+      <c r="AH109" s="5"/>
+      <c r="AI109" s="5"/>
+      <c r="AJ109" s="5"/>
+      <c r="AK109" s="5"/>
+      <c r="AL109" s="5"/>
+      <c r="AM109" s="5"/>
+      <c r="AN109" s="5"/>
+      <c r="AO109" s="6"/>
+    </row>
+    <row r="110" spans="1:41">
+      <c r="A110" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG110" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH110" s="5"/>
+      <c r="AI110" s="5"/>
+      <c r="AJ110" s="5"/>
+      <c r="AK110" s="5"/>
+      <c r="AL110" s="5"/>
+      <c r="AM110" s="5"/>
+      <c r="AN110" s="5"/>
+      <c r="AO110" s="6"/>
+    </row>
+    <row r="111" spans="1:41">
+      <c r="B111" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="3"/>
+      <c r="AG111" s="7"/>
+      <c r="AH111" s="5"/>
+      <c r="AI111" s="5"/>
+      <c r="AJ111" s="5"/>
+      <c r="AK111" s="5"/>
+      <c r="AL111" s="5"/>
+      <c r="AM111" s="5"/>
+      <c r="AN111" s="5"/>
+      <c r="AO111" s="6"/>
+    </row>
+    <row r="112" spans="1:41">
+      <c r="B112" s="7"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="6"/>
+      <c r="AG112" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH112" s="5"/>
+      <c r="AI112" s="5"/>
+      <c r="AJ112" s="5"/>
+      <c r="AK112" s="5"/>
+      <c r="AL112" s="5"/>
+      <c r="AM112" s="5"/>
+      <c r="AN112" s="5"/>
+      <c r="AO112" s="6"/>
+    </row>
+    <row r="113" spans="2:41">
+      <c r="B113" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="6"/>
+      <c r="AG113" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH113" s="5"/>
+      <c r="AI113" s="5"/>
+      <c r="AJ113" s="5"/>
+      <c r="AK113" s="5"/>
+      <c r="AL113" s="5"/>
+      <c r="AM113" s="5"/>
+      <c r="AN113" s="5"/>
+      <c r="AO113" s="6"/>
+    </row>
+    <row r="114" spans="2:41">
+      <c r="B114" s="7"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="6"/>
+      <c r="AG114" s="7"/>
+      <c r="AH114" s="5"/>
+      <c r="AI114" s="5"/>
+      <c r="AJ114" s="5"/>
+      <c r="AK114" s="5"/>
+      <c r="AL114" s="5"/>
+      <c r="AM114" s="5"/>
+      <c r="AN114" s="5"/>
+      <c r="AO114" s="6"/>
+    </row>
+    <row r="115" spans="2:41">
+      <c r="B115" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="6"/>
+      <c r="AG115" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH115" s="5"/>
+      <c r="AI115" s="5"/>
+      <c r="AJ115" s="5"/>
+      <c r="AK115" s="5"/>
+      <c r="AL115" s="5"/>
+      <c r="AM115" s="5"/>
+      <c r="AN115" s="5"/>
+      <c r="AO115" s="6"/>
+    </row>
+    <row r="116" spans="2:41">
+      <c r="B116" s="7"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="6"/>
+      <c r="AG116" s="7"/>
+      <c r="AH116" s="5"/>
+      <c r="AI116" s="5"/>
+      <c r="AJ116" s="5"/>
+      <c r="AK116" s="5"/>
+      <c r="AL116" s="5"/>
+      <c r="AM116" s="5"/>
+      <c r="AN116" s="5"/>
+      <c r="AO116" s="6"/>
+    </row>
+    <row r="117" spans="2:41">
+      <c r="B117" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="6"/>
+      <c r="AG117" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH117" s="5"/>
+      <c r="AI117" s="5"/>
+      <c r="AJ117" s="5"/>
+      <c r="AK117" s="5"/>
+      <c r="AL117" s="5"/>
+      <c r="AM117" s="5"/>
+      <c r="AN117" s="5"/>
+      <c r="AO117" s="6"/>
+    </row>
+    <row r="118" spans="2:41">
+      <c r="B118" s="7"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="6"/>
+      <c r="AG118" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH118" s="5"/>
+      <c r="AI118" s="5"/>
+      <c r="AJ118" s="5"/>
+      <c r="AK118" s="5"/>
+      <c r="AL118" s="5"/>
+      <c r="AM118" s="5"/>
+      <c r="AN118" s="5"/>
+      <c r="AO118" s="6"/>
+    </row>
+    <row r="119" spans="2:41">
+      <c r="B119" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="6"/>
+      <c r="AG119" s="7"/>
+      <c r="AH119" s="5"/>
+      <c r="AI119" s="5"/>
+      <c r="AJ119" s="5"/>
+      <c r="AK119" s="5"/>
+      <c r="AL119" s="5"/>
+      <c r="AM119" s="5"/>
+      <c r="AN119" s="5"/>
+      <c r="AO119" s="6"/>
+    </row>
+    <row r="120" spans="2:41">
+      <c r="B120" s="7"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="6"/>
+      <c r="AG120" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH120" s="5"/>
+      <c r="AI120" s="5"/>
+      <c r="AJ120" s="5"/>
+      <c r="AK120" s="5"/>
+      <c r="AL120" s="5"/>
+      <c r="AM120" s="5"/>
+      <c r="AN120" s="5"/>
+      <c r="AO120" s="6"/>
+    </row>
+    <row r="121" spans="2:41">
+      <c r="B121" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="6"/>
+      <c r="AG121" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH121" s="5"/>
+      <c r="AI121" s="5"/>
+      <c r="AJ121" s="5"/>
+      <c r="AK121" s="5"/>
+      <c r="AL121" s="5"/>
+      <c r="AM121" s="5"/>
+      <c r="AN121" s="5"/>
+      <c r="AO121" s="6"/>
+    </row>
+    <row r="122" spans="2:41">
+      <c r="B122" s="7"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="6"/>
+      <c r="AG122" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH122" s="5"/>
+      <c r="AI122" s="5"/>
+      <c r="AJ122" s="5"/>
+      <c r="AK122" s="5"/>
+      <c r="AL122" s="5"/>
+      <c r="AM122" s="5"/>
+      <c r="AN122" s="5"/>
+      <c r="AO122" s="6"/>
+    </row>
+    <row r="123" spans="2:41">
+      <c r="B123" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="6"/>
+      <c r="AG123" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH123" s="5"/>
+      <c r="AI123" s="5"/>
+      <c r="AJ123" s="5"/>
+      <c r="AK123" s="5"/>
+      <c r="AL123" s="5"/>
+      <c r="AM123" s="5"/>
+      <c r="AN123" s="5"/>
+      <c r="AO123" s="6"/>
+    </row>
+    <row r="124" spans="2:41">
+      <c r="B124" s="7"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="6"/>
+      <c r="AG124" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH124" s="5"/>
+      <c r="AI124" s="5"/>
+      <c r="AJ124" s="5"/>
+      <c r="AK124" s="5"/>
+      <c r="AL124" s="5"/>
+      <c r="AM124" s="5"/>
+      <c r="AN124" s="5"/>
+      <c r="AO124" s="6"/>
+    </row>
+    <row r="125" spans="2:41">
+      <c r="B125" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="6"/>
+      <c r="AG125" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH125" s="5"/>
+      <c r="AI125" s="5"/>
+      <c r="AJ125" s="5"/>
+      <c r="AK125" s="5"/>
+      <c r="AL125" s="5"/>
+      <c r="AM125" s="5"/>
+      <c r="AN125" s="5"/>
+      <c r="AO125" s="6"/>
+    </row>
+    <row r="126" spans="2:41">
+      <c r="B126" s="7"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="6"/>
+      <c r="AG126" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH126" s="5"/>
+      <c r="AI126" s="5"/>
+      <c r="AJ126" s="5"/>
+      <c r="AK126" s="5"/>
+      <c r="AL126" s="5"/>
+      <c r="AM126" s="5"/>
+      <c r="AN126" s="5"/>
+      <c r="AO126" s="6"/>
+    </row>
+    <row r="127" spans="2:41">
+      <c r="B127" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="6"/>
+      <c r="AG127" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH127" s="5"/>
+      <c r="AI127" s="5"/>
+      <c r="AJ127" s="5"/>
+      <c r="AK127" s="5"/>
+      <c r="AL127" s="5"/>
+      <c r="AM127" s="5"/>
+      <c r="AN127" s="5"/>
+      <c r="AO127" s="6"/>
+    </row>
+    <row r="128" spans="2:41">
+      <c r="B128" s="7"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="6"/>
+      <c r="AG128" s="7"/>
+      <c r="AH128" s="5"/>
+      <c r="AI128" s="5"/>
+      <c r="AJ128" s="5"/>
+      <c r="AK128" s="5"/>
+      <c r="AL128" s="5"/>
+      <c r="AM128" s="5"/>
+      <c r="AN128" s="5"/>
+      <c r="AO128" s="6"/>
+    </row>
+    <row r="129" spans="2:41">
+      <c r="B129" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="6"/>
+      <c r="AG129" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH129" s="5"/>
+      <c r="AI129" s="5"/>
+      <c r="AJ129" s="5"/>
+      <c r="AK129" s="5"/>
+      <c r="AL129" s="5"/>
+      <c r="AM129" s="5"/>
+      <c r="AN129" s="5"/>
+      <c r="AO129" s="6"/>
+    </row>
+    <row r="130" spans="2:41">
+      <c r="B130" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="6"/>
+      <c r="AG130" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH130" s="5"/>
+      <c r="AI130" s="5"/>
+      <c r="AJ130" s="5"/>
+      <c r="AK130" s="5"/>
+      <c r="AL130" s="5"/>
+      <c r="AM130" s="5"/>
+      <c r="AN130" s="5"/>
+      <c r="AO130" s="6"/>
+    </row>
+    <row r="131" spans="2:41">
+      <c r="B131" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="6"/>
+      <c r="AG131" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH131" s="5"/>
+      <c r="AI131" s="5"/>
+      <c r="AJ131" s="5"/>
+      <c r="AK131" s="5"/>
+      <c r="AL131" s="5"/>
+      <c r="AM131" s="5"/>
+      <c r="AN131" s="5"/>
+      <c r="AO131" s="6"/>
+    </row>
+    <row r="132" spans="2:41">
+      <c r="B132" s="7"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="6"/>
+      <c r="AG132" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH132" s="5"/>
+      <c r="AI132" s="5"/>
+      <c r="AJ132" s="5"/>
+      <c r="AK132" s="5"/>
+      <c r="AL132" s="5"/>
+      <c r="AM132" s="5"/>
+      <c r="AN132" s="5"/>
+      <c r="AO132" s="6"/>
+    </row>
+    <row r="133" spans="2:41">
+      <c r="B133" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="6"/>
+      <c r="AG133" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH133" s="5"/>
+      <c r="AI133" s="5"/>
+      <c r="AJ133" s="5"/>
+      <c r="AK133" s="5"/>
+      <c r="AL133" s="5"/>
+      <c r="AM133" s="5"/>
+      <c r="AN133" s="5"/>
+      <c r="AO133" s="6"/>
+    </row>
+    <row r="134" spans="2:41">
+      <c r="B134" s="7"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="6"/>
+      <c r="AG134" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH134" s="5"/>
+      <c r="AI134" s="5"/>
+      <c r="AJ134" s="5"/>
+      <c r="AK134" s="5"/>
+      <c r="AL134" s="5"/>
+      <c r="AM134" s="5"/>
+      <c r="AN134" s="5"/>
+      <c r="AO134" s="6"/>
+    </row>
+    <row r="135" spans="2:41">
+      <c r="B135" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="6"/>
+      <c r="AG135" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH135" s="5"/>
+      <c r="AI135" s="5"/>
+      <c r="AJ135" s="5"/>
+      <c r="AK135" s="5"/>
+      <c r="AL135" s="5"/>
+      <c r="AM135" s="5"/>
+      <c r="AN135" s="5"/>
+      <c r="AO135" s="6"/>
+    </row>
+    <row r="136" spans="2:41">
+      <c r="B136" s="7"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="6"/>
+      <c r="AG136" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH136" s="5"/>
+      <c r="AI136" s="5"/>
+      <c r="AJ136" s="5"/>
+      <c r="AK136" s="5"/>
+      <c r="AL136" s="5"/>
+      <c r="AM136" s="5"/>
+      <c r="AN136" s="5"/>
+      <c r="AO136" s="6"/>
+    </row>
+    <row r="137" spans="2:41">
+      <c r="B137" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="6"/>
+      <c r="AG137" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH137" s="5"/>
+      <c r="AI137" s="5"/>
+      <c r="AJ137" s="5"/>
+      <c r="AK137" s="5"/>
+      <c r="AL137" s="5"/>
+      <c r="AM137" s="5"/>
+      <c r="AN137" s="5"/>
+      <c r="AO137" s="6"/>
+    </row>
+    <row r="138" spans="2:41">
+      <c r="B138" s="7"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="6"/>
+      <c r="AG138" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH138" s="5"/>
+      <c r="AI138" s="5"/>
+      <c r="AJ138" s="5"/>
+      <c r="AK138" s="5"/>
+      <c r="AL138" s="5"/>
+      <c r="AM138" s="5"/>
+      <c r="AN138" s="5"/>
+      <c r="AO138" s="6"/>
+    </row>
+    <row r="139" spans="2:41">
+      <c r="B139" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="6"/>
+      <c r="AG139" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH139" s="9"/>
+      <c r="AI139" s="9"/>
+      <c r="AJ139" s="9"/>
+      <c r="AK139" s="9"/>
+      <c r="AL139" s="9"/>
+      <c r="AM139" s="9"/>
+      <c r="AN139" s="9"/>
+      <c r="AO139" s="10"/>
+    </row>
+    <row r="140" spans="2:41">
+      <c r="B140" s="7"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="2:41">
+      <c r="B141" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="2:41">
+      <c r="B142" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="2:41">
+      <c r="B143" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="6"/>
+    </row>
+    <row r="144" spans="2:41">
+      <c r="B144" s="7"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="6"/>
+    </row>
+    <row r="145" spans="1:21">
+      <c r="B145" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="1:21">
+      <c r="B146" s="7"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="1:21">
+      <c r="B147" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="1:21">
+      <c r="B148" s="7"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="1:21">
+      <c r="B149" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="1:21">
+      <c r="B150" s="7"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="6"/>
+    </row>
+    <row r="151" spans="1:21">
+      <c r="B151" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="10"/>
+    </row>
+    <row r="153" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="154" spans="1:21">
+      <c r="A154" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="24"/>
+      <c r="J154" s="24"/>
+      <c r="K154" s="24"/>
+      <c r="L154" s="24"/>
+      <c r="M154" s="24"/>
+      <c r="N154" s="24"/>
+      <c r="O154" s="24"/>
+      <c r="P154" s="24"/>
+      <c r="Q154" s="24"/>
+      <c r="R154" s="24"/>
+      <c r="S154" s="24"/>
+      <c r="T154" s="24"/>
+      <c r="U154" s="25"/>
+    </row>
+    <row r="155" spans="1:21">
+      <c r="A155" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="3"/>
+      <c r="U155" s="26"/>
+    </row>
+    <row r="156" spans="1:21">
+      <c r="A156" s="13"/>
+      <c r="B156" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="6"/>
+      <c r="U156" s="26"/>
+    </row>
+    <row r="157" spans="1:21">
+      <c r="A157" s="13"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="6"/>
+      <c r="U157" s="26"/>
+    </row>
+    <row r="158" spans="1:21">
+      <c r="A158" s="13"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="26"/>
+    </row>
+    <row r="159" spans="1:21">
+      <c r="A159" s="13"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="6"/>
+      <c r="U159" s="26"/>
+    </row>
+    <row r="160" spans="1:21">
+      <c r="A160" s="13"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="26"/>
+    </row>
+    <row r="161" spans="1:21">
+      <c r="A161" s="13"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="6"/>
+      <c r="U161" s="26"/>
+    </row>
+    <row r="162" spans="1:21">
+      <c r="A162" s="13"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="6"/>
+      <c r="U162" s="26"/>
+    </row>
+    <row r="163" spans="1:21">
+      <c r="A163" s="13"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="5"/>
+      <c r="T163" s="6"/>
+      <c r="U163" s="26"/>
+    </row>
+    <row r="164" spans="1:21">
+      <c r="A164" s="13"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="6"/>
+      <c r="U164" s="26"/>
+    </row>
+    <row r="165" spans="1:21">
+      <c r="A165" s="13"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="6"/>
+      <c r="U165" s="26"/>
+    </row>
+    <row r="166" spans="1:21">
+      <c r="A166" s="13"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+      <c r="T166" s="6"/>
+      <c r="U166" s="26"/>
+    </row>
+    <row r="167" spans="1:21">
+      <c r="A167" s="13"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="5"/>
+      <c r="S167" s="5"/>
+      <c r="T167" s="6"/>
+      <c r="U167" s="26"/>
+    </row>
+    <row r="168" spans="1:21">
+      <c r="A168" s="13"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="6"/>
+      <c r="U168" s="26"/>
+    </row>
+    <row r="169" spans="1:21">
+      <c r="A169" s="13"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="5"/>
+      <c r="S169" s="5"/>
+      <c r="T169" s="6"/>
+      <c r="U169" s="26"/>
+    </row>
+    <row r="170" spans="1:21">
+      <c r="A170" s="13"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="6"/>
+      <c r="R170" s="5"/>
+      <c r="S170" s="5"/>
+      <c r="T170" s="6"/>
+      <c r="U170" s="26"/>
+    </row>
+    <row r="171" spans="1:21">
+      <c r="A171" s="13"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="6"/>
+      <c r="R171" s="5"/>
+      <c r="S171" s="5"/>
+      <c r="T171" s="6"/>
+      <c r="U171" s="26"/>
+    </row>
+    <row r="172" spans="1:21">
+      <c r="A172" s="13"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="6"/>
+      <c r="R172" s="5"/>
+      <c r="S172" s="5"/>
+      <c r="T172" s="6"/>
+      <c r="U172" s="26"/>
+    </row>
+    <row r="173" spans="1:21">
+      <c r="A173" s="13"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="6"/>
+      <c r="R173" s="5"/>
+      <c r="S173" s="5"/>
+      <c r="T173" s="6"/>
+      <c r="U173" s="26"/>
+    </row>
+    <row r="174" spans="1:21">
+      <c r="A174" s="13"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="5"/>
+      <c r="S174" s="5"/>
+      <c r="T174" s="6"/>
+      <c r="U174" s="26"/>
+    </row>
+    <row r="175" spans="1:21">
+      <c r="A175" s="13"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9"/>
+      <c r="L175" s="9"/>
+      <c r="M175" s="9"/>
+      <c r="N175" s="9"/>
+      <c r="O175" s="9"/>
+      <c r="P175" s="9"/>
+      <c r="Q175" s="10"/>
+      <c r="R175" s="5"/>
+      <c r="S175" s="5"/>
+      <c r="T175" s="6"/>
+      <c r="U175" s="26"/>
+    </row>
+    <row r="176" spans="1:21">
+      <c r="A176" s="13"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="5"/>
+      <c r="S176" s="5"/>
+      <c r="T176" s="6"/>
+      <c r="U176" s="26"/>
+    </row>
+    <row r="177" spans="1:21">
+      <c r="A177" s="13"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5"/>
+      <c r="N177" s="5"/>
+      <c r="O177" s="5"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="5"/>
+      <c r="S177" s="5"/>
+      <c r="T177" s="6"/>
+      <c r="U177" s="26"/>
+    </row>
+    <row r="178" spans="1:21">
+      <c r="A178" s="13"/>
+      <c r="B178" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="3"/>
+      <c r="T178" s="6"/>
+      <c r="U178" s="26"/>
+    </row>
+    <row r="179" spans="1:21">
+      <c r="A179" s="13"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="6"/>
+      <c r="T179" s="6"/>
+      <c r="U179" s="26"/>
+    </row>
+    <row r="180" spans="1:21">
+      <c r="A180" s="13"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="5"/>
+      <c r="S180" s="6"/>
+      <c r="T180" s="6"/>
+      <c r="U180" s="26"/>
+    </row>
+    <row r="181" spans="1:21">
+      <c r="A181" s="13"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="6"/>
+      <c r="T181" s="6"/>
+      <c r="U181" s="26"/>
+    </row>
+    <row r="182" spans="1:21">
+      <c r="A182" s="13"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="5"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="5"/>
+      <c r="S182" s="6"/>
+      <c r="T182" s="6"/>
+      <c r="U182" s="26"/>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" s="13"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5"/>
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="5"/>
+      <c r="S183" s="6"/>
+      <c r="T183" s="6"/>
+      <c r="U183" s="26"/>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" s="13"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+      <c r="O184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
+      <c r="R184" s="5"/>
+      <c r="S184" s="6"/>
+      <c r="T184" s="6"/>
+      <c r="U184" s="26"/>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" s="13"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5"/>
+      <c r="O185" s="5"/>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+      <c r="R185" s="5"/>
+      <c r="S185" s="6"/>
+      <c r="T185" s="6"/>
+      <c r="U185" s="26"/>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" s="13"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
+      <c r="O186" s="5"/>
+      <c r="P186" s="5"/>
+      <c r="Q186" s="5"/>
+      <c r="R186" s="5"/>
+      <c r="S186" s="6"/>
+      <c r="T186" s="6"/>
+      <c r="U186" s="26"/>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" s="13"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5"/>
+      <c r="M187" s="5"/>
+      <c r="N187" s="5"/>
+      <c r="O187" s="5"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+      <c r="R187" s="5"/>
+      <c r="S187" s="6"/>
+      <c r="T187" s="6"/>
+      <c r="U187" s="26"/>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" s="13"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="5"/>
+      <c r="N188" s="5"/>
+      <c r="O188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="5"/>
+      <c r="S188" s="6"/>
+      <c r="T188" s="6"/>
+      <c r="U188" s="26"/>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" s="13"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+      <c r="R189" s="5"/>
+      <c r="S189" s="6"/>
+      <c r="T189" s="6"/>
+      <c r="U189" s="26"/>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" s="13"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+      <c r="R190" s="5"/>
+      <c r="S190" s="6"/>
+      <c r="T190" s="6"/>
+      <c r="U190" s="26"/>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" s="13"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="6"/>
+      <c r="T191" s="6"/>
+      <c r="U191" s="26"/>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" s="13"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="5"/>
+      <c r="S192" s="6"/>
+      <c r="T192" s="6"/>
+      <c r="U192" s="26"/>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" s="13"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
+      <c r="M193" s="5"/>
+      <c r="N193" s="5"/>
+      <c r="O193" s="5"/>
+      <c r="P193" s="5"/>
+      <c r="Q193" s="5"/>
+      <c r="R193" s="5"/>
+      <c r="S193" s="6"/>
+      <c r="T193" s="6"/>
+      <c r="U193" s="26"/>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" s="13"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
+      <c r="O194" s="5"/>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
+      <c r="R194" s="5"/>
+      <c r="S194" s="6"/>
+      <c r="T194" s="6"/>
+      <c r="U194" s="26"/>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" s="13"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="5"/>
+      <c r="O195" s="5"/>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+      <c r="R195" s="5"/>
+      <c r="S195" s="6"/>
+      <c r="T195" s="6"/>
+      <c r="U195" s="26"/>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" s="13"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="5"/>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
+      <c r="R196" s="5"/>
+      <c r="S196" s="6"/>
+      <c r="T196" s="6"/>
+      <c r="U196" s="26"/>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" s="13"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="6"/>
+      <c r="T197" s="6"/>
+      <c r="U197" s="26"/>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" s="13"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+      <c r="M198" s="5"/>
+      <c r="N198" s="5"/>
+      <c r="O198" s="5"/>
+      <c r="P198" s="5"/>
+      <c r="Q198" s="5"/>
+      <c r="R198" s="5"/>
+      <c r="S198" s="6"/>
+      <c r="T198" s="6"/>
+      <c r="U198" s="26"/>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" s="13"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
+      <c r="M199" s="5"/>
+      <c r="N199" s="5"/>
+      <c r="O199" s="5"/>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
+      <c r="R199" s="5"/>
+      <c r="S199" s="6"/>
+      <c r="T199" s="6"/>
+      <c r="U199" s="26"/>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" s="13"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5"/>
+      <c r="M200" s="5"/>
+      <c r="N200" s="5"/>
+      <c r="O200" s="5"/>
+      <c r="P200" s="5"/>
+      <c r="Q200" s="5"/>
+      <c r="R200" s="5"/>
+      <c r="S200" s="6"/>
+      <c r="T200" s="6"/>
+      <c r="U200" s="26"/>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" s="13"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5"/>
+      <c r="M201" s="5"/>
+      <c r="N201" s="5"/>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="5"/>
+      <c r="S201" s="6"/>
+      <c r="T201" s="6"/>
+      <c r="U201" s="26"/>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" s="13"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="5"/>
+      <c r="M202" s="5"/>
+      <c r="N202" s="5"/>
+      <c r="O202" s="5"/>
+      <c r="P202" s="5"/>
+      <c r="Q202" s="5"/>
+      <c r="R202" s="5"/>
+      <c r="S202" s="6"/>
+      <c r="T202" s="6"/>
+      <c r="U202" s="26"/>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" s="13"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="5"/>
+      <c r="M203" s="5"/>
+      <c r="N203" s="5"/>
+      <c r="O203" s="5"/>
+      <c r="P203" s="5"/>
+      <c r="Q203" s="5"/>
+      <c r="R203" s="5"/>
+      <c r="S203" s="6"/>
+      <c r="T203" s="6"/>
+      <c r="U203" s="26"/>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" s="13"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="5"/>
+      <c r="M204" s="5"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="5"/>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+      <c r="R204" s="5"/>
+      <c r="S204" s="6"/>
+      <c r="T204" s="6"/>
+      <c r="U204" s="26"/>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" s="13"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="5"/>
+      <c r="M205" s="5"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="6"/>
+      <c r="T205" s="6"/>
+      <c r="U205" s="26"/>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" s="13"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="5"/>
+      <c r="M206" s="5"/>
+      <c r="N206" s="5"/>
+      <c r="O206" s="5"/>
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
+      <c r="R206" s="5"/>
+      <c r="S206" s="6"/>
+      <c r="T206" s="6"/>
+      <c r="U206" s="26"/>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" s="13"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="5"/>
+      <c r="N207" s="5"/>
+      <c r="O207" s="5"/>
+      <c r="P207" s="5"/>
+      <c r="Q207" s="5"/>
+      <c r="R207" s="5"/>
+      <c r="S207" s="6"/>
+      <c r="T207" s="6"/>
+      <c r="U207" s="26"/>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" s="13"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="5"/>
+      <c r="M208" s="5"/>
+      <c r="N208" s="5"/>
+      <c r="O208" s="5"/>
+      <c r="P208" s="5"/>
+      <c r="Q208" s="5"/>
+      <c r="R208" s="5"/>
+      <c r="S208" s="6"/>
+      <c r="T208" s="6"/>
+      <c r="U208" s="26"/>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" s="13"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="5"/>
+      <c r="M209" s="5"/>
+      <c r="N209" s="5"/>
+      <c r="O209" s="5"/>
+      <c r="P209" s="5"/>
+      <c r="Q209" s="5"/>
+      <c r="R209" s="5"/>
+      <c r="S209" s="6"/>
+      <c r="T209" s="6"/>
+      <c r="U209" s="26"/>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" s="13"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="5"/>
+      <c r="M210" s="5"/>
+      <c r="N210" s="5"/>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="5"/>
+      <c r="S210" s="6"/>
+      <c r="T210" s="6"/>
+      <c r="U210" s="26"/>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" s="13"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
+      <c r="M211" s="5"/>
+      <c r="N211" s="5"/>
+      <c r="O211" s="5"/>
+      <c r="P211" s="5"/>
+      <c r="Q211" s="5"/>
+      <c r="R211" s="5"/>
+      <c r="S211" s="6"/>
+      <c r="T211" s="6"/>
+      <c r="U211" s="26"/>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" s="13"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="5"/>
+      <c r="O212" s="5"/>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
+      <c r="R212" s="5"/>
+      <c r="S212" s="6"/>
+      <c r="T212" s="6"/>
+      <c r="U212" s="26"/>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" s="13"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+      <c r="S213" s="6"/>
+      <c r="T213" s="6"/>
+      <c r="U213" s="26"/>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" s="13"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
+      <c r="L214" s="9"/>
+      <c r="M214" s="9"/>
+      <c r="N214" s="9"/>
+      <c r="O214" s="9"/>
+      <c r="P214" s="9"/>
+      <c r="Q214" s="9"/>
+      <c r="R214" s="9"/>
+      <c r="S214" s="10"/>
+      <c r="T214" s="6"/>
+      <c r="U214" s="26"/>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="A215" s="40"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
+      <c r="L215" s="9"/>
+      <c r="M215" s="9"/>
+      <c r="N215" s="9"/>
+      <c r="O215" s="9"/>
+      <c r="P215" s="9"/>
+      <c r="Q215" s="9"/>
+      <c r="R215" s="9"/>
+      <c r="S215" s="9"/>
+      <c r="T215" s="10"/>
+      <c r="U215" s="26"/>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="A216" s="13"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="5"/>
+      <c r="M216" s="5"/>
+      <c r="N216" s="5"/>
+      <c r="O216" s="5"/>
+      <c r="P216" s="5"/>
+      <c r="Q216" s="5"/>
+      <c r="R216" s="5"/>
+      <c r="S216" s="5"/>
+      <c r="T216" s="5"/>
+      <c r="U216" s="26"/>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="A217" s="13"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="5"/>
+      <c r="M217" s="5"/>
+      <c r="N217" s="5"/>
+      <c r="O217" s="5"/>
+      <c r="P217" s="5"/>
+      <c r="Q217" s="5"/>
+      <c r="R217" s="5"/>
+      <c r="S217" s="5"/>
+      <c r="T217" s="5"/>
+      <c r="U217" s="26"/>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="A218" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="3"/>
+      <c r="U218" s="26"/>
+    </row>
+    <row r="219" spans="1:21">
+      <c r="A219" s="13"/>
+      <c r="B219" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="3"/>
+      <c r="T219" s="6"/>
+      <c r="U219" s="26"/>
+    </row>
+    <row r="220" spans="1:21">
+      <c r="A220" s="13"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="5"/>
+      <c r="M220" s="5"/>
+      <c r="N220" s="5"/>
+      <c r="O220" s="5"/>
+      <c r="P220" s="5"/>
+      <c r="Q220" s="5"/>
+      <c r="R220" s="5"/>
+      <c r="S220" s="6"/>
+      <c r="T220" s="6"/>
+      <c r="U220" s="26"/>
+    </row>
+    <row r="221" spans="1:21">
+      <c r="A221" s="13"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="5"/>
+      <c r="N221" s="5"/>
+      <c r="O221" s="5"/>
+      <c r="P221" s="5"/>
+      <c r="Q221" s="5"/>
+      <c r="R221" s="5"/>
+      <c r="S221" s="6"/>
+      <c r="T221" s="6"/>
+      <c r="U221" s="26"/>
+    </row>
+    <row r="222" spans="1:21">
+      <c r="A222" s="13"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="5"/>
+      <c r="M222" s="5"/>
+      <c r="N222" s="5"/>
+      <c r="O222" s="5"/>
+      <c r="P222" s="5"/>
+      <c r="Q222" s="5"/>
+      <c r="R222" s="5"/>
+      <c r="S222" s="6"/>
+      <c r="T222" s="6"/>
+      <c r="U222" s="26"/>
+    </row>
+    <row r="223" spans="1:21">
+      <c r="A223" s="13"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="5"/>
+      <c r="M223" s="5"/>
+      <c r="N223" s="5"/>
+      <c r="O223" s="5"/>
+      <c r="P223" s="5"/>
+      <c r="Q223" s="5"/>
+      <c r="R223" s="5"/>
+      <c r="S223" s="6"/>
+      <c r="T223" s="6"/>
+      <c r="U223" s="26"/>
+    </row>
+    <row r="224" spans="1:21">
+      <c r="A224" s="13"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="5"/>
+      <c r="M224" s="5"/>
+      <c r="N224" s="5"/>
+      <c r="O224" s="5"/>
+      <c r="P224" s="5"/>
+      <c r="Q224" s="5"/>
+      <c r="R224" s="5"/>
+      <c r="S224" s="6"/>
+      <c r="T224" s="6"/>
+      <c r="U224" s="26"/>
+    </row>
+    <row r="225" spans="1:21">
+      <c r="A225" s="13"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="5"/>
+      <c r="M225" s="5"/>
+      <c r="N225" s="5"/>
+      <c r="O225" s="5"/>
+      <c r="P225" s="5"/>
+      <c r="Q225" s="5"/>
+      <c r="R225" s="5"/>
+      <c r="S225" s="6"/>
+      <c r="T225" s="6"/>
+      <c r="U225" s="26"/>
+    </row>
+    <row r="226" spans="1:21">
+      <c r="A226" s="13"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="5"/>
+      <c r="M226" s="5"/>
+      <c r="N226" s="5"/>
+      <c r="O226" s="5"/>
+      <c r="P226" s="5"/>
+      <c r="Q226" s="5"/>
+      <c r="R226" s="5"/>
+      <c r="S226" s="6"/>
+      <c r="T226" s="6"/>
+      <c r="U226" s="26"/>
+    </row>
+    <row r="227" spans="1:21">
+      <c r="A227" s="13"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="5"/>
+      <c r="M227" s="5"/>
+      <c r="N227" s="5"/>
+      <c r="O227" s="5"/>
+      <c r="P227" s="5"/>
+      <c r="Q227" s="5"/>
+      <c r="R227" s="5"/>
+      <c r="S227" s="6"/>
+      <c r="T227" s="6"/>
+      <c r="U227" s="26"/>
+    </row>
+    <row r="228" spans="1:21">
+      <c r="A228" s="13"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="5"/>
+      <c r="M228" s="5"/>
+      <c r="N228" s="5"/>
+      <c r="O228" s="5"/>
+      <c r="P228" s="5"/>
+      <c r="Q228" s="5"/>
+      <c r="R228" s="5"/>
+      <c r="S228" s="6"/>
+      <c r="T228" s="6"/>
+      <c r="U228" s="26"/>
+    </row>
+    <row r="229" spans="1:21">
+      <c r="A229" s="13"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="5"/>
+      <c r="M229" s="5"/>
+      <c r="N229" s="5"/>
+      <c r="O229" s="5"/>
+      <c r="P229" s="5"/>
+      <c r="Q229" s="5"/>
+      <c r="R229" s="5"/>
+      <c r="S229" s="6"/>
+      <c r="T229" s="6"/>
+      <c r="U229" s="26"/>
+    </row>
+    <row r="230" spans="1:21">
+      <c r="A230" s="13"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="5"/>
+      <c r="M230" s="5"/>
+      <c r="N230" s="5"/>
+      <c r="O230" s="5"/>
+      <c r="P230" s="5"/>
+      <c r="Q230" s="5"/>
+      <c r="R230" s="5"/>
+      <c r="S230" s="6"/>
+      <c r="T230" s="6"/>
+      <c r="U230" s="26"/>
+    </row>
+    <row r="231" spans="1:21">
+      <c r="A231" s="13"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="5"/>
+      <c r="M231" s="5"/>
+      <c r="N231" s="5"/>
+      <c r="O231" s="5"/>
+      <c r="P231" s="5"/>
+      <c r="Q231" s="5"/>
+      <c r="R231" s="5"/>
+      <c r="S231" s="6"/>
+      <c r="T231" s="6"/>
+      <c r="U231" s="26"/>
+    </row>
+    <row r="232" spans="1:21">
+      <c r="A232" s="13"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="5"/>
+      <c r="M232" s="5"/>
+      <c r="N232" s="5"/>
+      <c r="O232" s="5"/>
+      <c r="P232" s="5"/>
+      <c r="Q232" s="5"/>
+      <c r="R232" s="5"/>
+      <c r="S232" s="6"/>
+      <c r="T232" s="6"/>
+      <c r="U232" s="26"/>
+    </row>
+    <row r="233" spans="1:21">
+      <c r="A233" s="13"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="5"/>
+      <c r="L233" s="5"/>
+      <c r="M233" s="5"/>
+      <c r="N233" s="5"/>
+      <c r="O233" s="5"/>
+      <c r="P233" s="5"/>
+      <c r="Q233" s="5"/>
+      <c r="R233" s="5"/>
+      <c r="S233" s="6"/>
+      <c r="T233" s="6"/>
+      <c r="U233" s="26"/>
+    </row>
+    <row r="234" spans="1:21">
+      <c r="A234" s="13"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="5"/>
+      <c r="M234" s="5"/>
+      <c r="N234" s="5"/>
+      <c r="O234" s="5"/>
+      <c r="P234" s="5"/>
+      <c r="Q234" s="5"/>
+      <c r="R234" s="5"/>
+      <c r="S234" s="6"/>
+      <c r="T234" s="6"/>
+      <c r="U234" s="26"/>
+    </row>
+    <row r="235" spans="1:21">
+      <c r="A235" s="13"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="5"/>
+      <c r="M235" s="5"/>
+      <c r="N235" s="5"/>
+      <c r="O235" s="5"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="S235" s="6"/>
+      <c r="T235" s="6"/>
+      <c r="U235" s="26"/>
+    </row>
+    <row r="236" spans="1:21">
+      <c r="A236" s="13"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="5"/>
+      <c r="M236" s="5"/>
+      <c r="N236" s="5"/>
+      <c r="O236" s="5"/>
+      <c r="P236" s="5"/>
+      <c r="Q236" s="5"/>
+      <c r="R236" s="5"/>
+      <c r="S236" s="6"/>
+      <c r="T236" s="6"/>
+      <c r="U236" s="26"/>
+    </row>
+    <row r="237" spans="1:21">
+      <c r="A237" s="13"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="5"/>
+      <c r="L237" s="5"/>
+      <c r="M237" s="5"/>
+      <c r="N237" s="5"/>
+      <c r="O237" s="5"/>
+      <c r="P237" s="5"/>
+      <c r="Q237" s="5"/>
+      <c r="R237" s="5"/>
+      <c r="S237" s="6"/>
+      <c r="T237" s="6"/>
+      <c r="U237" s="26"/>
+    </row>
+    <row r="238" spans="1:21">
+      <c r="A238" s="13"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="5"/>
+      <c r="L238" s="5"/>
+      <c r="M238" s="5"/>
+      <c r="N238" s="5"/>
+      <c r="O238" s="5"/>
+      <c r="P238" s="5"/>
+      <c r="Q238" s="5"/>
+      <c r="R238" s="5"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="6"/>
+      <c r="U238" s="26"/>
+    </row>
+    <row r="239" spans="1:21">
+      <c r="A239" s="13"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="5"/>
+      <c r="M239" s="5"/>
+      <c r="N239" s="5"/>
+      <c r="O239" s="5"/>
+      <c r="P239" s="5"/>
+      <c r="Q239" s="5"/>
+      <c r="R239" s="5"/>
+      <c r="S239" s="6"/>
+      <c r="T239" s="6"/>
+      <c r="U239" s="26"/>
+    </row>
+    <row r="240" spans="1:21">
+      <c r="A240" s="13"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="5"/>
+      <c r="L240" s="5"/>
+      <c r="M240" s="5"/>
+      <c r="N240" s="5"/>
+      <c r="O240" s="5"/>
+      <c r="P240" s="5"/>
+      <c r="Q240" s="5"/>
+      <c r="R240" s="5"/>
+      <c r="S240" s="6"/>
+      <c r="T240" s="6"/>
+      <c r="U240" s="26"/>
+    </row>
+    <row r="241" spans="1:21">
+      <c r="A241" s="13"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="5"/>
+      <c r="M241" s="5"/>
+      <c r="N241" s="5"/>
+      <c r="O241" s="5"/>
+      <c r="P241" s="5"/>
+      <c r="Q241" s="5"/>
+      <c r="R241" s="5"/>
+      <c r="S241" s="6"/>
+      <c r="T241" s="6"/>
+      <c r="U241" s="26"/>
+    </row>
+    <row r="242" spans="1:21">
+      <c r="A242" s="13"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="5"/>
+      <c r="L242" s="5"/>
+      <c r="M242" s="5"/>
+      <c r="N242" s="5"/>
+      <c r="O242" s="5"/>
+      <c r="P242" s="5"/>
+      <c r="Q242" s="5"/>
+      <c r="R242" s="5"/>
+      <c r="S242" s="6"/>
+      <c r="T242" s="6"/>
+      <c r="U242" s="26"/>
+    </row>
+    <row r="243" spans="1:21">
+      <c r="A243" s="13"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="5"/>
+      <c r="N243" s="5"/>
+      <c r="O243" s="5"/>
+      <c r="P243" s="5"/>
+      <c r="Q243" s="5"/>
+      <c r="R243" s="5"/>
+      <c r="S243" s="6"/>
+      <c r="T243" s="6"/>
+      <c r="U243" s="26"/>
+    </row>
+    <row r="244" spans="1:21">
+      <c r="A244" s="13"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
+      <c r="M244" s="5"/>
+      <c r="N244" s="5"/>
+      <c r="O244" s="5"/>
+      <c r="P244" s="5"/>
+      <c r="Q244" s="5"/>
+      <c r="R244" s="5"/>
+      <c r="S244" s="6"/>
+      <c r="T244" s="6"/>
+      <c r="U244" s="26"/>
+    </row>
+    <row r="245" spans="1:21">
+      <c r="A245" s="13"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="5"/>
+      <c r="M245" s="5"/>
+      <c r="N245" s="5"/>
+      <c r="O245" s="5"/>
+      <c r="P245" s="5"/>
+      <c r="Q245" s="5"/>
+      <c r="R245" s="5"/>
+      <c r="S245" s="6"/>
+      <c r="T245" s="6"/>
+      <c r="U245" s="26"/>
+    </row>
+    <row r="246" spans="1:21">
+      <c r="A246" s="13"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="5"/>
+      <c r="M246" s="5"/>
+      <c r="N246" s="5"/>
+      <c r="O246" s="5"/>
+      <c r="P246" s="5"/>
+      <c r="Q246" s="5"/>
+      <c r="R246" s="5"/>
+      <c r="S246" s="6"/>
+      <c r="T246" s="6"/>
+      <c r="U246" s="26"/>
+    </row>
+    <row r="247" spans="1:21">
+      <c r="A247" s="13"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="9"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
+      <c r="H247" s="9"/>
+      <c r="I247" s="9"/>
+      <c r="J247" s="9"/>
+      <c r="K247" s="9"/>
+      <c r="L247" s="9"/>
+      <c r="M247" s="9"/>
+      <c r="N247" s="9"/>
+      <c r="O247" s="9"/>
+      <c r="P247" s="9"/>
+      <c r="Q247" s="9"/>
+      <c r="R247" s="9"/>
+      <c r="S247" s="10"/>
+      <c r="T247" s="6"/>
+      <c r="U247" s="26"/>
+    </row>
+    <row r="248" spans="1:21">
+      <c r="A248" s="13"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="5"/>
+      <c r="M248" s="5"/>
+      <c r="N248" s="5"/>
+      <c r="O248" s="5"/>
+      <c r="P248" s="5"/>
+      <c r="Q248" s="5"/>
+      <c r="R248" s="5"/>
+      <c r="S248" s="5"/>
+      <c r="T248" s="6"/>
+      <c r="U248" s="26"/>
+    </row>
+    <row r="249" spans="1:21">
+      <c r="A249" s="13"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5"/>
+      <c r="K249" s="5"/>
+      <c r="L249" s="5"/>
+      <c r="M249" s="5"/>
+      <c r="N249" s="5"/>
+      <c r="O249" s="5"/>
+      <c r="P249" s="5"/>
+      <c r="Q249" s="5"/>
+      <c r="R249" s="5"/>
+      <c r="S249" s="5"/>
+      <c r="T249" s="6"/>
+      <c r="U249" s="26"/>
+    </row>
+    <row r="250" spans="1:21">
+      <c r="A250" s="13"/>
+      <c r="B250" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="2"/>
+      <c r="M250" s="2"/>
+      <c r="N250" s="2"/>
+      <c r="O250" s="2"/>
+      <c r="P250" s="2"/>
+      <c r="Q250" s="2"/>
+      <c r="R250" s="3"/>
+      <c r="S250" s="5"/>
+      <c r="T250" s="6"/>
+      <c r="U250" s="26"/>
+    </row>
+    <row r="251" spans="1:21">
+      <c r="A251" s="13"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="5"/>
+      <c r="L251" s="5"/>
+      <c r="M251" s="5"/>
+      <c r="N251" s="5"/>
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
+      <c r="R251" s="6"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="6"/>
+      <c r="U251" s="26"/>
+    </row>
+    <row r="252" spans="1:21">
+      <c r="A252" s="13"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
+      <c r="I252" s="5"/>
+      <c r="J252" s="5"/>
+      <c r="K252" s="5"/>
+      <c r="L252" s="5"/>
+      <c r="M252" s="5"/>
+      <c r="N252" s="5"/>
+      <c r="O252" s="5"/>
+      <c r="P252" s="5"/>
+      <c r="Q252" s="5"/>
+      <c r="R252" s="6"/>
+      <c r="S252" s="5"/>
+      <c r="T252" s="6"/>
+      <c r="U252" s="26"/>
+    </row>
+    <row r="253" spans="1:21">
+      <c r="A253" s="13"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5"/>
+      <c r="K253" s="5"/>
+      <c r="L253" s="5"/>
+      <c r="M253" s="5"/>
+      <c r="N253" s="5"/>
+      <c r="O253" s="5"/>
+      <c r="P253" s="5"/>
+      <c r="Q253" s="5"/>
+      <c r="R253" s="6"/>
+      <c r="S253" s="5"/>
+      <c r="T253" s="6"/>
+      <c r="U253" s="26"/>
+    </row>
+    <row r="254" spans="1:21">
+      <c r="A254" s="13"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+      <c r="I254" s="5"/>
+      <c r="J254" s="5"/>
+      <c r="K254" s="5"/>
+      <c r="L254" s="5"/>
+      <c r="M254" s="5"/>
+      <c r="N254" s="5"/>
+      <c r="O254" s="5"/>
+      <c r="P254" s="5"/>
+      <c r="Q254" s="5"/>
+      <c r="R254" s="6"/>
+      <c r="S254" s="5"/>
+      <c r="T254" s="6"/>
+      <c r="U254" s="26"/>
+    </row>
+    <row r="255" spans="1:21">
+      <c r="A255" s="13"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="5"/>
+      <c r="M255" s="5"/>
+      <c r="N255" s="5"/>
+      <c r="O255" s="5"/>
+      <c r="P255" s="5"/>
+      <c r="Q255" s="5"/>
+      <c r="R255" s="6"/>
+      <c r="S255" s="5"/>
+      <c r="T255" s="6"/>
+      <c r="U255" s="26"/>
+    </row>
+    <row r="256" spans="1:21">
+      <c r="A256" s="13"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5"/>
+      <c r="K256" s="5"/>
+      <c r="L256" s="5"/>
+      <c r="M256" s="5"/>
+      <c r="N256" s="5"/>
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
+      <c r="R256" s="6"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="6"/>
+      <c r="U256" s="26"/>
+    </row>
+    <row r="257" spans="1:21">
+      <c r="A257" s="13"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5"/>
+      <c r="L257" s="5"/>
+      <c r="M257" s="5"/>
+      <c r="N257" s="5"/>
+      <c r="O257" s="5"/>
+      <c r="P257" s="5"/>
+      <c r="Q257" s="5"/>
+      <c r="R257" s="6"/>
+      <c r="S257" s="5"/>
+      <c r="T257" s="6"/>
+      <c r="U257" s="26"/>
+    </row>
+    <row r="258" spans="1:21">
+      <c r="A258" s="13"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+      <c r="M258" s="5"/>
+      <c r="N258" s="5"/>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="6"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="6"/>
+      <c r="U258" s="26"/>
+    </row>
+    <row r="259" spans="1:21">
+      <c r="A259" s="13"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="5"/>
+      <c r="N259" s="5"/>
+      <c r="O259" s="5"/>
+      <c r="P259" s="5"/>
+      <c r="Q259" s="5"/>
+      <c r="R259" s="6"/>
+      <c r="S259" s="5"/>
+      <c r="T259" s="6"/>
+      <c r="U259" s="26"/>
+    </row>
+    <row r="260" spans="1:21">
+      <c r="A260" s="13"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5"/>
+      <c r="K260" s="5"/>
+      <c r="L260" s="5"/>
+      <c r="M260" s="5"/>
+      <c r="N260" s="5"/>
+      <c r="O260" s="5"/>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
+      <c r="R260" s="6"/>
+      <c r="S260" s="5"/>
+      <c r="T260" s="6"/>
+      <c r="U260" s="26"/>
+    </row>
+    <row r="261" spans="1:21">
+      <c r="A261" s="13"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5"/>
+      <c r="M261" s="5"/>
+      <c r="N261" s="5"/>
+      <c r="O261" s="5"/>
+      <c r="P261" s="5"/>
+      <c r="Q261" s="5"/>
+      <c r="R261" s="6"/>
+      <c r="S261" s="5"/>
+      <c r="T261" s="6"/>
+      <c r="U261" s="26"/>
+    </row>
+    <row r="262" spans="1:21">
+      <c r="A262" s="13"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="5"/>
+      <c r="M262" s="5"/>
+      <c r="N262" s="5"/>
+      <c r="O262" s="5"/>
+      <c r="P262" s="5"/>
+      <c r="Q262" s="5"/>
+      <c r="R262" s="6"/>
+      <c r="S262" s="5"/>
+      <c r="T262" s="6"/>
+      <c r="U262" s="26"/>
+    </row>
+    <row r="263" spans="1:21">
+      <c r="A263" s="13"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+      <c r="M263" s="5"/>
+      <c r="N263" s="5"/>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+      <c r="R263" s="6"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="6"/>
+      <c r="U263" s="26"/>
+    </row>
+    <row r="264" spans="1:21">
+      <c r="A264" s="13"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="5"/>
+      <c r="M264" s="5"/>
+      <c r="N264" s="5"/>
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
+      <c r="R264" s="6"/>
+      <c r="S264" s="5"/>
+      <c r="T264" s="6"/>
+      <c r="U264" s="26"/>
+    </row>
+    <row r="265" spans="1:21">
+      <c r="A265" s="13"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="5"/>
+      <c r="K265" s="5"/>
+      <c r="L265" s="5"/>
+      <c r="M265" s="5"/>
+      <c r="N265" s="5"/>
+      <c r="O265" s="5"/>
+      <c r="P265" s="5"/>
+      <c r="Q265" s="5"/>
+      <c r="R265" s="6"/>
+      <c r="S265" s="5"/>
+      <c r="T265" s="6"/>
+      <c r="U265" s="26"/>
+    </row>
+    <row r="266" spans="1:21">
+      <c r="A266" s="13"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5"/>
+      <c r="K266" s="5"/>
+      <c r="L266" s="5"/>
+      <c r="M266" s="5"/>
+      <c r="N266" s="5"/>
+      <c r="O266" s="5"/>
+      <c r="P266" s="5"/>
+      <c r="Q266" s="5"/>
+      <c r="R266" s="6"/>
+      <c r="S266" s="5"/>
+      <c r="T266" s="6"/>
+      <c r="U266" s="26"/>
+    </row>
+    <row r="267" spans="1:21">
+      <c r="A267" s="13"/>
+      <c r="B267" s="7"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="5"/>
+      <c r="K267" s="5"/>
+      <c r="L267" s="5"/>
+      <c r="M267" s="5"/>
+      <c r="N267" s="5"/>
+      <c r="O267" s="5"/>
+      <c r="P267" s="5"/>
+      <c r="Q267" s="5"/>
+      <c r="R267" s="6"/>
+      <c r="S267" s="5"/>
+      <c r="T267" s="6"/>
+      <c r="U267" s="26"/>
+    </row>
+    <row r="268" spans="1:21">
+      <c r="A268" s="13"/>
+      <c r="B268" s="7"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5"/>
+      <c r="K268" s="5"/>
+      <c r="L268" s="5"/>
+      <c r="M268" s="5"/>
+      <c r="N268" s="5"/>
+      <c r="O268" s="5"/>
+      <c r="P268" s="5"/>
+      <c r="Q268" s="5"/>
+      <c r="R268" s="6"/>
+      <c r="S268" s="5"/>
+      <c r="T268" s="6"/>
+      <c r="U268" s="26"/>
+    </row>
+    <row r="269" spans="1:21">
+      <c r="A269" s="13"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="5"/>
+      <c r="J269" s="5"/>
+      <c r="K269" s="5"/>
+      <c r="L269" s="5"/>
+      <c r="M269" s="5"/>
+      <c r="N269" s="5"/>
+      <c r="O269" s="5"/>
+      <c r="P269" s="5"/>
+      <c r="Q269" s="5"/>
+      <c r="R269" s="6"/>
+      <c r="S269" s="5"/>
+      <c r="T269" s="6"/>
+      <c r="U269" s="26"/>
+    </row>
+    <row r="270" spans="1:21">
+      <c r="A270" s="13"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5"/>
+      <c r="K270" s="5"/>
+      <c r="L270" s="5"/>
+      <c r="M270" s="5"/>
+      <c r="N270" s="5"/>
+      <c r="O270" s="5"/>
+      <c r="P270" s="5"/>
+      <c r="Q270" s="5"/>
+      <c r="R270" s="6"/>
+      <c r="S270" s="5"/>
+      <c r="T270" s="6"/>
+      <c r="U270" s="26"/>
+    </row>
+    <row r="271" spans="1:21">
+      <c r="A271" s="13"/>
+      <c r="B271" s="7"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="5"/>
+      <c r="M271" s="5"/>
+      <c r="N271" s="5"/>
+      <c r="O271" s="5"/>
+      <c r="P271" s="5"/>
+      <c r="Q271" s="5"/>
+      <c r="R271" s="6"/>
+      <c r="S271" s="5"/>
+      <c r="T271" s="6"/>
+      <c r="U271" s="26"/>
+    </row>
+    <row r="272" spans="1:21">
+      <c r="A272" s="13"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="5"/>
+      <c r="K272" s="5"/>
+      <c r="L272" s="5"/>
+      <c r="M272" s="5"/>
+      <c r="N272" s="5"/>
+      <c r="O272" s="5"/>
+      <c r="P272" s="5"/>
+      <c r="Q272" s="5"/>
+      <c r="R272" s="6"/>
+      <c r="S272" s="5"/>
+      <c r="T272" s="6"/>
+      <c r="U272" s="26"/>
+    </row>
+    <row r="273" spans="1:21">
+      <c r="A273" s="13"/>
+      <c r="B273" s="7"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="5"/>
+      <c r="J273" s="5"/>
+      <c r="K273" s="5"/>
+      <c r="L273" s="5"/>
+      <c r="M273" s="5"/>
+      <c r="N273" s="5"/>
+      <c r="O273" s="5"/>
+      <c r="P273" s="5"/>
+      <c r="Q273" s="5"/>
+      <c r="R273" s="6"/>
+      <c r="S273" s="5"/>
+      <c r="T273" s="6"/>
+      <c r="U273" s="26"/>
+    </row>
+    <row r="274" spans="1:21">
+      <c r="A274" s="13"/>
+      <c r="B274" s="7"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5"/>
+      <c r="K274" s="5"/>
+      <c r="L274" s="5"/>
+      <c r="M274" s="5"/>
+      <c r="N274" s="5"/>
+      <c r="O274" s="5"/>
+      <c r="P274" s="5"/>
+      <c r="Q274" s="5"/>
+      <c r="R274" s="6"/>
+      <c r="S274" s="5"/>
+      <c r="T274" s="6"/>
+      <c r="U274" s="26"/>
+    </row>
+    <row r="275" spans="1:21">
+      <c r="A275" s="13"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="9"/>
+      <c r="H275" s="9"/>
+      <c r="I275" s="9"/>
+      <c r="J275" s="9"/>
+      <c r="K275" s="9"/>
+      <c r="L275" s="9"/>
+      <c r="M275" s="9"/>
+      <c r="N275" s="9"/>
+      <c r="O275" s="9"/>
+      <c r="P275" s="9"/>
+      <c r="Q275" s="9"/>
+      <c r="R275" s="10"/>
+      <c r="S275" s="5"/>
+      <c r="T275" s="6"/>
+      <c r="U275" s="26"/>
+    </row>
+    <row r="276" spans="1:21">
+      <c r="A276" s="40"/>
+      <c r="B276" s="9"/>
+      <c r="C276" s="9"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="9"/>
+      <c r="I276" s="9"/>
+      <c r="J276" s="9"/>
+      <c r="K276" s="9"/>
+      <c r="L276" s="9"/>
+      <c r="M276" s="9"/>
+      <c r="N276" s="9"/>
+      <c r="O276" s="9"/>
+      <c r="P276" s="9"/>
+      <c r="Q276" s="9"/>
+      <c r="R276" s="9"/>
+      <c r="S276" s="9"/>
+      <c r="T276" s="10"/>
+      <c r="U276" s="26"/>
+    </row>
+    <row r="277" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A277" s="27"/>
+      <c r="B277" s="28"/>
+      <c r="C277" s="28"/>
+      <c r="D277" s="28"/>
+      <c r="E277" s="28"/>
+      <c r="F277" s="28"/>
+      <c r="G277" s="28"/>
+      <c r="H277" s="28"/>
+      <c r="I277" s="28"/>
+      <c r="J277" s="28"/>
+      <c r="K277" s="28"/>
+      <c r="L277" s="28"/>
+      <c r="M277" s="28"/>
+      <c r="N277" s="28"/>
+      <c r="O277" s="28"/>
+      <c r="P277" s="28"/>
+      <c r="Q277" s="28"/>
+      <c r="R277" s="28"/>
+      <c r="S277" s="28"/>
+      <c r="T277" s="28"/>
+      <c r="U277" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.create-a-restful-api/6.authentication-using-json-web-tokens.xlsx
+++ b/me/4.create-a-restful-api/6.authentication-using-json-web-tokens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rest-api-php\me\4.create-a-restful-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51B1B8B-A82D-4041-BB97-C547587A2756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5954510E-2787-461D-A139-7C7073B8FCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction jwt" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="decode payload from the JWT" sheetId="4" r:id="rId4"/>
     <sheet name="use secret key as dependency" sheetId="5" r:id="rId5"/>
     <sheet name="Authenticate the task endpoints" sheetId="6" r:id="rId6"/>
+    <sheet name="custom exception class - 401" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="279">
   <si>
     <t>An introduction to JSON web tokens (JWTs)</t>
   </si>
@@ -2062,6 +2063,61 @@
   <si>
     <t>Cố tình truyền vào giá trị jwt sai bằng cách thêm vài ký tự "XXX" đằng sau, có nghĩa là signature đã bị thay đổi rồi gọi lại api /posts</t>
   </si>
+  <si>
+    <t>Use a custom exception class to return 401 if the signature is invalid</t>
+  </si>
+  <si>
+    <t>Trong trường hợp mình gửi request với token đúng format jwt nhưng signature ko đúng thì nên trả về status 401Unauthorized</t>
+  </si>
+  <si>
+    <t>InvalidSignatureException.php</t>
+  </si>
+  <si>
+    <t>rest-api-php\4.create-a-restful-api\src\InvalidSignatureException.php</t>
+  </si>
+  <si>
+    <t>class InvalidSignatureException extends Exception</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            throw new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InvalidSignature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exception("invalid signature");</t>
+    </r>
+  </si>
+  <si>
+    <t>    public function __construct(UserGateway $user_gateway, JWTCodec $codec)</t>
+  </si>
+  <si>
+    <t>        } catch (InvalidSignatureException $e) {</t>
+  </si>
+  <si>
+    <t>            echo json_encode(["message" =&gt; $e-&gt;getMessage()]);</t>
+  </si>
+  <si>
+    <t>        $this-&gt;user_id = $data["sub"];</t>
+  </si>
+  <si>
+    <t>Class này được kế thừa từ Exception nên mọi, chỉ cần dùng đến các phương thức trong Exception và ko cần gì thêm</t>
+  </si>
 </sst>
 </file>
 
@@ -2334,7 +2390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2377,6 +2433,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6805,6 +6868,796 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE8233C-855C-6B56-659F-8BC6BF132684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="9477375"/>
+          <a:ext cx="685800" cy="11553825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729A0C98-2D65-DFD4-FF02-4415AFAC5345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1400175" y="20383500"/>
+          <a:ext cx="342900" cy="16049625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>322527</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>85537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71117FC3-FCA8-4F78-8037-7D9B377B0955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="41833800"/>
+          <a:ext cx="10580952" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A0FB2B-DA3A-4A4A-843F-A087950B5766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="41690925"/>
+          <a:ext cx="6743700" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>465549</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>9121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093CCAAD-6637-379F-E6A2-15A7805C7687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="42310050"/>
+          <a:ext cx="9409524" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF68F8C5-E71B-9346-F9C9-F0BBD4B4B878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="36718875"/>
+          <a:ext cx="4314825" cy="7562850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E153D44C-54F8-2654-9D89-62BB1B6FDAE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3305175" y="20345400"/>
+          <a:ext cx="85725" cy="16497300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F02ED59-B418-AEA7-23A8-6FB427755E51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2381250" y="36947475"/>
+          <a:ext cx="952500" cy="8124825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>569979</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>61477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F63A950-CCC7-49DF-9461-1530FE000C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="755276" y="47791407"/>
+          <a:ext cx="7739503" cy="1238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644A0F77-EE4A-4869-A247-9AB756FC518A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="47600907"/>
+          <a:ext cx="217394" cy="885265"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>551263</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>116700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FE8DE5-E596-4CF0-A01F-F0E660DCDB2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="732865" y="49113701"/>
+          <a:ext cx="9571998" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408395</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>113861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF906E1-1E2A-4486-AE3C-EF2EDFF6DBF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="29756100"/>
+          <a:ext cx="9438095" cy="3514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>379674</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>66513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F42107-7889-4CA1-9751-2579E8FA9611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="34023300"/>
+          <a:ext cx="10609524" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>332202</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB385B7-6438-4CCD-A8EF-4E9AF1AFB5E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="35490150"/>
+          <a:ext cx="9380952" cy="5076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72E8D88-1D5C-43F6-9B14-56DA3FFEF05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1952625" y="31232475"/>
+          <a:ext cx="3124200" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175A23B2-13FB-471B-8AE1-34B2DEB40DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="32899350"/>
+          <a:ext cx="2143125" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18733,8 +19586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA4BA49-D34B-4B6B-A6E4-9D7B28D9134C}">
   <dimension ref="A2:T340"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="A315" sqref="A315"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285:C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24140,7 +24993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F919ACA-908A-4643-A7D8-BA9996B0FA16}">
   <dimension ref="A2:T237"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
+    <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
@@ -26990,8 +27843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79718D85-0588-4625-9EAB-F83695B84134}">
   <dimension ref="A2:AO277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N149" sqref="N149"/>
+    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156:S214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27339,6 +28192,9 @@
       <c r="I28" s="15"/>
       <c r="J28" s="35"/>
       <c r="K28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" t="s">
         <v>113</v>
       </c>
     </row>
@@ -32656,4 +33512,5091 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A12517A-8616-429D-B6D3-70E61D932E19}">
+  <dimension ref="A2:T329"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="N206" sqref="N206"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13"/>
+      <c r="B7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="13"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="13"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="13"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="13"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="13"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="13"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="13"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="13"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="13"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="13"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="13"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="13"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="13"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="13"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="13"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="13"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="35"/>
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="13"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="13"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="13"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="35"/>
+      <c r="K32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="13"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="35"/>
+      <c r="K33" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="13"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="13"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="13"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="13"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="13"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="13"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="13"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="B44" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" s="18"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="B57" s="7"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="B59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="B60" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="B61" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" s="7"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="7"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="7"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="7"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="7"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="7"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="7"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="7"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="7"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="2:9">
+      <c r="B106" s="7"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="2:9">
+      <c r="B108" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="7"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="7"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="7"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="7"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="B127" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="B128" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="B129" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="B130" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="B131" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="B132" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="B133" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="B134" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="10"/>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="B138" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="3"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="B139" s="7"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="B140" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="B141" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="B142" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="B143" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="B144" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="6"/>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="7"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="6"/>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="6"/>
+    </row>
+    <row r="150" spans="2:10">
+      <c r="B150" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="6"/>
+    </row>
+    <row r="151" spans="2:10">
+      <c r="B151" s="7"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="6"/>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="6"/>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="6"/>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="6"/>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="7"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="6"/>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="6"/>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="6"/>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="6"/>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="6"/>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="7"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="6"/>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="6"/>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="B162" s="7"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="6"/>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="B163" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="6"/>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="7"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165" spans="2:10">
+      <c r="B165" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="6"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="B166" s="7"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="6"/>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="B167" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="6"/>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="B168" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="6"/>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="B169" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="6"/>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="B170" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="6"/>
+    </row>
+    <row r="171" spans="2:10">
+      <c r="B171" s="7"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="6"/>
+    </row>
+    <row r="172" spans="2:10">
+      <c r="B172" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="6"/>
+    </row>
+    <row r="173" spans="2:10">
+      <c r="B173" s="7"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="6"/>
+    </row>
+    <row r="174" spans="2:10">
+      <c r="B174" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="6"/>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="B175" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="6"/>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176" s="7"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="6"/>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="B177" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="6"/>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="6"/>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="B179" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="6"/>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="B180" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="6"/>
+    </row>
+    <row r="181" spans="2:10">
+      <c r="B181" s="7"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="6"/>
+    </row>
+    <row r="182" spans="2:10">
+      <c r="B182" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="6"/>
+    </row>
+    <row r="183" spans="2:10">
+      <c r="B183" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="6"/>
+    </row>
+    <row r="184" spans="2:10">
+      <c r="B184" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="6"/>
+    </row>
+    <row r="185" spans="2:10">
+      <c r="B185" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="6"/>
+    </row>
+    <row r="186" spans="2:10">
+      <c r="B186" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="6"/>
+    </row>
+    <row r="187" spans="2:10">
+      <c r="B187" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="6"/>
+    </row>
+    <row r="188" spans="2:10">
+      <c r="B188" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="6"/>
+    </row>
+    <row r="189" spans="2:10">
+      <c r="B189" s="7"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="6"/>
+    </row>
+    <row r="190" spans="2:10">
+      <c r="B190" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="6"/>
+    </row>
+    <row r="191" spans="2:10">
+      <c r="B191" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="6"/>
+    </row>
+    <row r="192" spans="2:10">
+      <c r="B192" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="6"/>
+    </row>
+    <row r="193" spans="2:10">
+      <c r="B193" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="6"/>
+    </row>
+    <row r="194" spans="2:10">
+      <c r="B194" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="6"/>
+    </row>
+    <row r="195" spans="2:10">
+      <c r="B195" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="6"/>
+    </row>
+    <row r="196" spans="2:10">
+      <c r="B196" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="6"/>
+    </row>
+    <row r="197" spans="2:10">
+      <c r="B197" s="7"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="6"/>
+    </row>
+    <row r="198" spans="2:10">
+      <c r="B198" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="6"/>
+    </row>
+    <row r="199" spans="2:10">
+      <c r="B199" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="6"/>
+    </row>
+    <row r="200" spans="2:10">
+      <c r="B200" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="6"/>
+    </row>
+    <row r="201" spans="2:10">
+      <c r="B201" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="6"/>
+    </row>
+    <row r="202" spans="2:10">
+      <c r="B202" s="7"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="6"/>
+    </row>
+    <row r="203" spans="2:10">
+      <c r="B203" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="6"/>
+    </row>
+    <row r="204" spans="2:10">
+      <c r="B204" s="7"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="6"/>
+    </row>
+    <row r="205" spans="2:10">
+      <c r="B205" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="6"/>
+    </row>
+    <row r="206" spans="2:10">
+      <c r="B206" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="6"/>
+    </row>
+    <row r="207" spans="2:10">
+      <c r="B207" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="10"/>
+    </row>
+    <row r="209" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="210" spans="1:20">
+      <c r="A210" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B210" s="24"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="24"/>
+      <c r="E210" s="24"/>
+      <c r="F210" s="24"/>
+      <c r="G210" s="24"/>
+      <c r="H210" s="24"/>
+      <c r="I210" s="24"/>
+      <c r="J210" s="24"/>
+      <c r="K210" s="24"/>
+      <c r="L210" s="24"/>
+      <c r="M210" s="24"/>
+      <c r="N210" s="24"/>
+      <c r="O210" s="24"/>
+      <c r="P210" s="24"/>
+      <c r="Q210" s="24"/>
+      <c r="R210" s="24"/>
+      <c r="S210" s="24"/>
+      <c r="T210" s="25"/>
+    </row>
+    <row r="211" spans="1:20">
+      <c r="A211" s="13"/>
+      <c r="B211" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="3"/>
+      <c r="T211" s="26"/>
+    </row>
+    <row r="212" spans="1:20">
+      <c r="A212" s="13"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="5"/>
+      <c r="O212" s="5"/>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
+      <c r="R212" s="5"/>
+      <c r="S212" s="6"/>
+      <c r="T212" s="26"/>
+    </row>
+    <row r="213" spans="1:20">
+      <c r="A213" s="13"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+      <c r="S213" s="6"/>
+      <c r="T213" s="26"/>
+    </row>
+    <row r="214" spans="1:20">
+      <c r="A214" s="13"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="5"/>
+      <c r="M214" s="5"/>
+      <c r="N214" s="5"/>
+      <c r="O214" s="5"/>
+      <c r="P214" s="5"/>
+      <c r="Q214" s="5"/>
+      <c r="R214" s="5"/>
+      <c r="S214" s="6"/>
+      <c r="T214" s="26"/>
+    </row>
+    <row r="215" spans="1:20">
+      <c r="A215" s="13"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="5"/>
+      <c r="M215" s="5"/>
+      <c r="N215" s="5"/>
+      <c r="O215" s="5"/>
+      <c r="P215" s="5"/>
+      <c r="Q215" s="5"/>
+      <c r="R215" s="5"/>
+      <c r="S215" s="6"/>
+      <c r="T215" s="26"/>
+    </row>
+    <row r="216" spans="1:20">
+      <c r="A216" s="13"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="5"/>
+      <c r="M216" s="5"/>
+      <c r="N216" s="5"/>
+      <c r="O216" s="5"/>
+      <c r="P216" s="5"/>
+      <c r="Q216" s="5"/>
+      <c r="R216" s="5"/>
+      <c r="S216" s="6"/>
+      <c r="T216" s="26"/>
+    </row>
+    <row r="217" spans="1:20">
+      <c r="A217" s="13"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="5"/>
+      <c r="M217" s="5"/>
+      <c r="N217" s="5"/>
+      <c r="O217" s="5"/>
+      <c r="P217" s="5"/>
+      <c r="Q217" s="5"/>
+      <c r="R217" s="5"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="26"/>
+    </row>
+    <row r="218" spans="1:20">
+      <c r="A218" s="13"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="5"/>
+      <c r="M218" s="5"/>
+      <c r="N218" s="5"/>
+      <c r="O218" s="5"/>
+      <c r="P218" s="5"/>
+      <c r="Q218" s="5"/>
+      <c r="R218" s="5"/>
+      <c r="S218" s="6"/>
+      <c r="T218" s="26"/>
+    </row>
+    <row r="219" spans="1:20">
+      <c r="A219" s="13"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5"/>
+      <c r="M219" s="5"/>
+      <c r="N219" s="5"/>
+      <c r="O219" s="5"/>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="5"/>
+      <c r="S219" s="6"/>
+      <c r="T219" s="26"/>
+    </row>
+    <row r="220" spans="1:20">
+      <c r="A220" s="13"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="5"/>
+      <c r="M220" s="5"/>
+      <c r="N220" s="5"/>
+      <c r="O220" s="5"/>
+      <c r="P220" s="5"/>
+      <c r="Q220" s="5"/>
+      <c r="R220" s="5"/>
+      <c r="S220" s="6"/>
+      <c r="T220" s="26"/>
+    </row>
+    <row r="221" spans="1:20">
+      <c r="A221" s="13"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="5"/>
+      <c r="N221" s="5"/>
+      <c r="O221" s="5"/>
+      <c r="P221" s="5"/>
+      <c r="Q221" s="5"/>
+      <c r="R221" s="5"/>
+      <c r="S221" s="6"/>
+      <c r="T221" s="26"/>
+    </row>
+    <row r="222" spans="1:20">
+      <c r="A222" s="13"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="5"/>
+      <c r="M222" s="5"/>
+      <c r="N222" s="5"/>
+      <c r="O222" s="5"/>
+      <c r="P222" s="5"/>
+      <c r="Q222" s="5"/>
+      <c r="R222" s="5"/>
+      <c r="S222" s="6"/>
+      <c r="T222" s="26"/>
+    </row>
+    <row r="223" spans="1:20">
+      <c r="A223" s="13"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="5"/>
+      <c r="M223" s="5"/>
+      <c r="N223" s="5"/>
+      <c r="O223" s="5"/>
+      <c r="P223" s="5"/>
+      <c r="Q223" s="5"/>
+      <c r="R223" s="5"/>
+      <c r="S223" s="6"/>
+      <c r="T223" s="26"/>
+    </row>
+    <row r="224" spans="1:20">
+      <c r="A224" s="13"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="5"/>
+      <c r="M224" s="5"/>
+      <c r="N224" s="5"/>
+      <c r="O224" s="5"/>
+      <c r="P224" s="5"/>
+      <c r="Q224" s="5"/>
+      <c r="R224" s="5"/>
+      <c r="S224" s="6"/>
+      <c r="T224" s="26"/>
+    </row>
+    <row r="225" spans="1:20">
+      <c r="A225" s="13"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="5"/>
+      <c r="M225" s="5"/>
+      <c r="N225" s="5"/>
+      <c r="O225" s="5"/>
+      <c r="P225" s="5"/>
+      <c r="Q225" s="5"/>
+      <c r="R225" s="5"/>
+      <c r="S225" s="6"/>
+      <c r="T225" s="26"/>
+    </row>
+    <row r="226" spans="1:20">
+      <c r="A226" s="13"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="5"/>
+      <c r="M226" s="5"/>
+      <c r="N226" s="5"/>
+      <c r="O226" s="5"/>
+      <c r="P226" s="5"/>
+      <c r="Q226" s="5"/>
+      <c r="R226" s="5"/>
+      <c r="S226" s="6"/>
+      <c r="T226" s="26"/>
+    </row>
+    <row r="227" spans="1:20">
+      <c r="A227" s="13"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="5"/>
+      <c r="M227" s="5"/>
+      <c r="N227" s="5"/>
+      <c r="O227" s="5"/>
+      <c r="P227" s="5"/>
+      <c r="Q227" s="5"/>
+      <c r="R227" s="5"/>
+      <c r="S227" s="6"/>
+      <c r="T227" s="26"/>
+    </row>
+    <row r="228" spans="1:20">
+      <c r="A228" s="13"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="5"/>
+      <c r="L228" s="5"/>
+      <c r="M228" s="5"/>
+      <c r="N228" s="5"/>
+      <c r="O228" s="5"/>
+      <c r="P228" s="5"/>
+      <c r="Q228" s="5"/>
+      <c r="R228" s="5"/>
+      <c r="S228" s="6"/>
+      <c r="T228" s="26"/>
+    </row>
+    <row r="229" spans="1:20">
+      <c r="A229" s="13"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="5"/>
+      <c r="L229" s="5"/>
+      <c r="M229" s="5"/>
+      <c r="N229" s="5"/>
+      <c r="O229" s="5"/>
+      <c r="P229" s="5"/>
+      <c r="Q229" s="5"/>
+      <c r="R229" s="5"/>
+      <c r="S229" s="6"/>
+      <c r="T229" s="26"/>
+    </row>
+    <row r="230" spans="1:20">
+      <c r="A230" s="13"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="5"/>
+      <c r="M230" s="5"/>
+      <c r="N230" s="5"/>
+      <c r="O230" s="5"/>
+      <c r="P230" s="5"/>
+      <c r="Q230" s="5"/>
+      <c r="R230" s="5"/>
+      <c r="S230" s="6"/>
+      <c r="T230" s="26"/>
+    </row>
+    <row r="231" spans="1:20">
+      <c r="A231" s="13"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="5"/>
+      <c r="M231" s="5"/>
+      <c r="N231" s="5"/>
+      <c r="O231" s="5"/>
+      <c r="P231" s="5"/>
+      <c r="Q231" s="5"/>
+      <c r="R231" s="5"/>
+      <c r="S231" s="6"/>
+      <c r="T231" s="26"/>
+    </row>
+    <row r="232" spans="1:20">
+      <c r="A232" s="13"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="5"/>
+      <c r="M232" s="5"/>
+      <c r="N232" s="5"/>
+      <c r="O232" s="5"/>
+      <c r="P232" s="5"/>
+      <c r="Q232" s="5"/>
+      <c r="R232" s="5"/>
+      <c r="S232" s="6"/>
+      <c r="T232" s="26"/>
+    </row>
+    <row r="233" spans="1:20">
+      <c r="A233" s="13"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="5"/>
+      <c r="L233" s="5"/>
+      <c r="M233" s="5"/>
+      <c r="N233" s="5"/>
+      <c r="O233" s="5"/>
+      <c r="P233" s="5"/>
+      <c r="Q233" s="5"/>
+      <c r="R233" s="5"/>
+      <c r="S233" s="6"/>
+      <c r="T233" s="26"/>
+    </row>
+    <row r="234" spans="1:20">
+      <c r="A234" s="13"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="5"/>
+      <c r="L234" s="5"/>
+      <c r="M234" s="5"/>
+      <c r="N234" s="5"/>
+      <c r="O234" s="5"/>
+      <c r="P234" s="5"/>
+      <c r="Q234" s="5"/>
+      <c r="R234" s="5"/>
+      <c r="S234" s="6"/>
+      <c r="T234" s="26"/>
+    </row>
+    <row r="235" spans="1:20">
+      <c r="A235" s="13"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="5"/>
+      <c r="M235" s="5"/>
+      <c r="N235" s="5"/>
+      <c r="O235" s="5"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="S235" s="6"/>
+      <c r="T235" s="26"/>
+    </row>
+    <row r="236" spans="1:20">
+      <c r="A236" s="13"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="5"/>
+      <c r="L236" s="5"/>
+      <c r="M236" s="5"/>
+      <c r="N236" s="5"/>
+      <c r="O236" s="5"/>
+      <c r="P236" s="5"/>
+      <c r="Q236" s="5"/>
+      <c r="R236" s="5"/>
+      <c r="S236" s="6"/>
+      <c r="T236" s="26"/>
+    </row>
+    <row r="237" spans="1:20">
+      <c r="A237" s="13"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="5"/>
+      <c r="L237" s="5"/>
+      <c r="M237" s="5"/>
+      <c r="N237" s="5"/>
+      <c r="O237" s="5"/>
+      <c r="P237" s="5"/>
+      <c r="Q237" s="5"/>
+      <c r="R237" s="5"/>
+      <c r="S237" s="6"/>
+      <c r="T237" s="26"/>
+    </row>
+    <row r="238" spans="1:20">
+      <c r="A238" s="13"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="5"/>
+      <c r="L238" s="5"/>
+      <c r="M238" s="5"/>
+      <c r="N238" s="5"/>
+      <c r="O238" s="5"/>
+      <c r="P238" s="5"/>
+      <c r="Q238" s="5"/>
+      <c r="R238" s="5"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="26"/>
+    </row>
+    <row r="239" spans="1:20">
+      <c r="A239" s="13"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="9"/>
+      <c r="I239" s="9"/>
+      <c r="J239" s="9"/>
+      <c r="K239" s="9"/>
+      <c r="L239" s="9"/>
+      <c r="M239" s="9"/>
+      <c r="N239" s="9"/>
+      <c r="O239" s="9"/>
+      <c r="P239" s="9"/>
+      <c r="Q239" s="9"/>
+      <c r="R239" s="9"/>
+      <c r="S239" s="10"/>
+      <c r="T239" s="26"/>
+    </row>
+    <row r="240" spans="1:20">
+      <c r="A240" s="13"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="5"/>
+      <c r="L240" s="5"/>
+      <c r="M240" s="5"/>
+      <c r="N240" s="5"/>
+      <c r="O240" s="5"/>
+      <c r="P240" s="5"/>
+      <c r="Q240" s="5"/>
+      <c r="R240" s="5"/>
+      <c r="S240" s="5"/>
+      <c r="T240" s="26"/>
+    </row>
+    <row r="241" spans="1:20">
+      <c r="A241" s="13"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="5"/>
+      <c r="M241" s="5"/>
+      <c r="N241" s="5"/>
+      <c r="O241" s="5"/>
+      <c r="P241" s="5"/>
+      <c r="Q241" s="5"/>
+      <c r="R241" s="5"/>
+      <c r="S241" s="5"/>
+      <c r="T241" s="26"/>
+    </row>
+    <row r="242" spans="1:20">
+      <c r="A242" s="13"/>
+      <c r="B242" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="2"/>
+      <c r="R242" s="3"/>
+      <c r="S242" s="5"/>
+      <c r="T242" s="26"/>
+    </row>
+    <row r="243" spans="1:20">
+      <c r="A243" s="13"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="5"/>
+      <c r="L243" s="5"/>
+      <c r="M243" s="5"/>
+      <c r="N243" s="5"/>
+      <c r="O243" s="5"/>
+      <c r="P243" s="5"/>
+      <c r="Q243" s="5"/>
+      <c r="R243" s="6"/>
+      <c r="S243" s="5"/>
+      <c r="T243" s="26"/>
+    </row>
+    <row r="244" spans="1:20">
+      <c r="A244" s="13"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="5"/>
+      <c r="L244" s="5"/>
+      <c r="M244" s="5"/>
+      <c r="N244" s="5"/>
+      <c r="O244" s="5"/>
+      <c r="P244" s="5"/>
+      <c r="Q244" s="5"/>
+      <c r="R244" s="6"/>
+      <c r="S244" s="5"/>
+      <c r="T244" s="26"/>
+    </row>
+    <row r="245" spans="1:20">
+      <c r="A245" s="13"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="5"/>
+      <c r="L245" s="5"/>
+      <c r="M245" s="5"/>
+      <c r="N245" s="5"/>
+      <c r="O245" s="5"/>
+      <c r="P245" s="5"/>
+      <c r="Q245" s="5"/>
+      <c r="R245" s="6"/>
+      <c r="S245" s="5"/>
+      <c r="T245" s="26"/>
+    </row>
+    <row r="246" spans="1:20">
+      <c r="A246" s="13"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5"/>
+      <c r="K246" s="5"/>
+      <c r="L246" s="5"/>
+      <c r="M246" s="5"/>
+      <c r="N246" s="5"/>
+      <c r="O246" s="5"/>
+      <c r="P246" s="5"/>
+      <c r="Q246" s="5"/>
+      <c r="R246" s="6"/>
+      <c r="S246" s="5"/>
+      <c r="T246" s="26"/>
+    </row>
+    <row r="247" spans="1:20">
+      <c r="A247" s="13"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="5"/>
+      <c r="K247" s="5"/>
+      <c r="L247" s="5"/>
+      <c r="M247" s="5"/>
+      <c r="N247" s="5"/>
+      <c r="O247" s="5"/>
+      <c r="P247" s="5"/>
+      <c r="Q247" s="5"/>
+      <c r="R247" s="6"/>
+      <c r="S247" s="5"/>
+      <c r="T247" s="26"/>
+    </row>
+    <row r="248" spans="1:20">
+      <c r="A248" s="13"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="5"/>
+      <c r="M248" s="5"/>
+      <c r="N248" s="5"/>
+      <c r="O248" s="5"/>
+      <c r="P248" s="5"/>
+      <c r="Q248" s="5"/>
+      <c r="R248" s="6"/>
+      <c r="S248" s="5"/>
+      <c r="T248" s="26"/>
+    </row>
+    <row r="249" spans="1:20">
+      <c r="A249" s="13"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5"/>
+      <c r="K249" s="5"/>
+      <c r="L249" s="5"/>
+      <c r="M249" s="5"/>
+      <c r="N249" s="5"/>
+      <c r="O249" s="5"/>
+      <c r="P249" s="5"/>
+      <c r="Q249" s="5"/>
+      <c r="R249" s="6"/>
+      <c r="S249" s="5"/>
+      <c r="T249" s="26"/>
+    </row>
+    <row r="250" spans="1:20">
+      <c r="A250" s="13"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5"/>
+      <c r="K250" s="5"/>
+      <c r="L250" s="5"/>
+      <c r="M250" s="5"/>
+      <c r="N250" s="5"/>
+      <c r="O250" s="5"/>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="5"/>
+      <c r="R250" s="6"/>
+      <c r="S250" s="5"/>
+      <c r="T250" s="26"/>
+    </row>
+    <row r="251" spans="1:20">
+      <c r="A251" s="13"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="5"/>
+      <c r="L251" s="5"/>
+      <c r="M251" s="5"/>
+      <c r="N251" s="5"/>
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
+      <c r="R251" s="6"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="26"/>
+    </row>
+    <row r="252" spans="1:20">
+      <c r="A252" s="13"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
+      <c r="I252" s="5"/>
+      <c r="J252" s="5"/>
+      <c r="K252" s="5"/>
+      <c r="L252" s="5"/>
+      <c r="M252" s="5"/>
+      <c r="N252" s="5"/>
+      <c r="O252" s="5"/>
+      <c r="P252" s="5"/>
+      <c r="Q252" s="5"/>
+      <c r="R252" s="6"/>
+      <c r="S252" s="5"/>
+      <c r="T252" s="26"/>
+    </row>
+    <row r="253" spans="1:20">
+      <c r="A253" s="13"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+      <c r="I253" s="5"/>
+      <c r="J253" s="5"/>
+      <c r="K253" s="5"/>
+      <c r="L253" s="5"/>
+      <c r="M253" s="5"/>
+      <c r="N253" s="5"/>
+      <c r="O253" s="5"/>
+      <c r="P253" s="5"/>
+      <c r="Q253" s="5"/>
+      <c r="R253" s="6"/>
+      <c r="S253" s="5"/>
+      <c r="T253" s="26"/>
+    </row>
+    <row r="254" spans="1:20">
+      <c r="A254" s="13"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+      <c r="I254" s="5"/>
+      <c r="J254" s="5"/>
+      <c r="K254" s="5"/>
+      <c r="L254" s="5"/>
+      <c r="M254" s="5"/>
+      <c r="N254" s="5"/>
+      <c r="O254" s="5"/>
+      <c r="P254" s="5"/>
+      <c r="Q254" s="5"/>
+      <c r="R254" s="6"/>
+      <c r="S254" s="5"/>
+      <c r="T254" s="26"/>
+    </row>
+    <row r="255" spans="1:20">
+      <c r="A255" s="13"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="5"/>
+      <c r="M255" s="5"/>
+      <c r="N255" s="5"/>
+      <c r="O255" s="5"/>
+      <c r="P255" s="5"/>
+      <c r="Q255" s="5"/>
+      <c r="R255" s="6"/>
+      <c r="S255" s="5"/>
+      <c r="T255" s="26"/>
+    </row>
+    <row r="256" spans="1:20">
+      <c r="A256" s="13"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5"/>
+      <c r="K256" s="5"/>
+      <c r="L256" s="5"/>
+      <c r="M256" s="5"/>
+      <c r="N256" s="5"/>
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
+      <c r="R256" s="6"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="26"/>
+    </row>
+    <row r="257" spans="1:20">
+      <c r="A257" s="13"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5"/>
+      <c r="L257" s="5"/>
+      <c r="M257" s="5"/>
+      <c r="N257" s="5"/>
+      <c r="O257" s="5"/>
+      <c r="P257" s="5"/>
+      <c r="Q257" s="5"/>
+      <c r="R257" s="6"/>
+      <c r="S257" s="5"/>
+      <c r="T257" s="26"/>
+    </row>
+    <row r="258" spans="1:20">
+      <c r="A258" s="13"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+      <c r="M258" s="5"/>
+      <c r="N258" s="5"/>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="6"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="26"/>
+    </row>
+    <row r="259" spans="1:20">
+      <c r="A259" s="13"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="5"/>
+      <c r="N259" s="5"/>
+      <c r="O259" s="5"/>
+      <c r="P259" s="5"/>
+      <c r="Q259" s="5"/>
+      <c r="R259" s="6"/>
+      <c r="S259" s="5"/>
+      <c r="T259" s="26"/>
+    </row>
+    <row r="260" spans="1:20">
+      <c r="A260" s="13"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5"/>
+      <c r="K260" s="5"/>
+      <c r="L260" s="5"/>
+      <c r="M260" s="5"/>
+      <c r="N260" s="5"/>
+      <c r="O260" s="5"/>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
+      <c r="R260" s="6"/>
+      <c r="S260" s="5"/>
+      <c r="T260" s="26"/>
+    </row>
+    <row r="261" spans="1:20">
+      <c r="A261" s="13"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5"/>
+      <c r="M261" s="5"/>
+      <c r="N261" s="5"/>
+      <c r="O261" s="5"/>
+      <c r="P261" s="5"/>
+      <c r="Q261" s="5"/>
+      <c r="R261" s="6"/>
+      <c r="S261" s="5"/>
+      <c r="T261" s="26"/>
+    </row>
+    <row r="262" spans="1:20">
+      <c r="A262" s="13"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="5"/>
+      <c r="M262" s="5"/>
+      <c r="N262" s="5"/>
+      <c r="O262" s="5"/>
+      <c r="P262" s="5"/>
+      <c r="Q262" s="5"/>
+      <c r="R262" s="6"/>
+      <c r="S262" s="5"/>
+      <c r="T262" s="26"/>
+    </row>
+    <row r="263" spans="1:20">
+      <c r="A263" s="13"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+      <c r="M263" s="5"/>
+      <c r="N263" s="5"/>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+      <c r="R263" s="6"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="26"/>
+    </row>
+    <row r="264" spans="1:20">
+      <c r="A264" s="13"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="5"/>
+      <c r="M264" s="5"/>
+      <c r="N264" s="5"/>
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
+      <c r="R264" s="6"/>
+      <c r="S264" s="5"/>
+      <c r="T264" s="26"/>
+    </row>
+    <row r="265" spans="1:20">
+      <c r="A265" s="13"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="5"/>
+      <c r="K265" s="5"/>
+      <c r="L265" s="5"/>
+      <c r="M265" s="5"/>
+      <c r="N265" s="5"/>
+      <c r="O265" s="5"/>
+      <c r="P265" s="5"/>
+      <c r="Q265" s="5"/>
+      <c r="R265" s="6"/>
+      <c r="S265" s="5"/>
+      <c r="T265" s="26"/>
+    </row>
+    <row r="266" spans="1:20">
+      <c r="A266" s="13"/>
+      <c r="B266" s="7"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5"/>
+      <c r="K266" s="5"/>
+      <c r="L266" s="5"/>
+      <c r="M266" s="5"/>
+      <c r="N266" s="5"/>
+      <c r="O266" s="5"/>
+      <c r="P266" s="5"/>
+      <c r="Q266" s="5"/>
+      <c r="R266" s="6"/>
+      <c r="S266" s="5"/>
+      <c r="T266" s="26"/>
+    </row>
+    <row r="267" spans="1:20">
+      <c r="A267" s="13"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="9"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+      <c r="H267" s="9"/>
+      <c r="I267" s="9"/>
+      <c r="J267" s="9"/>
+      <c r="K267" s="9"/>
+      <c r="L267" s="9"/>
+      <c r="M267" s="9"/>
+      <c r="N267" s="9"/>
+      <c r="O267" s="9"/>
+      <c r="P267" s="9"/>
+      <c r="Q267" s="9"/>
+      <c r="R267" s="10"/>
+      <c r="S267" s="5"/>
+      <c r="T267" s="26"/>
+    </row>
+    <row r="268" spans="1:20">
+      <c r="A268" s="13"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5"/>
+      <c r="K268" s="5"/>
+      <c r="L268" s="5"/>
+      <c r="M268" s="5"/>
+      <c r="N268" s="5"/>
+      <c r="O268" s="5"/>
+      <c r="P268" s="5"/>
+      <c r="Q268" s="5"/>
+      <c r="R268" s="5"/>
+      <c r="S268" s="5"/>
+      <c r="T268" s="26"/>
+    </row>
+    <row r="269" spans="1:20">
+      <c r="A269" s="13"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="5"/>
+      <c r="J269" s="5"/>
+      <c r="K269" s="5"/>
+      <c r="L269" s="5"/>
+      <c r="M269" s="5"/>
+      <c r="N269" s="5"/>
+      <c r="O269" s="5"/>
+      <c r="P269" s="5"/>
+      <c r="Q269" s="5"/>
+      <c r="R269" s="5"/>
+      <c r="S269" s="5"/>
+      <c r="T269" s="26"/>
+    </row>
+    <row r="270" spans="1:20">
+      <c r="A270" s="13"/>
+      <c r="B270" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+      <c r="L270" s="2"/>
+      <c r="M270" s="2"/>
+      <c r="N270" s="2"/>
+      <c r="O270" s="2"/>
+      <c r="P270" s="2"/>
+      <c r="Q270" s="3"/>
+      <c r="R270" s="5"/>
+      <c r="S270" s="5"/>
+      <c r="T270" s="26"/>
+    </row>
+    <row r="271" spans="1:20">
+      <c r="A271" s="13"/>
+      <c r="B271" s="7"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="5"/>
+      <c r="M271" s="5"/>
+      <c r="N271" s="5"/>
+      <c r="O271" s="5"/>
+      <c r="P271" s="5"/>
+      <c r="Q271" s="6"/>
+      <c r="R271" s="5"/>
+      <c r="S271" s="5"/>
+      <c r="T271" s="26"/>
+    </row>
+    <row r="272" spans="1:20">
+      <c r="A272" s="13"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="5"/>
+      <c r="K272" s="5"/>
+      <c r="L272" s="5"/>
+      <c r="M272" s="5"/>
+      <c r="N272" s="5"/>
+      <c r="O272" s="5"/>
+      <c r="P272" s="5"/>
+      <c r="Q272" s="6"/>
+      <c r="R272" s="5"/>
+      <c r="S272" s="5"/>
+      <c r="T272" s="26"/>
+    </row>
+    <row r="273" spans="1:20">
+      <c r="A273" s="13"/>
+      <c r="B273" s="7"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="5"/>
+      <c r="J273" s="5"/>
+      <c r="K273" s="5"/>
+      <c r="L273" s="5"/>
+      <c r="M273" s="5"/>
+      <c r="N273" s="5"/>
+      <c r="O273" s="5"/>
+      <c r="P273" s="5"/>
+      <c r="Q273" s="6"/>
+      <c r="R273" s="5"/>
+      <c r="S273" s="5"/>
+      <c r="T273" s="26"/>
+    </row>
+    <row r="274" spans="1:20">
+      <c r="A274" s="13"/>
+      <c r="B274" s="7"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5"/>
+      <c r="K274" s="5"/>
+      <c r="L274" s="5"/>
+      <c r="M274" s="5"/>
+      <c r="N274" s="5"/>
+      <c r="O274" s="5"/>
+      <c r="P274" s="5"/>
+      <c r="Q274" s="6"/>
+      <c r="R274" s="5"/>
+      <c r="S274" s="5"/>
+      <c r="T274" s="26"/>
+    </row>
+    <row r="275" spans="1:20">
+      <c r="A275" s="13"/>
+      <c r="B275" s="7"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="5"/>
+      <c r="J275" s="5"/>
+      <c r="K275" s="5"/>
+      <c r="L275" s="5"/>
+      <c r="M275" s="5"/>
+      <c r="N275" s="5"/>
+      <c r="O275" s="5"/>
+      <c r="P275" s="5"/>
+      <c r="Q275" s="6"/>
+      <c r="R275" s="5"/>
+      <c r="S275" s="5"/>
+      <c r="T275" s="26"/>
+    </row>
+    <row r="276" spans="1:20">
+      <c r="A276" s="13"/>
+      <c r="B276" s="7"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5"/>
+      <c r="K276" s="5"/>
+      <c r="L276" s="5"/>
+      <c r="M276" s="5"/>
+      <c r="N276" s="5"/>
+      <c r="O276" s="5"/>
+      <c r="P276" s="5"/>
+      <c r="Q276" s="6"/>
+      <c r="R276" s="5"/>
+      <c r="S276" s="5"/>
+      <c r="T276" s="26"/>
+    </row>
+    <row r="277" spans="1:20">
+      <c r="A277" s="13"/>
+      <c r="B277" s="7"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="5"/>
+      <c r="L277" s="5"/>
+      <c r="M277" s="5"/>
+      <c r="N277" s="5"/>
+      <c r="O277" s="5"/>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="6"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="5"/>
+      <c r="T277" s="26"/>
+    </row>
+    <row r="278" spans="1:20">
+      <c r="A278" s="13"/>
+      <c r="B278" s="7"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="5"/>
+      <c r="M278" s="5"/>
+      <c r="N278" s="5"/>
+      <c r="O278" s="5"/>
+      <c r="P278" s="5"/>
+      <c r="Q278" s="6"/>
+      <c r="R278" s="5"/>
+      <c r="S278" s="5"/>
+      <c r="T278" s="26"/>
+    </row>
+    <row r="279" spans="1:20">
+      <c r="A279" s="13"/>
+      <c r="B279" s="7"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5"/>
+      <c r="K279" s="5"/>
+      <c r="L279" s="5"/>
+      <c r="M279" s="5"/>
+      <c r="N279" s="5"/>
+      <c r="O279" s="5"/>
+      <c r="P279" s="5"/>
+      <c r="Q279" s="6"/>
+      <c r="R279" s="5"/>
+      <c r="S279" s="5"/>
+      <c r="T279" s="26"/>
+    </row>
+    <row r="280" spans="1:20">
+      <c r="A280" s="13"/>
+      <c r="B280" s="7"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5"/>
+      <c r="K280" s="5"/>
+      <c r="L280" s="5"/>
+      <c r="M280" s="5"/>
+      <c r="N280" s="5"/>
+      <c r="O280" s="5"/>
+      <c r="P280" s="5"/>
+      <c r="Q280" s="6"/>
+      <c r="R280" s="5"/>
+      <c r="S280" s="5"/>
+      <c r="T280" s="26"/>
+    </row>
+    <row r="281" spans="1:20">
+      <c r="A281" s="13"/>
+      <c r="B281" s="7"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5"/>
+      <c r="K281" s="5"/>
+      <c r="L281" s="5"/>
+      <c r="M281" s="5"/>
+      <c r="N281" s="5"/>
+      <c r="O281" s="5"/>
+      <c r="P281" s="5"/>
+      <c r="Q281" s="6"/>
+      <c r="R281" s="5"/>
+      <c r="S281" s="5"/>
+      <c r="T281" s="26"/>
+    </row>
+    <row r="282" spans="1:20">
+      <c r="A282" s="13"/>
+      <c r="B282" s="7"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5"/>
+      <c r="K282" s="5"/>
+      <c r="L282" s="5"/>
+      <c r="M282" s="5"/>
+      <c r="N282" s="5"/>
+      <c r="O282" s="5"/>
+      <c r="P282" s="5"/>
+      <c r="Q282" s="6"/>
+      <c r="R282" s="5"/>
+      <c r="S282" s="5"/>
+      <c r="T282" s="26"/>
+    </row>
+    <row r="283" spans="1:20">
+      <c r="A283" s="13"/>
+      <c r="B283" s="7"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5"/>
+      <c r="K283" s="5"/>
+      <c r="L283" s="5"/>
+      <c r="M283" s="5"/>
+      <c r="N283" s="5"/>
+      <c r="O283" s="5"/>
+      <c r="P283" s="5"/>
+      <c r="Q283" s="6"/>
+      <c r="R283" s="5"/>
+      <c r="S283" s="5"/>
+      <c r="T283" s="26"/>
+    </row>
+    <row r="284" spans="1:20">
+      <c r="A284" s="13"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="5"/>
+      <c r="J284" s="5"/>
+      <c r="K284" s="5"/>
+      <c r="L284" s="5"/>
+      <c r="M284" s="5"/>
+      <c r="N284" s="5"/>
+      <c r="O284" s="5"/>
+      <c r="P284" s="5"/>
+      <c r="Q284" s="6"/>
+      <c r="R284" s="5"/>
+      <c r="S284" s="5"/>
+      <c r="T284" s="26"/>
+    </row>
+    <row r="285" spans="1:20">
+      <c r="A285" s="13"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5"/>
+      <c r="K285" s="5"/>
+      <c r="L285" s="5"/>
+      <c r="M285" s="5"/>
+      <c r="N285" s="5"/>
+      <c r="O285" s="5"/>
+      <c r="P285" s="5"/>
+      <c r="Q285" s="6"/>
+      <c r="R285" s="5"/>
+      <c r="S285" s="5"/>
+      <c r="T285" s="26"/>
+    </row>
+    <row r="286" spans="1:20">
+      <c r="A286" s="13"/>
+      <c r="B286" s="7"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+      <c r="K286" s="5"/>
+      <c r="L286" s="5"/>
+      <c r="M286" s="5"/>
+      <c r="N286" s="5"/>
+      <c r="O286" s="5"/>
+      <c r="P286" s="5"/>
+      <c r="Q286" s="6"/>
+      <c r="R286" s="5"/>
+      <c r="S286" s="5"/>
+      <c r="T286" s="26"/>
+    </row>
+    <row r="287" spans="1:20">
+      <c r="A287" s="13"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5"/>
+      <c r="K287" s="5"/>
+      <c r="L287" s="5"/>
+      <c r="M287" s="5"/>
+      <c r="N287" s="5"/>
+      <c r="O287" s="5"/>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="6"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="26"/>
+    </row>
+    <row r="288" spans="1:20">
+      <c r="A288" s="13"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
+      <c r="J288" s="5"/>
+      <c r="K288" s="5"/>
+      <c r="L288" s="5"/>
+      <c r="M288" s="5"/>
+      <c r="N288" s="5"/>
+      <c r="O288" s="5"/>
+      <c r="P288" s="5"/>
+      <c r="Q288" s="6"/>
+      <c r="R288" s="5"/>
+      <c r="S288" s="5"/>
+      <c r="T288" s="26"/>
+    </row>
+    <row r="289" spans="1:20">
+      <c r="A289" s="13"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="9"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="9"/>
+      <c r="G289" s="9"/>
+      <c r="H289" s="9"/>
+      <c r="I289" s="9"/>
+      <c r="J289" s="9"/>
+      <c r="K289" s="9"/>
+      <c r="L289" s="9"/>
+      <c r="M289" s="9"/>
+      <c r="N289" s="9"/>
+      <c r="O289" s="9"/>
+      <c r="P289" s="9"/>
+      <c r="Q289" s="10"/>
+      <c r="R289" s="5"/>
+      <c r="S289" s="5"/>
+      <c r="T289" s="26"/>
+    </row>
+    <row r="290" spans="1:20">
+      <c r="A290" s="13"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+      <c r="K290" s="5"/>
+      <c r="L290" s="5"/>
+      <c r="M290" s="5"/>
+      <c r="N290" s="5"/>
+      <c r="O290" s="5"/>
+      <c r="P290" s="5"/>
+      <c r="Q290" s="5"/>
+      <c r="R290" s="5"/>
+      <c r="S290" s="5"/>
+      <c r="T290" s="26"/>
+    </row>
+    <row r="291" spans="1:20">
+      <c r="A291" s="13"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+      <c r="K291" s="5"/>
+      <c r="L291" s="5"/>
+      <c r="M291" s="5"/>
+      <c r="N291" s="5"/>
+      <c r="O291" s="5"/>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
+      <c r="R291" s="5"/>
+      <c r="S291" s="5"/>
+      <c r="T291" s="26"/>
+    </row>
+    <row r="292" spans="1:20">
+      <c r="A292" s="13"/>
+      <c r="B292" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
+      <c r="J292" s="2"/>
+      <c r="K292" s="2"/>
+      <c r="L292" s="2"/>
+      <c r="M292" s="2"/>
+      <c r="N292" s="2"/>
+      <c r="O292" s="2"/>
+      <c r="P292" s="2"/>
+      <c r="Q292" s="2"/>
+      <c r="R292" s="2"/>
+      <c r="S292" s="3"/>
+      <c r="T292" s="26"/>
+    </row>
+    <row r="293" spans="1:20">
+      <c r="A293" s="13"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5"/>
+      <c r="K293" s="5"/>
+      <c r="L293" s="5"/>
+      <c r="M293" s="5"/>
+      <c r="N293" s="5"/>
+      <c r="O293" s="5"/>
+      <c r="P293" s="5"/>
+      <c r="Q293" s="5"/>
+      <c r="R293" s="5"/>
+      <c r="S293" s="6"/>
+      <c r="T293" s="26"/>
+    </row>
+    <row r="294" spans="1:20">
+      <c r="A294" s="13"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5"/>
+      <c r="K294" s="5"/>
+      <c r="L294" s="5"/>
+      <c r="M294" s="5"/>
+      <c r="N294" s="5"/>
+      <c r="O294" s="5"/>
+      <c r="P294" s="5"/>
+      <c r="Q294" s="5"/>
+      <c r="R294" s="5"/>
+      <c r="S294" s="6"/>
+      <c r="T294" s="26"/>
+    </row>
+    <row r="295" spans="1:20">
+      <c r="A295" s="13"/>
+      <c r="B295" s="7"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+      <c r="K295" s="5"/>
+      <c r="L295" s="5"/>
+      <c r="M295" s="5"/>
+      <c r="N295" s="5"/>
+      <c r="O295" s="5"/>
+      <c r="P295" s="5"/>
+      <c r="Q295" s="5"/>
+      <c r="R295" s="5"/>
+      <c r="S295" s="6"/>
+      <c r="T295" s="26"/>
+    </row>
+    <row r="296" spans="1:20">
+      <c r="A296" s="13"/>
+      <c r="B296" s="7"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="5"/>
+      <c r="K296" s="5"/>
+      <c r="L296" s="5"/>
+      <c r="M296" s="5"/>
+      <c r="N296" s="5"/>
+      <c r="O296" s="5"/>
+      <c r="P296" s="5"/>
+      <c r="Q296" s="5"/>
+      <c r="R296" s="5"/>
+      <c r="S296" s="6"/>
+      <c r="T296" s="26"/>
+    </row>
+    <row r="297" spans="1:20">
+      <c r="A297" s="13"/>
+      <c r="B297" s="7"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
+      <c r="J297" s="5"/>
+      <c r="K297" s="5"/>
+      <c r="L297" s="5"/>
+      <c r="M297" s="5"/>
+      <c r="N297" s="5"/>
+      <c r="O297" s="5"/>
+      <c r="P297" s="5"/>
+      <c r="Q297" s="5"/>
+      <c r="R297" s="5"/>
+      <c r="S297" s="6"/>
+      <c r="T297" s="26"/>
+    </row>
+    <row r="298" spans="1:20">
+      <c r="A298" s="13"/>
+      <c r="B298" s="7"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="5"/>
+      <c r="K298" s="5"/>
+      <c r="L298" s="5"/>
+      <c r="M298" s="5"/>
+      <c r="N298" s="5"/>
+      <c r="O298" s="5"/>
+      <c r="P298" s="5"/>
+      <c r="Q298" s="5"/>
+      <c r="R298" s="5"/>
+      <c r="S298" s="6"/>
+      <c r="T298" s="26"/>
+    </row>
+    <row r="299" spans="1:20">
+      <c r="A299" s="13"/>
+      <c r="B299" s="7"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="5"/>
+      <c r="L299" s="5"/>
+      <c r="M299" s="5"/>
+      <c r="N299" s="5"/>
+      <c r="O299" s="5"/>
+      <c r="P299" s="5"/>
+      <c r="Q299" s="5"/>
+      <c r="R299" s="5"/>
+      <c r="S299" s="6"/>
+      <c r="T299" s="26"/>
+    </row>
+    <row r="300" spans="1:20">
+      <c r="A300" s="13"/>
+      <c r="B300" s="7"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
+      <c r="J300" s="5"/>
+      <c r="K300" s="5"/>
+      <c r="L300" s="5"/>
+      <c r="M300" s="5"/>
+      <c r="N300" s="5"/>
+      <c r="O300" s="5"/>
+      <c r="P300" s="5"/>
+      <c r="Q300" s="5"/>
+      <c r="R300" s="5"/>
+      <c r="S300" s="6"/>
+      <c r="T300" s="26"/>
+    </row>
+    <row r="301" spans="1:20">
+      <c r="A301" s="13"/>
+      <c r="B301" s="7"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5"/>
+      <c r="K301" s="5"/>
+      <c r="L301" s="5"/>
+      <c r="M301" s="5"/>
+      <c r="N301" s="5"/>
+      <c r="O301" s="5"/>
+      <c r="P301" s="5"/>
+      <c r="Q301" s="5"/>
+      <c r="R301" s="5"/>
+      <c r="S301" s="6"/>
+      <c r="T301" s="26"/>
+    </row>
+    <row r="302" spans="1:20">
+      <c r="A302" s="13"/>
+      <c r="B302" s="7"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
+      <c r="J302" s="5"/>
+      <c r="K302" s="5"/>
+      <c r="L302" s="5"/>
+      <c r="M302" s="5"/>
+      <c r="N302" s="5"/>
+      <c r="O302" s="5"/>
+      <c r="P302" s="5"/>
+      <c r="Q302" s="5"/>
+      <c r="R302" s="5"/>
+      <c r="S302" s="6"/>
+      <c r="T302" s="26"/>
+    </row>
+    <row r="303" spans="1:20">
+      <c r="A303" s="13"/>
+      <c r="B303" s="7"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="5"/>
+      <c r="J303" s="5"/>
+      <c r="K303" s="5"/>
+      <c r="L303" s="5"/>
+      <c r="M303" s="5"/>
+      <c r="N303" s="5"/>
+      <c r="O303" s="5"/>
+      <c r="P303" s="5"/>
+      <c r="Q303" s="5"/>
+      <c r="R303" s="5"/>
+      <c r="S303" s="6"/>
+      <c r="T303" s="26"/>
+    </row>
+    <row r="304" spans="1:20">
+      <c r="A304" s="13"/>
+      <c r="B304" s="7"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="5"/>
+      <c r="J304" s="5"/>
+      <c r="K304" s="5"/>
+      <c r="L304" s="5"/>
+      <c r="M304" s="5"/>
+      <c r="N304" s="5"/>
+      <c r="O304" s="5"/>
+      <c r="P304" s="5"/>
+      <c r="Q304" s="5"/>
+      <c r="R304" s="5"/>
+      <c r="S304" s="6"/>
+      <c r="T304" s="26"/>
+    </row>
+    <row r="305" spans="1:20">
+      <c r="A305" s="13"/>
+      <c r="B305" s="7"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="5"/>
+      <c r="J305" s="5"/>
+      <c r="K305" s="5"/>
+      <c r="L305" s="5"/>
+      <c r="M305" s="5"/>
+      <c r="N305" s="5"/>
+      <c r="O305" s="5"/>
+      <c r="P305" s="5"/>
+      <c r="Q305" s="5"/>
+      <c r="R305" s="5"/>
+      <c r="S305" s="6"/>
+      <c r="T305" s="26"/>
+    </row>
+    <row r="306" spans="1:20">
+      <c r="A306" s="13"/>
+      <c r="B306" s="7"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="5"/>
+      <c r="J306" s="5"/>
+      <c r="K306" s="5"/>
+      <c r="L306" s="5"/>
+      <c r="M306" s="5"/>
+      <c r="N306" s="5"/>
+      <c r="O306" s="5"/>
+      <c r="P306" s="5"/>
+      <c r="Q306" s="5"/>
+      <c r="R306" s="5"/>
+      <c r="S306" s="6"/>
+      <c r="T306" s="26"/>
+    </row>
+    <row r="307" spans="1:20">
+      <c r="A307" s="13"/>
+      <c r="B307" s="7"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5"/>
+      <c r="K307" s="5"/>
+      <c r="L307" s="5"/>
+      <c r="M307" s="5"/>
+      <c r="N307" s="5"/>
+      <c r="O307" s="5"/>
+      <c r="P307" s="5"/>
+      <c r="Q307" s="5"/>
+      <c r="R307" s="5"/>
+      <c r="S307" s="6"/>
+      <c r="T307" s="26"/>
+    </row>
+    <row r="308" spans="1:20">
+      <c r="A308" s="13"/>
+      <c r="B308" s="7"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="5"/>
+      <c r="J308" s="5"/>
+      <c r="K308" s="5"/>
+      <c r="L308" s="5"/>
+      <c r="M308" s="5"/>
+      <c r="N308" s="5"/>
+      <c r="O308" s="5"/>
+      <c r="P308" s="5"/>
+      <c r="Q308" s="5"/>
+      <c r="R308" s="5"/>
+      <c r="S308" s="6"/>
+      <c r="T308" s="26"/>
+    </row>
+    <row r="309" spans="1:20">
+      <c r="A309" s="13"/>
+      <c r="B309" s="7"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5"/>
+      <c r="K309" s="5"/>
+      <c r="L309" s="5"/>
+      <c r="M309" s="5"/>
+      <c r="N309" s="5"/>
+      <c r="O309" s="5"/>
+      <c r="P309" s="5"/>
+      <c r="Q309" s="5"/>
+      <c r="R309" s="5"/>
+      <c r="S309" s="6"/>
+      <c r="T309" s="26"/>
+    </row>
+    <row r="310" spans="1:20">
+      <c r="A310" s="13"/>
+      <c r="B310" s="7"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="5"/>
+      <c r="J310" s="5"/>
+      <c r="K310" s="5"/>
+      <c r="L310" s="5"/>
+      <c r="M310" s="5"/>
+      <c r="N310" s="5"/>
+      <c r="O310" s="5"/>
+      <c r="P310" s="5"/>
+      <c r="Q310" s="5"/>
+      <c r="R310" s="5"/>
+      <c r="S310" s="6"/>
+      <c r="T310" s="26"/>
+    </row>
+    <row r="311" spans="1:20">
+      <c r="A311" s="13"/>
+      <c r="B311" s="7"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5"/>
+      <c r="K311" s="5"/>
+      <c r="L311" s="5"/>
+      <c r="M311" s="5"/>
+      <c r="N311" s="5"/>
+      <c r="O311" s="5"/>
+      <c r="P311" s="5"/>
+      <c r="Q311" s="5"/>
+      <c r="R311" s="5"/>
+      <c r="S311" s="6"/>
+      <c r="T311" s="26"/>
+    </row>
+    <row r="312" spans="1:20">
+      <c r="A312" s="13"/>
+      <c r="B312" s="7"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="5"/>
+      <c r="J312" s="5"/>
+      <c r="K312" s="5"/>
+      <c r="L312" s="5"/>
+      <c r="M312" s="5"/>
+      <c r="N312" s="5"/>
+      <c r="O312" s="5"/>
+      <c r="P312" s="5"/>
+      <c r="Q312" s="5"/>
+      <c r="R312" s="5"/>
+      <c r="S312" s="6"/>
+      <c r="T312" s="26"/>
+    </row>
+    <row r="313" spans="1:20">
+      <c r="A313" s="13"/>
+      <c r="B313" s="7"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
+      <c r="J313" s="5"/>
+      <c r="K313" s="5"/>
+      <c r="L313" s="5"/>
+      <c r="M313" s="5"/>
+      <c r="N313" s="5"/>
+      <c r="O313" s="5"/>
+      <c r="P313" s="5"/>
+      <c r="Q313" s="5"/>
+      <c r="R313" s="5"/>
+      <c r="S313" s="6"/>
+      <c r="T313" s="26"/>
+    </row>
+    <row r="314" spans="1:20">
+      <c r="A314" s="13"/>
+      <c r="B314" s="7"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5"/>
+      <c r="K314" s="5"/>
+      <c r="L314" s="5"/>
+      <c r="M314" s="5"/>
+      <c r="N314" s="5"/>
+      <c r="O314" s="5"/>
+      <c r="P314" s="5"/>
+      <c r="Q314" s="5"/>
+      <c r="R314" s="5"/>
+      <c r="S314" s="6"/>
+      <c r="T314" s="26"/>
+    </row>
+    <row r="315" spans="1:20">
+      <c r="A315" s="13"/>
+      <c r="B315" s="7"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="5"/>
+      <c r="J315" s="5"/>
+      <c r="K315" s="5"/>
+      <c r="L315" s="5"/>
+      <c r="M315" s="5"/>
+      <c r="N315" s="5"/>
+      <c r="O315" s="5"/>
+      <c r="P315" s="5"/>
+      <c r="Q315" s="5"/>
+      <c r="R315" s="5"/>
+      <c r="S315" s="6"/>
+      <c r="T315" s="26"/>
+    </row>
+    <row r="316" spans="1:20">
+      <c r="A316" s="13"/>
+      <c r="B316" s="7"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
+      <c r="H316" s="5"/>
+      <c r="I316" s="5"/>
+      <c r="J316" s="5"/>
+      <c r="K316" s="5"/>
+      <c r="L316" s="5"/>
+      <c r="M316" s="5"/>
+      <c r="N316" s="5"/>
+      <c r="O316" s="5"/>
+      <c r="P316" s="5"/>
+      <c r="Q316" s="5"/>
+      <c r="R316" s="5"/>
+      <c r="S316" s="6"/>
+      <c r="T316" s="26"/>
+    </row>
+    <row r="317" spans="1:20">
+      <c r="A317" s="13"/>
+      <c r="B317" s="7"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5"/>
+      <c r="K317" s="5"/>
+      <c r="L317" s="5"/>
+      <c r="M317" s="5"/>
+      <c r="N317" s="5"/>
+      <c r="O317" s="5"/>
+      <c r="P317" s="5"/>
+      <c r="Q317" s="5"/>
+      <c r="R317" s="5"/>
+      <c r="S317" s="6"/>
+      <c r="T317" s="26"/>
+    </row>
+    <row r="318" spans="1:20">
+      <c r="A318" s="13"/>
+      <c r="B318" s="7"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="5"/>
+      <c r="J318" s="5"/>
+      <c r="K318" s="5"/>
+      <c r="L318" s="5"/>
+      <c r="M318" s="5"/>
+      <c r="N318" s="5"/>
+      <c r="O318" s="5"/>
+      <c r="P318" s="5"/>
+      <c r="Q318" s="5"/>
+      <c r="R318" s="5"/>
+      <c r="S318" s="6"/>
+      <c r="T318" s="26"/>
+    </row>
+    <row r="319" spans="1:20">
+      <c r="A319" s="13"/>
+      <c r="B319" s="7"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5"/>
+      <c r="K319" s="5"/>
+      <c r="L319" s="5"/>
+      <c r="M319" s="5"/>
+      <c r="N319" s="5"/>
+      <c r="O319" s="5"/>
+      <c r="P319" s="5"/>
+      <c r="Q319" s="5"/>
+      <c r="R319" s="5"/>
+      <c r="S319" s="6"/>
+      <c r="T319" s="26"/>
+    </row>
+    <row r="320" spans="1:20">
+      <c r="A320" s="13"/>
+      <c r="B320" s="7"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+      <c r="G320" s="5"/>
+      <c r="H320" s="5"/>
+      <c r="I320" s="5"/>
+      <c r="J320" s="5"/>
+      <c r="K320" s="5"/>
+      <c r="L320" s="5"/>
+      <c r="M320" s="5"/>
+      <c r="N320" s="5"/>
+      <c r="O320" s="5"/>
+      <c r="P320" s="5"/>
+      <c r="Q320" s="5"/>
+      <c r="R320" s="5"/>
+      <c r="S320" s="6"/>
+      <c r="T320" s="26"/>
+    </row>
+    <row r="321" spans="1:20">
+      <c r="A321" s="13"/>
+      <c r="B321" s="7"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="5"/>
+      <c r="K321" s="5"/>
+      <c r="L321" s="5"/>
+      <c r="M321" s="5"/>
+      <c r="N321" s="5"/>
+      <c r="O321" s="5"/>
+      <c r="P321" s="5"/>
+      <c r="Q321" s="5"/>
+      <c r="R321" s="5"/>
+      <c r="S321" s="6"/>
+      <c r="T321" s="26"/>
+    </row>
+    <row r="322" spans="1:20">
+      <c r="A322" s="13"/>
+      <c r="B322" s="7"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5"/>
+      <c r="K322" s="5"/>
+      <c r="L322" s="5"/>
+      <c r="M322" s="5"/>
+      <c r="N322" s="5"/>
+      <c r="O322" s="5"/>
+      <c r="P322" s="5"/>
+      <c r="Q322" s="5"/>
+      <c r="R322" s="5"/>
+      <c r="S322" s="6"/>
+      <c r="T322" s="26"/>
+    </row>
+    <row r="323" spans="1:20">
+      <c r="A323" s="13"/>
+      <c r="B323" s="7"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5"/>
+      <c r="K323" s="5"/>
+      <c r="L323" s="5"/>
+      <c r="M323" s="5"/>
+      <c r="N323" s="5"/>
+      <c r="O323" s="5"/>
+      <c r="P323" s="5"/>
+      <c r="Q323" s="5"/>
+      <c r="R323" s="5"/>
+      <c r="S323" s="6"/>
+      <c r="T323" s="26"/>
+    </row>
+    <row r="324" spans="1:20">
+      <c r="A324" s="13"/>
+      <c r="B324" s="7"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="5"/>
+      <c r="J324" s="5"/>
+      <c r="K324" s="5"/>
+      <c r="L324" s="5"/>
+      <c r="M324" s="5"/>
+      <c r="N324" s="5"/>
+      <c r="O324" s="5"/>
+      <c r="P324" s="5"/>
+      <c r="Q324" s="5"/>
+      <c r="R324" s="5"/>
+      <c r="S324" s="6"/>
+      <c r="T324" s="26"/>
+    </row>
+    <row r="325" spans="1:20">
+      <c r="A325" s="13"/>
+      <c r="B325" s="7"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5"/>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="5"/>
+      <c r="I325" s="5"/>
+      <c r="J325" s="5"/>
+      <c r="K325" s="5"/>
+      <c r="L325" s="5"/>
+      <c r="M325" s="5"/>
+      <c r="N325" s="5"/>
+      <c r="O325" s="5"/>
+      <c r="P325" s="5"/>
+      <c r="Q325" s="5"/>
+      <c r="R325" s="5"/>
+      <c r="S325" s="6"/>
+      <c r="T325" s="26"/>
+    </row>
+    <row r="326" spans="1:20">
+      <c r="A326" s="13"/>
+      <c r="B326" s="7"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="5"/>
+      <c r="J326" s="5"/>
+      <c r="K326" s="5"/>
+      <c r="L326" s="5"/>
+      <c r="M326" s="5"/>
+      <c r="N326" s="5"/>
+      <c r="O326" s="5"/>
+      <c r="P326" s="5"/>
+      <c r="Q326" s="5"/>
+      <c r="R326" s="5"/>
+      <c r="S326" s="6"/>
+      <c r="T326" s="26"/>
+    </row>
+    <row r="327" spans="1:20">
+      <c r="A327" s="13"/>
+      <c r="B327" s="7"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5"/>
+      <c r="K327" s="5"/>
+      <c r="L327" s="5"/>
+      <c r="M327" s="5"/>
+      <c r="N327" s="5"/>
+      <c r="O327" s="5"/>
+      <c r="P327" s="5"/>
+      <c r="Q327" s="5"/>
+      <c r="R327" s="5"/>
+      <c r="S327" s="6"/>
+      <c r="T327" s="26"/>
+    </row>
+    <row r="328" spans="1:20">
+      <c r="A328" s="13"/>
+      <c r="B328" s="8"/>
+      <c r="C328" s="9"/>
+      <c r="D328" s="9"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="9"/>
+      <c r="G328" s="9"/>
+      <c r="H328" s="9"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="9"/>
+      <c r="K328" s="9"/>
+      <c r="L328" s="9"/>
+      <c r="M328" s="9"/>
+      <c r="N328" s="9"/>
+      <c r="O328" s="9"/>
+      <c r="P328" s="9"/>
+      <c r="Q328" s="9"/>
+      <c r="R328" s="9"/>
+      <c r="S328" s="10"/>
+      <c r="T328" s="26"/>
+    </row>
+    <row r="329" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A329" s="27"/>
+      <c r="B329" s="28"/>
+      <c r="C329" s="28"/>
+      <c r="D329" s="28"/>
+      <c r="E329" s="28"/>
+      <c r="F329" s="28"/>
+      <c r="G329" s="28"/>
+      <c r="H329" s="28"/>
+      <c r="I329" s="28"/>
+      <c r="J329" s="28"/>
+      <c r="K329" s="28"/>
+      <c r="L329" s="28"/>
+      <c r="M329" s="28"/>
+      <c r="N329" s="28"/>
+      <c r="O329" s="28"/>
+      <c r="P329" s="28"/>
+      <c r="Q329" s="28"/>
+      <c r="R329" s="28"/>
+      <c r="S329" s="28"/>
+      <c r="T329" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>